--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5338,6 +5338,90 @@
         <v>331.5222222222222</v>
       </c>
       <c r="E239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>364.42</v>
+      </c>
+      <c r="C240" t="n">
+        <v>342.6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>335.5777777777778</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>368.09</v>
+      </c>
+      <c r="C241" t="n">
+        <v>338.3527272727272</v>
+      </c>
+      <c r="D241" t="n">
+        <v>342.7433333333333</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="C242" t="n">
+        <v>349.6409090909091</v>
+      </c>
+      <c r="D242" t="n">
+        <v>353.2266666666667</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>375.58</v>
+      </c>
+      <c r="C243" t="n">
+        <v>346.2918181818182</v>
+      </c>
+      <c r="D243" t="n">
+        <v>349.49</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5354,7 +5438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8052,6 +8136,46 @@
       </c>
       <c r="B269" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -8220,28 +8344,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1481185281028296</v>
+        <v>0.1850914666870817</v>
       </c>
       <c r="J2" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00435022257930151</v>
+        <v>0.006970949150067351</v>
       </c>
       <c r="M2" t="n">
-        <v>12.81860675313432</v>
+        <v>12.76952187135075</v>
       </c>
       <c r="N2" t="n">
-        <v>254.9906896471883</v>
+        <v>252.8995482641947</v>
       </c>
       <c r="O2" t="n">
-        <v>15.96842790155588</v>
+        <v>15.90281573383137</v>
       </c>
       <c r="P2" t="n">
-        <v>358.0987038601422</v>
+        <v>357.7326704389594</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -8297,28 +8421,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3820627802740783</v>
+        <v>0.4456769521409532</v>
       </c>
       <c r="J3" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03526884489450532</v>
+        <v>0.04775310548011891</v>
       </c>
       <c r="M3" t="n">
-        <v>11.37725611764391</v>
+        <v>11.48537996093544</v>
       </c>
       <c r="N3" t="n">
-        <v>202.7205646235233</v>
+        <v>205.0196940537013</v>
       </c>
       <c r="O3" t="n">
-        <v>14.23799721251284</v>
+        <v>14.31850879294703</v>
       </c>
       <c r="P3" t="n">
-        <v>316.306418710217</v>
+        <v>315.674898448841</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -8374,28 +8498,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2483030228915373</v>
+        <v>0.3183828925294539</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0148268809207982</v>
+        <v>0.02437643957972269</v>
       </c>
       <c r="M4" t="n">
-        <v>11.28360121690074</v>
+        <v>11.40248521372792</v>
       </c>
       <c r="N4" t="n">
-        <v>202.7683745676281</v>
+        <v>205.6175356654201</v>
       </c>
       <c r="O4" t="n">
-        <v>14.23967606961718</v>
+        <v>14.33937012791776</v>
       </c>
       <c r="P4" t="n">
-        <v>320.7817063590746</v>
+        <v>320.089777963336</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -8432,7 +8556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14657,6 +14781,114 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-36.147933089948495,175.44048879093148</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-36.14848648392107,175.44112450045535</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-36.14892579970135,175.4418453154656</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-36.14790479778137,175.44050989785296</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-36.14851922636941,175.44110007350284</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-36.14887055990679,175.4418865259087</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-36.1478098995076,175.44058069507548</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-36.148432205173776,175.4411649941503</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-36.148789743097005,175.44194681740737</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-36.14784705708141,175.4405529743307</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-36.14845802349741,175.44114573285663</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-36.14881854934608,175.44192532719228</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -8189,7 +8189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8280,35 +8280,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -8367,27 +8372,28 @@
       <c r="P2" t="n">
         <v>357.7326704389594</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.43839286317464 -36.150742401085985, 175.44369736539804 -36.14363198316136)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4383928631746</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.15074240108599</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.443697365398</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.14363198316136</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.4410451142863</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.14718719212367</v>
       </c>
     </row>
@@ -8444,27 +8450,28 @@
       <c r="P3" t="n">
         <v>315.674898448841</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.43915407259882 -36.15112759124954, 175.4444585438626 -36.14401716514674)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.4391540725988</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.15112759124954</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.4444585438626</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.14401716514674</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4418063082307</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.14757237819814</v>
       </c>
     </row>
@@ -8521,27 +8528,28 @@
       <c r="P4" t="n">
         <v>320.089777963336</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.4399152820236 -36.151512779521305, 175.44521972232596 -36.1444023452407)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4399152820236</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.1515127795213</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.445219722326</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.1444023452407</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4425675021748</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.147957562381</v>
       </c>
     </row>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5422,6 +5422,69 @@
         <v>349.49</v>
       </c>
       <c r="E243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>369.41</v>
+      </c>
+      <c r="C244" t="n">
+        <v>337.9872727272727</v>
+      </c>
+      <c r="D244" t="n">
+        <v>341.4711111111111</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>363.0100000000001</v>
+      </c>
+      <c r="C245" t="n">
+        <v>339.5154545454546</v>
+      </c>
+      <c r="D245" t="n">
+        <v>341.2988888888889</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>345.1390909090909</v>
+      </c>
+      <c r="D246" t="n">
+        <v>347.7633333333333</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5438,7 +5501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8176,6 +8239,36 @@
       </c>
       <c r="B273" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -8349,28 +8442,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1850914666870817</v>
+        <v>0.2082589156194291</v>
       </c>
       <c r="J2" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K2" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006970949150067351</v>
+        <v>0.008994213094133841</v>
       </c>
       <c r="M2" t="n">
-        <v>12.76952187135075</v>
+        <v>12.71581773454222</v>
       </c>
       <c r="N2" t="n">
-        <v>252.8995482641947</v>
+        <v>251.2837705269416</v>
       </c>
       <c r="O2" t="n">
-        <v>15.90281573383137</v>
+        <v>15.85193270635923</v>
       </c>
       <c r="P2" t="n">
-        <v>357.7326704389594</v>
+        <v>357.5012889974835</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8427,28 +8520,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4456769521409532</v>
+        <v>0.4811206201713374</v>
       </c>
       <c r="J3" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K3" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04775310548011891</v>
+        <v>0.05598411911620993</v>
       </c>
       <c r="M3" t="n">
-        <v>11.48537996093544</v>
+        <v>11.51230486559166</v>
       </c>
       <c r="N3" t="n">
-        <v>205.0196940537013</v>
+        <v>204.8811322579963</v>
       </c>
       <c r="O3" t="n">
-        <v>14.31850879294703</v>
+        <v>14.31366941975384</v>
       </c>
       <c r="P3" t="n">
-        <v>315.674898448841</v>
+        <v>315.3197965689606</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8505,28 +8598,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3183828925294539</v>
+        <v>0.3614250698801227</v>
       </c>
       <c r="J4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K4" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02437643957972269</v>
+        <v>0.03165206687985034</v>
       </c>
       <c r="M4" t="n">
-        <v>11.40248521372792</v>
+        <v>11.45311453736765</v>
       </c>
       <c r="N4" t="n">
-        <v>205.6175356654201</v>
+        <v>206.0008999838027</v>
       </c>
       <c r="O4" t="n">
-        <v>14.33937012791776</v>
+        <v>14.35273144679446</v>
       </c>
       <c r="P4" t="n">
-        <v>320.089777963336</v>
+        <v>319.6613085646234</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8564,7 +8657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14897,6 +14990,87 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>-36.147894621851265,175.44051748943963</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-36.14852204367745,175.4410979716965</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>-36.148880367562334,175.44187920912614</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-36.14794395969032,175.44048068172884</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>-36.14851026284427,175.4411067605922</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>-36.14888169523619,175.44187821864452</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>-36.14780296137078,175.44058587114532</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>-36.14846690993392,175.44113910328795</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>-36.14883186035032,175.44191539682902</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5485,6 +5485,27 @@
         <v>347.7633333333333</v>
       </c>
       <c r="E246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="C247" t="n">
+        <v>318.4618181818182</v>
+      </c>
+      <c r="D247" t="n">
+        <v>317.02</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5501,7 +5522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8269,6 +8290,16 @@
       </c>
       <c r="B276" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -8442,28 +8473,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2082589156194291</v>
+        <v>0.2109810598311451</v>
       </c>
       <c r="J2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008994213094133841</v>
+        <v>0.009312440776522934</v>
       </c>
       <c r="M2" t="n">
-        <v>12.71581773454222</v>
+        <v>12.67299736839232</v>
       </c>
       <c r="N2" t="n">
-        <v>251.2837705269416</v>
+        <v>250.2138633282166</v>
       </c>
       <c r="O2" t="n">
-        <v>15.85193270635923</v>
+        <v>15.81814980736422</v>
       </c>
       <c r="P2" t="n">
-        <v>357.5012889974835</v>
+        <v>357.4739065188965</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8520,28 +8551,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4811206201713374</v>
+        <v>0.4733032072855413</v>
       </c>
       <c r="J3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05598411911620993</v>
+        <v>0.05464972930893908</v>
       </c>
       <c r="M3" t="n">
-        <v>11.51230486559166</v>
+        <v>11.50114596009</v>
       </c>
       <c r="N3" t="n">
-        <v>204.8811322579963</v>
+        <v>204.3553948149041</v>
       </c>
       <c r="O3" t="n">
-        <v>14.31366941975384</v>
+        <v>14.2952927502344</v>
       </c>
       <c r="P3" t="n">
-        <v>315.3197965689606</v>
+        <v>315.3987066492903</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8598,28 +8629,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3614250698801227</v>
+        <v>0.3502979159933971</v>
       </c>
       <c r="J4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03165206687985034</v>
+        <v>0.02999520793856436</v>
       </c>
       <c r="M4" t="n">
-        <v>11.45311453736765</v>
+        <v>11.4540327919167</v>
       </c>
       <c r="N4" t="n">
-        <v>206.0008999838027</v>
+        <v>205.6988770649075</v>
       </c>
       <c r="O4" t="n">
-        <v>14.35273144679446</v>
+        <v>14.34220614357873</v>
       </c>
       <c r="P4" t="n">
-        <v>319.6613085646234</v>
+        <v>319.7728612393994</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8657,7 +8688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15071,6 +15102,33 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>-36.14792144930248,175.44049747525247</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-36.14867256637318,175.44098567646668</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>-36.14906886291669,175.4417385859707</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5506,6 +5506,25 @@
         <v>317.02</v>
       </c>
       <c r="E247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="n">
+        <v>313.9754545454546</v>
+      </c>
+      <c r="D248" t="n">
+        <v>313.6111111111111</v>
+      </c>
+      <c r="E248" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5522,7 +5541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8300,6 +8319,16 @@
       </c>
       <c r="B277" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -8476,7 +8505,7 @@
         <v>0.2109810598311451</v>
       </c>
       <c r="J2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K2" t="n">
         <v>226</v>
@@ -8551,28 +8580,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4733032072855413</v>
+        <v>0.4617194293838556</v>
       </c>
       <c r="J3" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05464972930893908</v>
+        <v>0.05240311185563251</v>
       </c>
       <c r="M3" t="n">
-        <v>11.50114596009</v>
+        <v>11.5089713080731</v>
       </c>
       <c r="N3" t="n">
-        <v>204.3553948149041</v>
+        <v>204.2609062379706</v>
       </c>
       <c r="O3" t="n">
-        <v>14.2952927502344</v>
+        <v>14.2919874838306</v>
       </c>
       <c r="P3" t="n">
-        <v>315.3987066492903</v>
+        <v>315.516363142417</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8629,28 +8658,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3502979159933971</v>
+        <v>0.3361345848561389</v>
       </c>
       <c r="J4" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K4" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02999520793856436</v>
+        <v>0.02782510197095978</v>
       </c>
       <c r="M4" t="n">
-        <v>11.4540327919167</v>
+        <v>11.47007267269699</v>
       </c>
       <c r="N4" t="n">
-        <v>205.6988770649075</v>
+        <v>205.7936964496232</v>
       </c>
       <c r="O4" t="n">
-        <v>14.34220614357873</v>
+        <v>14.34551136940134</v>
       </c>
       <c r="P4" t="n">
-        <v>319.7728612393994</v>
+        <v>319.9156813257765</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8688,7 +8717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15129,6 +15158,29 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>-36.148707151959485,175.44095987433286</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>-36.14909514227204,175.4417189807272</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5525,6 +5525,69 @@
         <v>313.6111111111111</v>
       </c>
       <c r="E248" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>375.69</v>
+      </c>
+      <c r="C249" t="n">
+        <v>294.0672727272727</v>
+      </c>
+      <c r="D249" t="n">
+        <v>292.3711111111111</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>343.14</v>
+      </c>
+      <c r="C250" t="n">
+        <v>316.8936363636363</v>
+      </c>
+      <c r="D250" t="n">
+        <v>315.0033333333333</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="C251" t="n">
+        <v>303.7336363636364</v>
+      </c>
+      <c r="D251" t="n">
+        <v>302.9888888888889</v>
+      </c>
+      <c r="E251" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5541,7 +5604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8329,6 +8392,36 @@
       </c>
       <c r="B278" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -8502,28 +8595,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2109810598311451</v>
+        <v>0.1790947379603678</v>
       </c>
       <c r="J2" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009312440776522934</v>
+        <v>0.006746163420698781</v>
       </c>
       <c r="M2" t="n">
-        <v>12.67299736839232</v>
+        <v>12.78147942524068</v>
       </c>
       <c r="N2" t="n">
-        <v>250.2138633282166</v>
+        <v>253.2237906793501</v>
       </c>
       <c r="O2" t="n">
-        <v>15.81814980736422</v>
+        <v>15.91300696535228</v>
       </c>
       <c r="P2" t="n">
-        <v>357.4739065188965</v>
+        <v>357.7980114268724</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8580,28 +8673,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4617194293838556</v>
+        <v>0.40603685854463</v>
       </c>
       <c r="J3" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05240311185563251</v>
+        <v>0.04065730836820747</v>
       </c>
       <c r="M3" t="n">
-        <v>11.5089713080731</v>
+        <v>11.65147599730767</v>
       </c>
       <c r="N3" t="n">
-        <v>204.2609062379706</v>
+        <v>208.9750191180323</v>
       </c>
       <c r="O3" t="n">
-        <v>14.2919874838306</v>
+        <v>14.45596828711354</v>
       </c>
       <c r="P3" t="n">
-        <v>315.516363142417</v>
+        <v>316.0835863860781</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8658,28 +8751,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3361345848561389</v>
+        <v>0.2683389497825079</v>
       </c>
       <c r="J4" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02782510197095978</v>
+        <v>0.01765963043348129</v>
       </c>
       <c r="M4" t="n">
-        <v>11.47007267269699</v>
+        <v>11.64610301285263</v>
       </c>
       <c r="N4" t="n">
-        <v>205.7936964496232</v>
+        <v>212.2509752929167</v>
       </c>
       <c r="O4" t="n">
-        <v>14.34551136940134</v>
+        <v>14.56883575626126</v>
       </c>
       <c r="P4" t="n">
-        <v>319.9156813257765</v>
+        <v>320.6011990604407</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8717,7 +8810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15181,6 +15274,87 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>-36.147846209087035,175.44055360696208</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>-36.148860625001916,175.4408453774238</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>-36.14925888280734,175.44159682469126</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>-36.148097138199255,175.4403664050024</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>-36.14868465556044,175.44097665748623</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>-36.14908440953697,175.44172698769424</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>-36.14817646412324,175.4403072247858</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>-36.148786106594805,175.44090097114156</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>-36.14917702968461,175.44165788999072</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5590,6 +5590,27 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>360.97</v>
+      </c>
+      <c r="C252" t="n">
+        <v>301.8881818181818</v>
+      </c>
+      <c r="D252" t="n">
+        <v>292.8611111111111</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8422,6 +8443,16 @@
       </c>
       <c r="B281" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -8595,28 +8626,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1790947379603678</v>
+        <v>0.1778474292427386</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006746163420698781</v>
+        <v>0.006713425984947063</v>
       </c>
       <c r="M2" t="n">
-        <v>12.78147942524068</v>
+        <v>12.73230488978169</v>
       </c>
       <c r="N2" t="n">
-        <v>253.2237906793501</v>
+        <v>252.1319701538284</v>
       </c>
       <c r="O2" t="n">
-        <v>15.91300696535228</v>
+        <v>15.87866399146441</v>
       </c>
       <c r="P2" t="n">
-        <v>357.7980114268724</v>
+        <v>357.8107266554563</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8673,28 +8704,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.40603685854463</v>
+        <v>0.3857682426768256</v>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04065730836820747</v>
+        <v>0.03672313642385161</v>
       </c>
       <c r="M3" t="n">
-        <v>11.65147599730767</v>
+        <v>11.70796264984411</v>
       </c>
       <c r="N3" t="n">
-        <v>208.9750191180323</v>
+        <v>210.63413608058</v>
       </c>
       <c r="O3" t="n">
-        <v>14.45596828711354</v>
+        <v>14.51324002697468</v>
       </c>
       <c r="P3" t="n">
-        <v>316.0835863860781</v>
+        <v>316.2909544817433</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8751,28 +8782,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2683389497825079</v>
+        <v>0.2373253465585602</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01765963043348129</v>
+        <v>0.01366570806583323</v>
       </c>
       <c r="M4" t="n">
-        <v>11.64610301285263</v>
+        <v>11.74724239308977</v>
       </c>
       <c r="N4" t="n">
-        <v>212.2509752929167</v>
+        <v>216.5591051682195</v>
       </c>
       <c r="O4" t="n">
-        <v>14.56883575626126</v>
+        <v>14.71594730787724</v>
       </c>
       <c r="P4" t="n">
-        <v>320.6011990604407</v>
+        <v>320.9160794054696</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8810,7 +8841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15355,6 +15386,33 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>-36.14795968612443,175.44046894926154</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>-36.148800333283894,175.44089035747066</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-36.149255105366834,175.44159964279748</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,6 +5611,48 @@
       <c r="E252" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>352.12</v>
+      </c>
+      <c r="C253" t="n">
+        <v>302.1718181818182</v>
+      </c>
+      <c r="D253" t="n">
+        <v>300.6422222222222</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>345.34</v>
+      </c>
+      <c r="C254" t="n">
+        <v>306.3590909090909</v>
+      </c>
+      <c r="D254" t="n">
+        <v>310.0133333333333</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8453,6 +8495,26 @@
       </c>
       <c r="B282" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8688,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1778474292427386</v>
+        <v>0.1548718508829242</v>
       </c>
       <c r="J2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006713425984947063</v>
+        <v>0.005157201676363465</v>
       </c>
       <c r="M2" t="n">
-        <v>12.73230488978169</v>
+        <v>12.74252113851678</v>
       </c>
       <c r="N2" t="n">
-        <v>252.1319701538284</v>
+        <v>251.6323097415878</v>
       </c>
       <c r="O2" t="n">
-        <v>15.87866399146441</v>
+        <v>15.86292248425831</v>
       </c>
       <c r="P2" t="n">
-        <v>357.8107266554563</v>
+        <v>358.0459639231906</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8704,28 +8766,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3857682426768256</v>
+        <v>0.3502251596953631</v>
       </c>
       <c r="J3" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03672313642385161</v>
+        <v>0.03041311078093467</v>
       </c>
       <c r="M3" t="n">
-        <v>11.70796264984411</v>
+        <v>11.79523045090231</v>
       </c>
       <c r="N3" t="n">
-        <v>210.63413608058</v>
+        <v>212.8693418020129</v>
       </c>
       <c r="O3" t="n">
-        <v>14.51324002697468</v>
+        <v>14.5900425565525</v>
       </c>
       <c r="P3" t="n">
-        <v>316.2909544817433</v>
+        <v>316.6560721146075</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8782,28 +8844,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2373253465585602</v>
+        <v>0.1992129253523763</v>
       </c>
       <c r="J4" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K4" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01366570806583323</v>
+        <v>0.009665244747347645</v>
       </c>
       <c r="M4" t="n">
-        <v>11.74724239308977</v>
+        <v>11.83933997029141</v>
       </c>
       <c r="N4" t="n">
-        <v>216.5591051682195</v>
+        <v>218.8859593252079</v>
       </c>
       <c r="O4" t="n">
-        <v>14.71594730787724</v>
+        <v>14.79479500788057</v>
       </c>
       <c r="P4" t="n">
-        <v>320.9160794054696</v>
+        <v>321.3044725006746</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8841,7 +8903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15413,6 +15475,60 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>-36.14802791108426,175.44041805100497</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>-36.14879814671891,175.44089198873462</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>-36.14919512028922,175.44164439377784</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>-36.148080178328804,175.4403790577061</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-36.148765866850496,175.4409160707812</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-36.14912287778159,175.4416982891297</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -473,7 +473,7 @@
         <v>351.09</v>
       </c>
       <c r="C2" t="n">
-        <v>308.0790909090909</v>
+        <v>308.08</v>
       </c>
       <c r="D2" t="n">
         <v>312.58</v>
@@ -497,7 +497,7 @@
         <v>315.51</v>
       </c>
       <c r="D3" t="n">
-        <v>314.5433333333333</v>
+        <v>314.54</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -515,10 +515,10 @@
         <v>365.53</v>
       </c>
       <c r="C4" t="n">
-        <v>319.3963636363636</v>
+        <v>319.4</v>
       </c>
       <c r="D4" t="n">
-        <v>323.7544444444445</v>
+        <v>323.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         <v>366.89</v>
       </c>
       <c r="C5" t="n">
-        <v>309.8463636363636</v>
+        <v>309.85</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -555,10 +555,10 @@
         <v>369.43</v>
       </c>
       <c r="C6" t="n">
-        <v>312.7745454545454</v>
+        <v>312.77</v>
       </c>
       <c r="D6" t="n">
-        <v>310.5355555555556</v>
+        <v>310.54</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         <v>363.78</v>
       </c>
       <c r="C7" t="n">
-        <v>317.5745454545454</v>
+        <v>317.57</v>
       </c>
       <c r="D7" t="n">
-        <v>332.9288888888889</v>
+        <v>332.93</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.2000000000001</v>
+        <v>363.2</v>
       </c>
       <c r="C8" t="n">
-        <v>316.6263636363636</v>
+        <v>316.63</v>
       </c>
       <c r="D8" t="n">
-        <v>322.8844444444445</v>
+        <v>322.88</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>365.42</v>
       </c>
       <c r="C9" t="n">
-        <v>316.3781818181818</v>
+        <v>316.38</v>
       </c>
       <c r="D9" t="n">
-        <v>310.5744444444445</v>
+        <v>310.57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         <v>356.77</v>
       </c>
       <c r="C10" t="n">
-        <v>335.5236363636364</v>
+        <v>335.52</v>
       </c>
       <c r="D10" t="n">
-        <v>332.4888888888889</v>
+        <v>332.49</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>354.94</v>
       </c>
       <c r="C11" t="n">
-        <v>315.9545454545454</v>
+        <v>315.95</v>
       </c>
       <c r="D11" t="n">
         <v>327.19</v>
@@ -681,10 +681,10 @@
         <v>368.75</v>
       </c>
       <c r="C12" t="n">
-        <v>338.1172727272727</v>
+        <v>338.12</v>
       </c>
       <c r="D12" t="n">
-        <v>336.7711111111111</v>
+        <v>336.77</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -702,10 +702,10 @@
         <v>365.29</v>
       </c>
       <c r="C13" t="n">
-        <v>329.7581818181818</v>
+        <v>329.76</v>
       </c>
       <c r="D13" t="n">
-        <v>331.7755555555556</v>
+        <v>331.78</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         <v>375.43</v>
       </c>
       <c r="C14" t="n">
-        <v>316.5072727272727</v>
+        <v>316.51</v>
       </c>
       <c r="D14" t="n">
-        <v>329.8655555555555</v>
+        <v>329.87</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -744,10 +744,10 @@
         <v>357.41</v>
       </c>
       <c r="C15" t="n">
-        <v>306.3245454545454</v>
+        <v>306.32</v>
       </c>
       <c r="D15" t="n">
-        <v>324.5811111111111</v>
+        <v>324.58</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         <v>349.74</v>
       </c>
       <c r="C16" t="n">
-        <v>308.8518181818182</v>
+        <v>308.85</v>
       </c>
       <c r="D16" t="n">
-        <v>312.7977777777777</v>
+        <v>312.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>321.97</v>
       </c>
       <c r="D17" t="n">
-        <v>317.1988888888889</v>
+        <v>317.2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>305.5</v>
       </c>
       <c r="D18" t="n">
-        <v>313.9088888888889</v>
+        <v>313.91</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -826,10 +826,10 @@
         <v>377.56</v>
       </c>
       <c r="C19" t="n">
-        <v>342.0672727272727</v>
+        <v>342.07</v>
       </c>
       <c r="D19" t="n">
-        <v>342.3266666666667</v>
+        <v>342.33</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -847,10 +847,10 @@
         <v>359.09</v>
       </c>
       <c r="C20" t="n">
-        <v>338.3763636363636</v>
+        <v>338.38</v>
       </c>
       <c r="D20" t="n">
-        <v>339.0122222222222</v>
+        <v>339.01</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
         <v>386.93</v>
       </c>
       <c r="C21" t="n">
-        <v>347.8945454545454</v>
+        <v>347.89</v>
       </c>
       <c r="D21" t="n">
-        <v>346.6133333333333</v>
+        <v>346.61</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>340.9</v>
       </c>
       <c r="C22" t="n">
-        <v>328.3518181818182</v>
+        <v>328.35</v>
       </c>
       <c r="D22" t="n">
         <v>326.97</v>
@@ -910,10 +910,10 @@
         <v>365.55</v>
       </c>
       <c r="C23" t="n">
-        <v>321.8436363636364</v>
+        <v>321.84</v>
       </c>
       <c r="D23" t="n">
-        <v>329.3311111111111</v>
+        <v>329.33</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -931,10 +931,10 @@
         <v>339.96</v>
       </c>
       <c r="C24" t="n">
-        <v>310.9263636363636</v>
+        <v>310.93</v>
       </c>
       <c r="D24" t="n">
-        <v>313.0055555555556</v>
+        <v>313.01</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         <v>340.37</v>
       </c>
       <c r="C25" t="n">
-        <v>312.4681818181818</v>
+        <v>312.47</v>
       </c>
       <c r="D25" t="n">
-        <v>321.3355555555555</v>
+        <v>321.34</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -973,10 +973,10 @@
         <v>347.22</v>
       </c>
       <c r="C26" t="n">
-        <v>305.2345454545454</v>
+        <v>305.23</v>
       </c>
       <c r="D26" t="n">
-        <v>304.4755555555556</v>
+        <v>304.48</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         <v>352.48</v>
       </c>
       <c r="C27" t="n">
-        <v>310.870909090909</v>
+        <v>310.87</v>
       </c>
       <c r="D27" t="n">
-        <v>331.5344444444444</v>
+        <v>331.53</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>312.23</v>
       </c>
       <c r="D28" t="n">
-        <v>317.7777777777778</v>
+        <v>317.78</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>351.24</v>
       </c>
       <c r="C29" t="n">
-        <v>314.6954545454545</v>
+        <v>314.7</v>
       </c>
       <c r="D29" t="n">
         <v>317.26</v>
@@ -1055,10 +1055,10 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>310.9390909090909</v>
+        <v>310.94</v>
       </c>
       <c r="D30" t="n">
-        <v>318.6577777777778</v>
+        <v>318.66</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>307.75</v>
       </c>
       <c r="D31" t="n">
-        <v>311.7688888888889</v>
+        <v>311.77</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>355.34</v>
       </c>
       <c r="C32" t="n">
-        <v>317.0681818181818</v>
+        <v>317.07</v>
       </c>
       <c r="D32" t="n">
-        <v>322.1866666666667</v>
+        <v>322.19</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         <v>363.81</v>
       </c>
       <c r="C34" t="n">
-        <v>332.0454545454546</v>
+        <v>332.05</v>
       </c>
       <c r="D34" t="n">
-        <v>332.0444444444445</v>
+        <v>332.04</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>388.89</v>
       </c>
       <c r="C35" t="n">
-        <v>347.0036363636364</v>
+        <v>347</v>
       </c>
       <c r="D35" t="n">
-        <v>347.8111111111111</v>
+        <v>347.81</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>315.3554545454546</v>
+        <v>315.36</v>
       </c>
       <c r="D36" t="n">
-        <v>316.8511111111111</v>
+        <v>316.85</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>315.3688888888889</v>
+        <v>315.37</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1213,10 +1213,10 @@
         <v>352.3</v>
       </c>
       <c r="C38" t="n">
-        <v>312.4163636363636</v>
+        <v>312.42</v>
       </c>
       <c r="D38" t="n">
-        <v>324.0922222222222</v>
+        <v>324.09</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1234,10 +1234,10 @@
         <v>377.19</v>
       </c>
       <c r="C39" t="n">
-        <v>342.0563636363636</v>
+        <v>342.06</v>
       </c>
       <c r="D39" t="n">
-        <v>332.0277777777778</v>
+        <v>332.03</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>329.21</v>
       </c>
       <c r="C40" t="n">
-        <v>308.6009090909091</v>
+        <v>308.6</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1274,10 +1274,10 @@
         <v>343.99</v>
       </c>
       <c r="C41" t="n">
-        <v>333.0581818181818</v>
+        <v>333.06</v>
       </c>
       <c r="D41" t="n">
-        <v>336.8255555555555</v>
+        <v>336.83</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1295,10 +1295,10 @@
         <v>361.75</v>
       </c>
       <c r="C42" t="n">
-        <v>311.2618181818182</v>
+        <v>311.26</v>
       </c>
       <c r="D42" t="n">
-        <v>322.2477777777778</v>
+        <v>322.25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>384.43</v>
       </c>
       <c r="C43" t="n">
-        <v>312.4154545454546</v>
+        <v>312.42</v>
       </c>
       <c r="D43" t="n">
-        <v>310.5777777777778</v>
+        <v>310.58</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.3200000000001</v>
+        <v>344.32</v>
       </c>
       <c r="C44" t="n">
-        <v>325.7472727272728</v>
+        <v>325.75</v>
       </c>
       <c r="D44" t="n">
-        <v>326.7388888888889</v>
+        <v>326.74</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
         <v>377.16</v>
       </c>
       <c r="C45" t="n">
-        <v>325.1036363636364</v>
+        <v>325.1</v>
       </c>
       <c r="D45" t="n">
-        <v>342.9711111111111</v>
+        <v>342.97</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>349.16</v>
       </c>
       <c r="C47" t="n">
-        <v>315.3545454545454</v>
+        <v>315.35</v>
       </c>
       <c r="D47" t="n">
-        <v>313.8533333333333</v>
+        <v>313.85</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>302.27</v>
       </c>
       <c r="D48" t="n">
-        <v>308.4277777777777</v>
+        <v>308.43</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>369.69</v>
       </c>
       <c r="C49" t="n">
-        <v>312.4054545454546</v>
+        <v>312.41</v>
       </c>
       <c r="D49" t="n">
-        <v>320.8822222222223</v>
+        <v>320.88</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1459,10 +1459,10 @@
         <v>370.01</v>
       </c>
       <c r="C50" t="n">
-        <v>312.4854545454546</v>
+        <v>312.49</v>
       </c>
       <c r="D50" t="n">
-        <v>317.4944444444445</v>
+        <v>317.49</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>302.8</v>
       </c>
       <c r="D51" t="n">
-        <v>299.3622222222222</v>
+        <v>299.36</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>341.16</v>
       </c>
       <c r="C52" t="n">
-        <v>309.4618181818182</v>
+        <v>309.46</v>
       </c>
       <c r="D52" t="n">
         <v>312.34</v>
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>354.0700000000001</v>
+        <v>354.07</v>
       </c>
       <c r="C53" t="n">
-        <v>313.2445454545455</v>
+        <v>313.24</v>
       </c>
       <c r="D53" t="n">
-        <v>317.6344444444445</v>
+        <v>317.63</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>363.5</v>
       </c>
       <c r="C54" t="n">
-        <v>317.1127272727272</v>
+        <v>317.11</v>
       </c>
       <c r="D54" t="n">
         <v>327.85</v>
@@ -1564,10 +1564,10 @@
         <v>364.48</v>
       </c>
       <c r="C55" t="n">
-        <v>310.4854545454546</v>
+        <v>310.49</v>
       </c>
       <c r="D55" t="n">
-        <v>308.7133333333333</v>
+        <v>308.71</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         <v>361.58</v>
       </c>
       <c r="C56" t="n">
-        <v>306.5890909090909</v>
+        <v>306.59</v>
       </c>
       <c r="D56" t="n">
-        <v>310.9622222222222</v>
+        <v>310.96</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1606,10 +1606,10 @@
         <v>362.17</v>
       </c>
       <c r="C57" t="n">
-        <v>326.3890909090909</v>
+        <v>326.39</v>
       </c>
       <c r="D57" t="n">
-        <v>328.7944444444445</v>
+        <v>328.79</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>348.1511111111111</v>
+        <v>348.15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1644,10 +1644,10 @@
         <v>322.88</v>
       </c>
       <c r="C59" t="n">
-        <v>304.3563636363637</v>
+        <v>304.36</v>
       </c>
       <c r="D59" t="n">
-        <v>302.9366666666667</v>
+        <v>302.94</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>348.15</v>
       </c>
       <c r="C60" t="n">
-        <v>308.7545454545455</v>
+        <v>308.75</v>
       </c>
       <c r="D60" t="n">
-        <v>308.2766666666667</v>
+        <v>308.28</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1686,10 +1686,10 @@
         <v>348.81</v>
       </c>
       <c r="C61" t="n">
-        <v>310.5572727272727</v>
+        <v>310.56</v>
       </c>
       <c r="D61" t="n">
-        <v>314.4466666666667</v>
+        <v>314.45</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1707,10 +1707,10 @@
         <v>362</v>
       </c>
       <c r="C62" t="n">
-        <v>315.6518181818182</v>
+        <v>315.65</v>
       </c>
       <c r="D62" t="n">
-        <v>311.9322222222222</v>
+        <v>311.93</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>366.61</v>
       </c>
       <c r="C63" t="n">
-        <v>330.0372727272728</v>
+        <v>330.04</v>
       </c>
       <c r="D63" t="n">
         <v>323.7</v>
@@ -1749,10 +1749,10 @@
         <v>350.16</v>
       </c>
       <c r="C64" t="n">
-        <v>303.6418181818182</v>
+        <v>303.64</v>
       </c>
       <c r="D64" t="n">
-        <v>285.8377777777778</v>
+        <v>285.84</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>335.37</v>
       </c>
       <c r="C65" t="n">
-        <v>301.8990909090909</v>
+        <v>301.9</v>
       </c>
       <c r="D65" t="n">
-        <v>306.7744444444444</v>
+        <v>306.77</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1808,10 +1808,10 @@
         <v>376.31</v>
       </c>
       <c r="C67" t="n">
-        <v>316.0581818181818</v>
+        <v>316.06</v>
       </c>
       <c r="D67" t="n">
-        <v>328.1633333333333</v>
+        <v>328.16</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1829,10 +1829,10 @@
         <v>373.87</v>
       </c>
       <c r="C68" t="n">
-        <v>326.9827272727272</v>
+        <v>326.98</v>
       </c>
       <c r="D68" t="n">
-        <v>328.5211111111111</v>
+        <v>328.52</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1850,10 +1850,10 @@
         <v>339.74</v>
       </c>
       <c r="C69" t="n">
-        <v>310.4936363636364</v>
+        <v>310.49</v>
       </c>
       <c r="D69" t="n">
-        <v>310.4655555555556</v>
+        <v>310.47</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1871,10 +1871,10 @@
         <v>356.43</v>
       </c>
       <c r="C70" t="n">
-        <v>305.4509090909091</v>
+        <v>305.45</v>
       </c>
       <c r="D70" t="n">
-        <v>305.9266666666667</v>
+        <v>305.93</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         <v>375.29</v>
       </c>
       <c r="C71" t="n">
-        <v>329.4072727272728</v>
+        <v>329.41</v>
       </c>
       <c r="D71" t="n">
-        <v>329.8122222222222</v>
+        <v>329.81</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1913,10 +1913,10 @@
         <v>380.2</v>
       </c>
       <c r="C72" t="n">
-        <v>331.2563636363636</v>
+        <v>331.26</v>
       </c>
       <c r="D72" t="n">
-        <v>345.8111111111111</v>
+        <v>345.81</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1934,10 +1934,10 @@
         <v>392.51</v>
       </c>
       <c r="C73" t="n">
-        <v>349.5672727272727</v>
+        <v>349.57</v>
       </c>
       <c r="D73" t="n">
-        <v>353.4444444444445</v>
+        <v>353.44</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
         <v>363.64</v>
       </c>
       <c r="C74" t="n">
-        <v>311.0454545454546</v>
+        <v>311.05</v>
       </c>
       <c r="D74" t="n">
-        <v>312.8722222222222</v>
+        <v>312.87</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>339.85</v>
       </c>
       <c r="D75" t="n">
-        <v>334.7188888888889</v>
+        <v>334.72</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1997,10 +1997,10 @@
         <v>343.81</v>
       </c>
       <c r="C76" t="n">
-        <v>309.2527272727273</v>
+        <v>309.25</v>
       </c>
       <c r="D76" t="n">
-        <v>313.3866666666667</v>
+        <v>313.39</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
         <v>351.19</v>
       </c>
       <c r="C77" t="n">
-        <v>314.9481818181818</v>
+        <v>314.95</v>
       </c>
       <c r="D77" t="n">
-        <v>315.6455555555555</v>
+        <v>315.65</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2039,10 +2039,10 @@
         <v>365.37</v>
       </c>
       <c r="C78" t="n">
-        <v>318.0527272727272</v>
+        <v>318.05</v>
       </c>
       <c r="D78" t="n">
-        <v>326.6777777777777</v>
+        <v>326.68</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2060,10 +2060,10 @@
         <v>367.92</v>
       </c>
       <c r="C79" t="n">
-        <v>327.7745454545454</v>
+        <v>327.77</v>
       </c>
       <c r="D79" t="n">
-        <v>332.3144444444445</v>
+        <v>332.31</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
         <v>369.63</v>
       </c>
       <c r="C80" t="n">
-        <v>340.8036363636364</v>
+        <v>340.8</v>
       </c>
       <c r="D80" t="n">
-        <v>334.6877777777778</v>
+        <v>334.69</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         <v>360.71</v>
       </c>
       <c r="C81" t="n">
-        <v>312.8981818181818</v>
+        <v>312.9</v>
       </c>
       <c r="D81" t="n">
-        <v>318.2133333333333</v>
+        <v>318.21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>366.03</v>
       </c>
       <c r="C82" t="n">
-        <v>315.2518181818182</v>
+        <v>315.25</v>
       </c>
       <c r="D82" t="n">
-        <v>311.0277777777778</v>
+        <v>311.03</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>374.01</v>
       </c>
       <c r="C83" t="n">
-        <v>318.4936363636364</v>
+        <v>318.49</v>
       </c>
       <c r="D83" t="n">
         <v>326.74</v>
@@ -2163,10 +2163,10 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>313.3381818181818</v>
+        <v>313.34</v>
       </c>
       <c r="D84" t="n">
-        <v>315.7011111111111</v>
+        <v>315.7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>337.5</v>
       </c>
       <c r="C85" t="n">
-        <v>304.5663636363636</v>
+        <v>304.57</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
@@ -2203,10 +2203,10 @@
         <v>365.64</v>
       </c>
       <c r="C86" t="n">
-        <v>313.7536363636364</v>
+        <v>313.75</v>
       </c>
       <c r="D86" t="n">
-        <v>311.9555555555555</v>
+        <v>311.96</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>306.46</v>
       </c>
       <c r="D87" t="n">
-        <v>311.7955555555556</v>
+        <v>311.8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
         <v>364.21</v>
       </c>
       <c r="C88" t="n">
-        <v>319.2654545454546</v>
+        <v>319.27</v>
       </c>
       <c r="D88" t="n">
-        <v>326.4022222222222</v>
+        <v>326.4</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2266,10 +2266,10 @@
         <v>353.12</v>
       </c>
       <c r="C89" t="n">
-        <v>332.0154545454546</v>
+        <v>332.02</v>
       </c>
       <c r="D89" t="n">
-        <v>344.8411111111111</v>
+        <v>344.84</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>354.71</v>
       </c>
       <c r="C90" t="n">
-        <v>334.7027272727273</v>
+        <v>334.7</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
@@ -2306,10 +2306,10 @@
         <v>373.52</v>
       </c>
       <c r="C91" t="n">
-        <v>330.5154545454546</v>
+        <v>330.52</v>
       </c>
       <c r="D91" t="n">
-        <v>332.0433333333333</v>
+        <v>332.04</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2327,10 +2327,10 @@
         <v>355.55</v>
       </c>
       <c r="C92" t="n">
-        <v>316.4518181818182</v>
+        <v>316.45</v>
       </c>
       <c r="D92" t="n">
-        <v>320.7455555555555</v>
+        <v>320.75</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2348,10 +2348,10 @@
         <v>370.42</v>
       </c>
       <c r="C93" t="n">
-        <v>331.5527272727272</v>
+        <v>331.55</v>
       </c>
       <c r="D93" t="n">
-        <v>333.7588888888889</v>
+        <v>333.76</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2369,10 +2369,10 @@
         <v>372.52</v>
       </c>
       <c r="C94" t="n">
-        <v>323.9081818181818</v>
+        <v>323.91</v>
       </c>
       <c r="D94" t="n">
-        <v>317.6622222222222</v>
+        <v>317.66</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>320.47</v>
       </c>
       <c r="D95" t="n">
-        <v>314.3422222222222</v>
+        <v>314.34</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>347.73</v>
       </c>
       <c r="C96" t="n">
-        <v>307.6272727272727</v>
+        <v>307.63</v>
       </c>
       <c r="D96" t="n">
         <v>312.68</v>
@@ -2449,10 +2449,10 @@
         <v>360.97</v>
       </c>
       <c r="C98" t="n">
-        <v>316.9245454545455</v>
+        <v>316.92</v>
       </c>
       <c r="D98" t="n">
-        <v>320.4444444444445</v>
+        <v>320.44</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
         <v>353.96</v>
       </c>
       <c r="C99" t="n">
-        <v>313.1545454545454</v>
+        <v>313.15</v>
       </c>
       <c r="D99" t="n">
-        <v>319.5833333333333</v>
+        <v>319.58</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>373.88</v>
       </c>
       <c r="C100" t="n">
-        <v>336.0245454545454</v>
+        <v>336.02</v>
       </c>
       <c r="D100" t="n">
-        <v>339.7955555555556</v>
+        <v>339.8</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>373.91</v>
       </c>
       <c r="C101" t="n">
-        <v>330.7090909090909</v>
+        <v>330.71</v>
       </c>
       <c r="D101" t="n">
-        <v>336.2266666666667</v>
+        <v>336.23</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
         <v>358.74</v>
       </c>
       <c r="C102" t="n">
-        <v>318.2018181818182</v>
+        <v>318.2</v>
       </c>
       <c r="D102" t="n">
-        <v>321.3344444444444</v>
+        <v>321.33</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>334.86</v>
       </c>
       <c r="C103" t="n">
-        <v>306.0572727272727</v>
+        <v>306.06</v>
       </c>
       <c r="D103" t="n">
-        <v>312.1633333333333</v>
+        <v>312.16</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>345.23</v>
       </c>
       <c r="C104" t="n">
-        <v>311.3081818181818</v>
+        <v>311.31</v>
       </c>
       <c r="D104" t="n">
-        <v>317.9755555555556</v>
+        <v>317.98</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>361.04</v>
       </c>
       <c r="C105" t="n">
-        <v>313.4418181818182</v>
+        <v>313.44</v>
       </c>
       <c r="D105" t="n">
-        <v>319.3344444444444</v>
+        <v>319.33</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2617,10 +2617,10 @@
         <v>352.96</v>
       </c>
       <c r="C106" t="n">
-        <v>318.6018181818182</v>
+        <v>318.6</v>
       </c>
       <c r="D106" t="n">
-        <v>331.9844444444445</v>
+        <v>331.98</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         <v>343.04</v>
       </c>
       <c r="C107" t="n">
-        <v>308.6863636363636</v>
+        <v>308.69</v>
       </c>
       <c r="D107" t="n">
-        <v>316.5744444444445</v>
+        <v>316.57</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>293.5681818181818</v>
+        <v>293.57</v>
       </c>
       <c r="D108" t="n">
-        <v>292.2011111111111</v>
+        <v>292.2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2678,10 +2678,10 @@
         <v>369.59</v>
       </c>
       <c r="C109" t="n">
-        <v>302.9809090909091</v>
+        <v>302.98</v>
       </c>
       <c r="D109" t="n">
-        <v>305.3711111111111</v>
+        <v>305.37</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>345.48</v>
       </c>
       <c r="C110" t="n">
-        <v>313.8081818181818</v>
+        <v>313.81</v>
       </c>
       <c r="D110" t="n">
-        <v>316.3944444444444</v>
+        <v>316.39</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2720,10 +2720,10 @@
         <v>351.07</v>
       </c>
       <c r="C111" t="n">
-        <v>313.7236363636364</v>
+        <v>313.72</v>
       </c>
       <c r="D111" t="n">
-        <v>311.8233333333333</v>
+        <v>311.82</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>306.67</v>
       </c>
       <c r="D112" t="n">
-        <v>310.8022222222222</v>
+        <v>310.8</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2760,10 +2760,10 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>306.2236363636364</v>
+        <v>306.22</v>
       </c>
       <c r="D113" t="n">
-        <v>314.2455555555555</v>
+        <v>314.25</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>368.49</v>
       </c>
       <c r="C114" t="n">
-        <v>320.7418181818182</v>
+        <v>320.74</v>
       </c>
       <c r="D114" t="n">
         <v>330.1</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>293.3390909090909</v>
+        <v>293.34</v>
       </c>
       <c r="D115" t="n">
         <v>294.44</v>
@@ -2821,10 +2821,10 @@
         <v>349.61</v>
       </c>
       <c r="C116" t="n">
-        <v>304.6490909090909</v>
+        <v>304.65</v>
       </c>
       <c r="D116" t="n">
-        <v>310.9866666666667</v>
+        <v>310.99</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2840,10 +2840,10 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>303.7154545454546</v>
+        <v>303.72</v>
       </c>
       <c r="D117" t="n">
-        <v>313.9366666666667</v>
+        <v>313.94</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         <v>353.02</v>
       </c>
       <c r="C119" t="n">
-        <v>313.240909090909</v>
+        <v>313.24</v>
       </c>
       <c r="D119" t="n">
-        <v>315.9444444444445</v>
+        <v>315.94</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         <v>347.03</v>
       </c>
       <c r="C120" t="n">
-        <v>317.8418181818182</v>
+        <v>317.84</v>
       </c>
       <c r="D120" t="n">
-        <v>322.0855555555555</v>
+        <v>322.09</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>326.91</v>
       </c>
       <c r="C121" t="n">
-        <v>308.7336363636364</v>
+        <v>308.73</v>
       </c>
       <c r="D121" t="n">
         <v>309.43</v>
@@ -2941,10 +2941,10 @@
         <v>377.03</v>
       </c>
       <c r="C122" t="n">
-        <v>320.7445454545455</v>
+        <v>320.74</v>
       </c>
       <c r="D122" t="n">
-        <v>325.0788888888889</v>
+        <v>325.08</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2962,10 +2962,10 @@
         <v>358.84</v>
       </c>
       <c r="C123" t="n">
-        <v>322.509090909091</v>
+        <v>322.51</v>
       </c>
       <c r="D123" t="n">
-        <v>329.7577777777778</v>
+        <v>329.76</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2983,10 +2983,10 @@
         <v>356.78</v>
       </c>
       <c r="C124" t="n">
-        <v>340.8354545454546</v>
+        <v>340.84</v>
       </c>
       <c r="D124" t="n">
-        <v>331.7655555555555</v>
+        <v>331.77</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         <v>325.16</v>
       </c>
       <c r="C125" t="n">
-        <v>303.6354545454545</v>
+        <v>303.64</v>
       </c>
       <c r="D125" t="n">
-        <v>305.3833333333333</v>
+        <v>305.38</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         <v>346.15</v>
       </c>
       <c r="C126" t="n">
-        <v>313.0554545454545</v>
+        <v>313.06</v>
       </c>
       <c r="D126" t="n">
-        <v>311.6244444444445</v>
+        <v>311.62</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>365.0700000000001</v>
+        <v>365.07</v>
       </c>
       <c r="C127" t="n">
-        <v>322.0209090909091</v>
+        <v>322.02</v>
       </c>
       <c r="D127" t="n">
-        <v>326.4188888888889</v>
+        <v>326.42</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>355.8</v>
       </c>
       <c r="C128" t="n">
-        <v>313.2309090909091</v>
+        <v>313.23</v>
       </c>
       <c r="D128" t="n">
-        <v>321.5111111111111</v>
+        <v>321.51</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>327.36</v>
       </c>
       <c r="D129" t="n">
-        <v>323.2922222222222</v>
+        <v>323.29</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>347.23</v>
       </c>
       <c r="C130" t="n">
-        <v>328.1781818181818</v>
+        <v>328.18</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
@@ -3126,10 +3126,10 @@
         <v>347.01</v>
       </c>
       <c r="C131" t="n">
-        <v>328.0627272727273</v>
+        <v>328.06</v>
       </c>
       <c r="D131" t="n">
-        <v>330.8811111111111</v>
+        <v>330.88</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         <v>336.06</v>
       </c>
       <c r="C132" t="n">
-        <v>304.7390909090909</v>
+        <v>304.74</v>
       </c>
       <c r="D132" t="n">
-        <v>302.9488888888889</v>
+        <v>302.95</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3168,10 +3168,10 @@
         <v>336.38</v>
       </c>
       <c r="C133" t="n">
-        <v>329.7327272727272</v>
+        <v>329.73</v>
       </c>
       <c r="D133" t="n">
-        <v>326.1755555555555</v>
+        <v>326.18</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>329.1311111111111</v>
+        <v>329.13</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3221,10 +3221,10 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>338.2254545454546</v>
+        <v>338.23</v>
       </c>
       <c r="D136" t="n">
-        <v>323.1533333333333</v>
+        <v>323.15</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3242,10 +3242,10 @@
         <v>364.5</v>
       </c>
       <c r="C137" t="n">
-        <v>319.5354545454546</v>
+        <v>319.54</v>
       </c>
       <c r="D137" t="n">
-        <v>328.5455555555556</v>
+        <v>328.55</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>379.98</v>
       </c>
       <c r="C138" t="n">
-        <v>337.4109090909091</v>
+        <v>337.41</v>
       </c>
       <c r="D138" t="n">
-        <v>337.0533333333333</v>
+        <v>337.05</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         <v>383.82</v>
       </c>
       <c r="C139" t="n">
-        <v>343.0181818181818</v>
+        <v>343.02</v>
       </c>
       <c r="D139" t="n">
-        <v>349.5144444444445</v>
+        <v>349.51</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>380.51</v>
       </c>
       <c r="C140" t="n">
-        <v>338.2381818181818</v>
+        <v>338.24</v>
       </c>
       <c r="D140" t="n">
-        <v>346.5122222222222</v>
+        <v>346.51</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>391.05</v>
       </c>
       <c r="C141" t="n">
-        <v>348.4354545454545</v>
+        <v>348.44</v>
       </c>
       <c r="D141" t="n">
-        <v>349.8566666666667</v>
+        <v>349.86</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>401.62</v>
       </c>
       <c r="C142" t="n">
-        <v>354.3545454545454</v>
+        <v>354.35</v>
       </c>
       <c r="D142" t="n">
-        <v>363.0833333333333</v>
+        <v>363.08</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>344.1</v>
       </c>
       <c r="D143" t="n">
-        <v>351.3055555555555</v>
+        <v>351.31</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>385.16</v>
       </c>
       <c r="C144" t="n">
-        <v>348.3963636363636</v>
+        <v>348.4</v>
       </c>
       <c r="D144" t="n">
         <v>350.29</v>
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>371.5100000000001</v>
+        <v>371.51</v>
       </c>
       <c r="C145" t="n">
-        <v>336.7354545454546</v>
+        <v>336.74</v>
       </c>
       <c r="D145" t="n">
-        <v>333.6633333333333</v>
+        <v>333.66</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>349.32</v>
       </c>
       <c r="C146" t="n">
-        <v>326.1736363636364</v>
+        <v>326.17</v>
       </c>
       <c r="D146" t="n">
-        <v>327.3577777777778</v>
+        <v>327.36</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>341.51</v>
       </c>
       <c r="C147" t="n">
-        <v>315.9418181818182</v>
+        <v>315.94</v>
       </c>
       <c r="D147" t="n">
         <v>312.71</v>
@@ -3473,10 +3473,10 @@
         <v>349.32</v>
       </c>
       <c r="C148" t="n">
-        <v>322.0163636363636</v>
+        <v>322.02</v>
       </c>
       <c r="D148" t="n">
-        <v>321.1088888888889</v>
+        <v>321.11</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>324.41</v>
       </c>
       <c r="D149" t="n">
-        <v>331.6444444444444</v>
+        <v>331.64</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>366.15</v>
       </c>
       <c r="C150" t="n">
-        <v>340.5709090909091</v>
+        <v>340.57</v>
       </c>
       <c r="D150" t="n">
-        <v>340.7911111111111</v>
+        <v>340.79</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>352.9</v>
       </c>
       <c r="C151" t="n">
-        <v>317.3963636363636</v>
+        <v>317.4</v>
       </c>
       <c r="D151" t="n">
-        <v>324.3877777777778</v>
+        <v>324.39</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>376.93</v>
       </c>
       <c r="C152" t="n">
-        <v>325.8763636363636</v>
+        <v>325.88</v>
       </c>
       <c r="D152" t="n">
-        <v>323.7822222222222</v>
+        <v>323.78</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>371.96</v>
       </c>
       <c r="C153" t="n">
-        <v>347.3372727272728</v>
+        <v>347.34</v>
       </c>
       <c r="D153" t="n">
-        <v>334.0477777777777</v>
+        <v>334.05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3597,10 +3597,10 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>308.4454545454545</v>
+        <v>308.45</v>
       </c>
       <c r="D154" t="n">
-        <v>313.6622222222222</v>
+        <v>313.66</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3618,10 +3618,10 @@
         <v>384.71</v>
       </c>
       <c r="C155" t="n">
-        <v>323.1918181818182</v>
+        <v>323.19</v>
       </c>
       <c r="D155" t="n">
-        <v>326.0966666666667</v>
+        <v>326.1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3639,10 +3639,10 @@
         <v>361.22</v>
       </c>
       <c r="C156" t="n">
-        <v>329.6627272727272</v>
+        <v>329.66</v>
       </c>
       <c r="D156" t="n">
-        <v>320.7177777777778</v>
+        <v>320.72</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>346.72</v>
       </c>
       <c r="D157" t="n">
-        <v>330.8188888888889</v>
+        <v>330.82</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3681,10 +3681,10 @@
         <v>371.76</v>
       </c>
       <c r="C158" t="n">
-        <v>335.5927272727272</v>
+        <v>335.59</v>
       </c>
       <c r="D158" t="n">
-        <v>340.7988888888889</v>
+        <v>340.8</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>345.5</v>
       </c>
       <c r="D159" t="n">
-        <v>353.5722222222223</v>
+        <v>353.57</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>351.9</v>
       </c>
       <c r="D160" t="n">
-        <v>345.5388888888889</v>
+        <v>345.54</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3744,10 +3744,10 @@
         <v>367.74</v>
       </c>
       <c r="C161" t="n">
-        <v>334.5936363636364</v>
+        <v>334.59</v>
       </c>
       <c r="D161" t="n">
-        <v>339.8488888888889</v>
+        <v>339.85</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3765,10 +3765,10 @@
         <v>362.69</v>
       </c>
       <c r="C162" t="n">
-        <v>341.9954545454545</v>
+        <v>342</v>
       </c>
       <c r="D162" t="n">
-        <v>334.9455555555556</v>
+        <v>334.95</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3786,10 +3786,10 @@
         <v>367.21</v>
       </c>
       <c r="C163" t="n">
-        <v>337.2372727272727</v>
+        <v>337.24</v>
       </c>
       <c r="D163" t="n">
-        <v>336.0511111111111</v>
+        <v>336.05</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3807,10 +3807,10 @@
         <v>394.19</v>
       </c>
       <c r="C164" t="n">
-        <v>356.9509090909091</v>
+        <v>356.95</v>
       </c>
       <c r="D164" t="n">
-        <v>355.8966666666667</v>
+        <v>355.9</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3828,10 +3828,10 @@
         <v>394.65</v>
       </c>
       <c r="C165" t="n">
-        <v>353.3772727272727</v>
+        <v>353.38</v>
       </c>
       <c r="D165" t="n">
-        <v>356.7866666666667</v>
+        <v>356.79</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         <v>385.65</v>
       </c>
       <c r="C166" t="n">
-        <v>362.2327272727272</v>
+        <v>362.23</v>
       </c>
       <c r="D166" t="n">
-        <v>358.5666666666667</v>
+        <v>358.57</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>352.01</v>
       </c>
       <c r="D167" t="n">
-        <v>357.1811111111111</v>
+        <v>357.18</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3908,10 +3908,10 @@
         <v>370.03</v>
       </c>
       <c r="C169" t="n">
-        <v>342.1536363636364</v>
+        <v>342.15</v>
       </c>
       <c r="D169" t="n">
-        <v>338.9211111111111</v>
+        <v>338.92</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>356.71</v>
       </c>
       <c r="D170" t="n">
-        <v>350.7844444444444</v>
+        <v>350.78</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3950,10 +3950,10 @@
         <v>402.16</v>
       </c>
       <c r="C171" t="n">
-        <v>365.2154545454546</v>
+        <v>365.22</v>
       </c>
       <c r="D171" t="n">
-        <v>358.6833333333333</v>
+        <v>358.68</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3971,10 +3971,10 @@
         <v>380.06</v>
       </c>
       <c r="C172" t="n">
-        <v>330.0272727272728</v>
+        <v>330.03</v>
       </c>
       <c r="D172" t="n">
-        <v>341.0755555555555</v>
+        <v>341.08</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4009,10 +4009,10 @@
         <v>341.12</v>
       </c>
       <c r="C174" t="n">
-        <v>309.7790909090909</v>
+        <v>309.78</v>
       </c>
       <c r="D174" t="n">
-        <v>302.7088888888889</v>
+        <v>302.71</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         <v>359.14</v>
       </c>
       <c r="C175" t="n">
-        <v>346.0945454545454</v>
+        <v>346.09</v>
       </c>
       <c r="D175" t="n">
-        <v>316.2522222222222</v>
+        <v>316.25</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4051,10 +4051,10 @@
         <v>372.31</v>
       </c>
       <c r="C176" t="n">
-        <v>327.6472727272728</v>
+        <v>327.65</v>
       </c>
       <c r="D176" t="n">
-        <v>324.0488888888889</v>
+        <v>324.05</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>323.28</v>
       </c>
       <c r="D177" t="n">
-        <v>323.3466666666667</v>
+        <v>323.35</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4091,10 +4091,10 @@
         <v>358.69</v>
       </c>
       <c r="C178" t="n">
-        <v>321.8472727272728</v>
+        <v>321.85</v>
       </c>
       <c r="D178" t="n">
-        <v>317.8533333333333</v>
+        <v>317.85</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>367.36</v>
       </c>
       <c r="C179" t="n">
-        <v>329.0181818181818</v>
+        <v>329.02</v>
       </c>
       <c r="D179" t="n">
         <v>327.4</v>
@@ -4131,10 +4131,10 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>349.0818181818182</v>
+        <v>349.08</v>
       </c>
       <c r="D180" t="n">
-        <v>351.5533333333333</v>
+        <v>351.55</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>360.04</v>
       </c>
       <c r="C181" t="n">
-        <v>327.2954545454546</v>
+        <v>327.3</v>
       </c>
       <c r="D181" t="n">
-        <v>323.7088888888889</v>
+        <v>323.71</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>377.05</v>
       </c>
       <c r="C182" t="n">
-        <v>335.5981818181818</v>
+        <v>335.6</v>
       </c>
       <c r="D182" t="n">
         <v>338.7</v>
@@ -4194,10 +4194,10 @@
         <v>384.7</v>
       </c>
       <c r="C183" t="n">
-        <v>335.9690909090909</v>
+        <v>335.97</v>
       </c>
       <c r="D183" t="n">
-        <v>339.3377777777778</v>
+        <v>339.34</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         <v>360.34</v>
       </c>
       <c r="C184" t="n">
-        <v>326.9890909090909</v>
+        <v>326.99</v>
       </c>
       <c r="D184" t="n">
-        <v>334.5388888888889</v>
+        <v>334.54</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4236,10 +4236,10 @@
         <v>373.95</v>
       </c>
       <c r="C185" t="n">
-        <v>329.4718181818182</v>
+        <v>329.47</v>
       </c>
       <c r="D185" t="n">
-        <v>329.3622222222222</v>
+        <v>329.36</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4257,10 +4257,10 @@
         <v>385.35</v>
       </c>
       <c r="C186" t="n">
-        <v>346.6527272727272</v>
+        <v>346.65</v>
       </c>
       <c r="D186" t="n">
-        <v>346.0433333333333</v>
+        <v>346.04</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4278,10 +4278,10 @@
         <v>385.35</v>
       </c>
       <c r="C187" t="n">
-        <v>350.7090909090909</v>
+        <v>350.71</v>
       </c>
       <c r="D187" t="n">
-        <v>346.8111111111111</v>
+        <v>346.81</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4299,10 +4299,10 @@
         <v>348.67</v>
       </c>
       <c r="C188" t="n">
-        <v>324.4872727272727</v>
+        <v>324.49</v>
       </c>
       <c r="D188" t="n">
-        <v>312.6677777777778</v>
+        <v>312.67</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4320,10 +4320,10 @@
         <v>348.67</v>
       </c>
       <c r="C189" t="n">
-        <v>289.7763636363636</v>
+        <v>289.78</v>
       </c>
       <c r="D189" t="n">
-        <v>286.2744444444444</v>
+        <v>286.27</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4341,10 +4341,10 @@
         <v>358.84</v>
       </c>
       <c r="C190" t="n">
-        <v>314.1336363636364</v>
+        <v>314.13</v>
       </c>
       <c r="D190" t="n">
-        <v>313.7255555555556</v>
+        <v>313.73</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4362,10 +4362,10 @@
         <v>325.81</v>
       </c>
       <c r="C191" t="n">
-        <v>301.6327272727273</v>
+        <v>301.63</v>
       </c>
       <c r="D191" t="n">
-        <v>296.1611111111111</v>
+        <v>296.16</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4383,10 +4383,10 @@
         <v>361.71</v>
       </c>
       <c r="C192" t="n">
-        <v>327.1345454545454</v>
+        <v>327.13</v>
       </c>
       <c r="D192" t="n">
-        <v>322.7011111111111</v>
+        <v>322.7</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4421,10 +4421,10 @@
         <v>352.08</v>
       </c>
       <c r="C194" t="n">
-        <v>325.8536363636364</v>
+        <v>325.85</v>
       </c>
       <c r="D194" t="n">
-        <v>328.0444444444445</v>
+        <v>328.04</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>323.19</v>
       </c>
       <c r="D195" t="n">
-        <v>326.2411111111111</v>
+        <v>326.24</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4480,10 +4480,10 @@
         <v>363.32</v>
       </c>
       <c r="C197" t="n">
-        <v>317.3172727272727</v>
+        <v>317.32</v>
       </c>
       <c r="D197" t="n">
-        <v>323.8022222222222</v>
+        <v>323.8</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4501,10 +4501,10 @@
         <v>353.01</v>
       </c>
       <c r="C198" t="n">
-        <v>313.3436363636364</v>
+        <v>313.34</v>
       </c>
       <c r="D198" t="n">
-        <v>317.7322222222222</v>
+        <v>317.73</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4522,10 +4522,10 @@
         <v>328.56</v>
       </c>
       <c r="C199" t="n">
-        <v>301.7518181818182</v>
+        <v>301.75</v>
       </c>
       <c r="D199" t="n">
-        <v>305.3222222222223</v>
+        <v>305.32</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>369.1</v>
       </c>
       <c r="C200" t="n">
-        <v>325.6490909090909</v>
+        <v>325.65</v>
       </c>
       <c r="D200" t="n">
         <v>337.61</v>
@@ -4567,7 +4567,7 @@
         <v>316.74</v>
       </c>
       <c r="D201" t="n">
-        <v>319.7633333333333</v>
+        <v>319.76</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>361.71</v>
       </c>
       <c r="C202" t="n">
-        <v>322.3381818181818</v>
+        <v>322.34</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
@@ -4604,7 +4604,7 @@
         <v>348.68</v>
       </c>
       <c r="C203" t="n">
-        <v>318.7618181818182</v>
+        <v>318.76</v>
       </c>
       <c r="D203" t="n">
         <v>320.82</v>
@@ -4625,10 +4625,10 @@
         <v>345.8</v>
       </c>
       <c r="C204" t="n">
-        <v>317.6509090909091</v>
+        <v>317.65</v>
       </c>
       <c r="D204" t="n">
-        <v>323.7266666666667</v>
+        <v>323.73</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>329.72</v>
       </c>
       <c r="C205" t="n">
-        <v>299.7009090909091</v>
+        <v>299.7</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
@@ -4665,7 +4665,7 @@
         <v>361.23</v>
       </c>
       <c r="C206" t="n">
-        <v>321.7272727272727</v>
+        <v>321.73</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
@@ -4684,10 +4684,10 @@
         <v>335.97</v>
       </c>
       <c r="C207" t="n">
-        <v>301.8272727272728</v>
+        <v>301.83</v>
       </c>
       <c r="D207" t="n">
-        <v>297.7666666666667</v>
+        <v>297.77</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4705,10 +4705,10 @@
         <v>355.15</v>
       </c>
       <c r="C208" t="n">
-        <v>307.1472727272728</v>
+        <v>307.15</v>
       </c>
       <c r="D208" t="n">
-        <v>315.3633333333333</v>
+        <v>315.36</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4726,10 +4726,10 @@
         <v>338.53</v>
       </c>
       <c r="C209" t="n">
-        <v>306.6263636363636</v>
+        <v>306.63</v>
       </c>
       <c r="D209" t="n">
-        <v>301.1377777777778</v>
+        <v>301.14</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>326</v>
       </c>
       <c r="C210" t="n">
-        <v>301.8290909090909</v>
+        <v>301.83</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>315.6236363636364</v>
+        <v>315.62</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
@@ -4802,10 +4802,10 @@
         <v>366.18</v>
       </c>
       <c r="C213" t="n">
-        <v>328.4136363636364</v>
+        <v>328.41</v>
       </c>
       <c r="D213" t="n">
-        <v>329.1311111111111</v>
+        <v>329.13</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>346.97</v>
       </c>
       <c r="C214" t="n">
-        <v>308.2781818181818</v>
+        <v>308.28</v>
       </c>
       <c r="D214" t="n">
-        <v>311.7388888888889</v>
+        <v>311.74</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4861,10 +4861,10 @@
         <v>330.89</v>
       </c>
       <c r="C216" t="n">
-        <v>305.6245454545455</v>
+        <v>305.62</v>
       </c>
       <c r="D216" t="n">
-        <v>312.5866666666667</v>
+        <v>312.59</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4882,10 +4882,10 @@
         <v>331.49</v>
       </c>
       <c r="C217" t="n">
-        <v>310.7009090909091</v>
+        <v>310.7</v>
       </c>
       <c r="D217" t="n">
-        <v>314.6233333333333</v>
+        <v>314.62</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4903,10 +4903,10 @@
         <v>332.16</v>
       </c>
       <c r="C218" t="n">
-        <v>311.3645454545455</v>
+        <v>311.36</v>
       </c>
       <c r="D218" t="n">
-        <v>313.1977777777778</v>
+        <v>313.2</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4924,10 +4924,10 @@
         <v>364.03</v>
       </c>
       <c r="C219" t="n">
-        <v>319.2890909090909</v>
+        <v>319.29</v>
       </c>
       <c r="D219" t="n">
-        <v>326.4166666666667</v>
+        <v>326.42</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>325.0554545454545</v>
+        <v>325.06</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
@@ -4962,10 +4962,10 @@
         <v>354.92</v>
       </c>
       <c r="C221" t="n">
-        <v>323.2090909090909</v>
+        <v>323.21</v>
       </c>
       <c r="D221" t="n">
-        <v>326.2533333333333</v>
+        <v>326.25</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4983,10 +4983,10 @@
         <v>351.79</v>
       </c>
       <c r="C222" t="n">
-        <v>313.5554545454545</v>
+        <v>313.56</v>
       </c>
       <c r="D222" t="n">
-        <v>305.8055555555555</v>
+        <v>305.81</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>309.98</v>
       </c>
       <c r="D223" t="n">
-        <v>316.4377777777778</v>
+        <v>316.44</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5025,10 +5025,10 @@
         <v>338.57</v>
       </c>
       <c r="C224" t="n">
-        <v>302.4136363636364</v>
+        <v>302.41</v>
       </c>
       <c r="D224" t="n">
-        <v>297.6822222222222</v>
+        <v>297.68</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>305.0809090909091</v>
+        <v>305.08</v>
       </c>
       <c r="D225" t="n">
         <v>303.76</v>
@@ -5065,10 +5065,10 @@
         <v>353.82</v>
       </c>
       <c r="C226" t="n">
-        <v>320.1845454545455</v>
+        <v>320.18</v>
       </c>
       <c r="D226" t="n">
-        <v>322.7066666666667</v>
+        <v>322.71</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>364.95</v>
       </c>
       <c r="C227" t="n">
-        <v>322.2154545454546</v>
+        <v>322.22</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
@@ -5105,10 +5105,10 @@
         <v>361.39</v>
       </c>
       <c r="C228" t="n">
-        <v>323.3654545454545</v>
+        <v>323.37</v>
       </c>
       <c r="D228" t="n">
-        <v>328.6466666666667</v>
+        <v>328.65</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5145,10 +5145,10 @@
         <v>348.51</v>
       </c>
       <c r="C230" t="n">
-        <v>308.6727272727272</v>
+        <v>308.67</v>
       </c>
       <c r="D230" t="n">
-        <v>315.2966666666667</v>
+        <v>315.3</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5166,10 +5166,10 @@
         <v>374.89</v>
       </c>
       <c r="C231" t="n">
-        <v>329.7054545454546</v>
+        <v>329.71</v>
       </c>
       <c r="D231" t="n">
-        <v>334.9488888888889</v>
+        <v>334.95</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5187,10 +5187,10 @@
         <v>374.21</v>
       </c>
       <c r="C232" t="n">
-        <v>323.0072727272727</v>
+        <v>323.01</v>
       </c>
       <c r="D232" t="n">
-        <v>328.2733333333333</v>
+        <v>328.27</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         <v>373.66</v>
       </c>
       <c r="C233" t="n">
-        <v>330.3954545454546</v>
+        <v>330.4</v>
       </c>
       <c r="D233" t="n">
-        <v>332.4333333333333</v>
+        <v>332.43</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5229,10 +5229,10 @@
         <v>371.89</v>
       </c>
       <c r="C234" t="n">
-        <v>331.0872727272728</v>
+        <v>331.09</v>
       </c>
       <c r="D234" t="n">
-        <v>333.1166666666667</v>
+        <v>333.12</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>375.3200000000001</v>
+        <v>375.32</v>
       </c>
       <c r="C235" t="n">
-        <v>333.9227272727272</v>
+        <v>333.92</v>
       </c>
       <c r="D235" t="n">
-        <v>341.8844444444445</v>
+        <v>341.88</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5271,10 +5271,10 @@
         <v>369.58</v>
       </c>
       <c r="C236" t="n">
-        <v>326.9581818181818</v>
+        <v>326.96</v>
       </c>
       <c r="D236" t="n">
-        <v>327.7088888888889</v>
+        <v>327.71</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5292,10 +5292,10 @@
         <v>370.68</v>
       </c>
       <c r="C237" t="n">
-        <v>343.6390909090909</v>
+        <v>343.64</v>
       </c>
       <c r="D237" t="n">
-        <v>331.0333333333333</v>
+        <v>331.03</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>375.84</v>
       </c>
       <c r="C238" t="n">
-        <v>336.819090909091</v>
+        <v>336.82</v>
       </c>
       <c r="D238" t="n">
         <v>337.01</v>
@@ -5335,7 +5335,7 @@
         <v>334.47</v>
       </c>
       <c r="D239" t="n">
-        <v>331.5222222222222</v>
+        <v>331.52</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>342.6</v>
       </c>
       <c r="D240" t="n">
-        <v>335.5777777777778</v>
+        <v>335.58</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>368.09</v>
       </c>
       <c r="C241" t="n">
-        <v>338.3527272727272</v>
+        <v>338.35</v>
       </c>
       <c r="D241" t="n">
-        <v>342.7433333333333</v>
+        <v>342.74</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5395,10 +5395,10 @@
         <v>380.4</v>
       </c>
       <c r="C242" t="n">
-        <v>349.6409090909091</v>
+        <v>349.64</v>
       </c>
       <c r="D242" t="n">
-        <v>353.2266666666667</v>
+        <v>353.23</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>375.58</v>
       </c>
       <c r="C243" t="n">
-        <v>346.2918181818182</v>
+        <v>346.29</v>
       </c>
       <c r="D243" t="n">
         <v>349.49</v>
@@ -5437,10 +5437,10 @@
         <v>369.41</v>
       </c>
       <c r="C244" t="n">
-        <v>337.9872727272727</v>
+        <v>337.99</v>
       </c>
       <c r="D244" t="n">
-        <v>341.4711111111111</v>
+        <v>341.47</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5455,13 +5455,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>363.0100000000001</v>
+        <v>363.01</v>
       </c>
       <c r="C245" t="n">
-        <v>339.5154545454546</v>
+        <v>339.52</v>
       </c>
       <c r="D245" t="n">
-        <v>341.2988888888889</v>
+        <v>341.3</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>381.3</v>
       </c>
       <c r="C246" t="n">
-        <v>345.1390909090909</v>
+        <v>345.14</v>
       </c>
       <c r="D246" t="n">
-        <v>347.7633333333333</v>
+        <v>347.76</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>365.93</v>
       </c>
       <c r="C247" t="n">
-        <v>318.4618181818182</v>
+        <v>318.46</v>
       </c>
       <c r="D247" t="n">
         <v>317.02</v>
@@ -5519,10 +5519,10 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>313.9754545454546</v>
+        <v>313.98</v>
       </c>
       <c r="D248" t="n">
-        <v>313.6111111111111</v>
+        <v>313.61</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5540,10 +5540,10 @@
         <v>375.69</v>
       </c>
       <c r="C249" t="n">
-        <v>294.0672727272727</v>
+        <v>294.07</v>
       </c>
       <c r="D249" t="n">
-        <v>292.3711111111111</v>
+        <v>292.37</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>343.14</v>
       </c>
       <c r="C250" t="n">
-        <v>316.8936363636363</v>
+        <v>316.89</v>
       </c>
       <c r="D250" t="n">
-        <v>315.0033333333333</v>
+        <v>315</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5582,10 +5582,10 @@
         <v>332.85</v>
       </c>
       <c r="C251" t="n">
-        <v>303.7336363636364</v>
+        <v>303.73</v>
       </c>
       <c r="D251" t="n">
-        <v>302.9888888888889</v>
+        <v>302.99</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5603,10 +5603,10 @@
         <v>360.97</v>
       </c>
       <c r="C252" t="n">
-        <v>301.8881818181818</v>
+        <v>301.89</v>
       </c>
       <c r="D252" t="n">
-        <v>292.8611111111111</v>
+        <v>292.86</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5624,10 +5624,10 @@
         <v>352.12</v>
       </c>
       <c r="C253" t="n">
-        <v>302.1718181818182</v>
+        <v>302.17</v>
       </c>
       <c r="D253" t="n">
-        <v>300.6422222222222</v>
+        <v>300.64</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5645,10 +5645,10 @@
         <v>345.34</v>
       </c>
       <c r="C254" t="n">
-        <v>306.3590909090909</v>
+        <v>306.36</v>
       </c>
       <c r="D254" t="n">
-        <v>310.0133333333333</v>
+        <v>310.01</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1548718508829242</v>
+        <v>0.1548718508829243</v>
       </c>
       <c r="J2" t="n">
         <v>253</v>
@@ -8697,13 +8697,13 @@
         <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005157201676363465</v>
+        <v>0.005157201676363354</v>
       </c>
       <c r="M2" t="n">
         <v>12.74252113851678</v>
       </c>
       <c r="N2" t="n">
-        <v>251.6323097415878</v>
+        <v>251.6323097415879</v>
       </c>
       <c r="O2" t="n">
         <v>15.86292248425831</v>
@@ -8766,7 +8766,7 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3502251596953631</v>
+        <v>0.3502284181166253</v>
       </c>
       <c r="J3" t="n">
         <v>253</v>
@@ -8775,19 +8775,19 @@
         <v>239</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03041311078093467</v>
+        <v>0.03041342725441232</v>
       </c>
       <c r="M3" t="n">
-        <v>11.79523045090231</v>
+        <v>11.79533810859112</v>
       </c>
       <c r="N3" t="n">
-        <v>212.8693418020129</v>
+        <v>212.8710182233932</v>
       </c>
       <c r="O3" t="n">
-        <v>14.5900425565525</v>
+        <v>14.59010000731294</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6560721146075</v>
+        <v>316.6562841929215</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8844,7 +8844,7 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992129253523763</v>
+        <v>0.199201644655727</v>
       </c>
       <c r="J4" t="n">
         <v>253</v>
@@ -8853,19 +8853,19 @@
         <v>228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009665244747347645</v>
+        <v>0.009664318178151499</v>
       </c>
       <c r="M4" t="n">
-        <v>11.83933997029141</v>
+        <v>11.83920419954685</v>
       </c>
       <c r="N4" t="n">
-        <v>218.8859593252079</v>
+        <v>218.8823587748427</v>
       </c>
       <c r="O4" t="n">
-        <v>14.79479500788057</v>
+        <v>14.79467332437059</v>
       </c>
       <c r="P4" t="n">
-        <v>321.3044725006746</v>
+        <v>321.3045074725687</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-36.14875260729409,175.44092596292327</t>
+          <t>-36.148752600285874,175.4409259681517</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.149087955708076,175.44172434213633</t>
+          <t>-36.149087981404946,175.4417243229656</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36.14866536191811,175.44099105125488</t>
+          <t>-36.148665333885205,175.44099107216846</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-36.14901694662001,175.44177731715257</t>
+          <t>-36.14901698088256,175.44177729159168</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.1487389833094,175.44093612693905</t>
+          <t>-36.14873895527651,175.44093614785265</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -9055,12 +9055,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.14871640982281,175.4409529676181</t>
+          <t>-36.14871644486392,175.4409529414761</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.14911885193574,175.44170129254343</t>
+          <t>-36.149118817673205,175.4417013181044</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9082,12 +9082,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.14867940640036,175.44098057355404</t>
+          <t>-36.14867944144149,175.44098054741207</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.14894622017737,175.4418300811985</t>
+          <t>-36.14894621161174,175.44183008758873</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9109,12 +9109,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.148686715978386,175.440975120338</t>
+          <t>-36.14868668794548,175.44097514125158</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.149023653510625,175.44177231360558</t>
+          <t>-36.14902368777317,175.44177228804466</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9136,12 +9136,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.14868862922359,175.440973692986</t>
+          <t>-36.14868861520715,175.4409737034428</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-36.149118552138695,175.4417015162019</t>
+          <t>-36.149118586401215,175.44170149064092</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9163,12 +9163,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.148541035977246,175.4410838027992</t>
+          <t>-36.14854106401015,175.44108378188568</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.14894961216904,175.44182755067354</t>
+          <t>-36.14894960360339,175.44182755706376</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.14869189505607,175.4409712565535</t>
+          <t>-36.14869193009718,175.4409712304115</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9217,12 +9217,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.148521041500715,175.44109871935402</t>
+          <t>-36.14852102047603,175.44109873503913</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-36.14891660020782,175.44185217855153</t>
+          <t>-36.14891660877345,175.4418521721613</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.148585482157934,175.44105064441635</t>
+          <t>-36.14858546814148,175.44105065487312</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.148955111306925,175.4418234481553</t>
+          <t>-36.14895507704439,175.44182347371617</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -9271,12 +9271,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-36.14868763405577,175.4409744354182</t>
+          <t>-36.148687613031086,175.4409744511034</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-36.14896983563349,175.44181246337246</t>
+          <t>-36.14896980137094,175.44181248893332</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -9298,12 +9298,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.14876613316292,175.44091587210178</t>
+          <t>-36.14876616820404,175.44091584595978</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.149010573788914,175.44178207148</t>
+          <t>-36.14901058235455,175.44178206508977</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-36.148746650305,175.44093040706642</t>
+          <t>-36.148746664321436,175.44093039660962</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-36.149101412313385,175.44171430307267</t>
+          <t>-36.14910139518213,175.44171431585315</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.149067483850054,175.44173961479837</t>
+          <t>-36.14906747528442,175.44173962118856</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.1490928466831,175.4417206933109</t>
+          <t>-36.14909283811746,175.44172069970114</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9402,12 +9402,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.148490590743805,175.44112143663062</t>
+          <t>-36.1484905697191,175.4411214523157</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.14887377202108,175.44188412958272</t>
+          <t>-36.14887374632417,175.44188414875333</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.148519044155435,175.44110020944058</t>
+          <t>-36.14851901612252,175.44110023035407</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-36.14889932331818,175.44186506760158</t>
+          <t>-36.14889934044947,175.4418650548212</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9456,12 +9456,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-36.1484456679862,175.44115495046424</t>
+          <t>-36.148445703027356,175.4411549243224</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-36.148840725787096,175.4419087829752</t>
+          <t>-36.148840751484016,175.44190876380463</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.14859632388511,175.44104255610773</t>
+          <t>-36.148596337901566,175.44104254565096</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9510,12 +9510,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.148646495776006,175.4410051260849</t>
+          <t>-36.14864652380891,175.4410051051713</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.14897395570375,175.44180938967742</t>
+          <t>-36.148973964269395,175.4418093832872</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9537,12 +9537,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.1487306575406,175.44094233828034</t>
+          <t>-36.14873062950771,175.4409423591939</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.14909981054054,175.44171549804733</t>
+          <t>-36.14909977627802,175.44171552360828</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9564,12 +9564,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.1487187715941,175.44095120564745</t>
+          <t>-36.14871875757763,175.44095121610425</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-36.14903559400254,175.4417634056284</t>
+          <t>-36.14903555974002,175.44176343118932</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9591,12 +9591,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.148774536020966,175.44090960324257</t>
+          <t>-36.14877457106207,175.44090957710054</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.14916556887474,175.44166644014518</t>
+          <t>-36.149165534612244,175.4416664657062</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9618,12 +9618,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.14873108504221,175.44094201934783</t>
+          <t>-36.14873109205043,175.44094201411943</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.14895697004977,175.44182206147846</t>
+          <t>-36.148957004312315,175.4418220359176</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.14906302115609,175.44174294410985</t>
+          <t>-36.14906300402482,175.4417429568903</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.14870160144628,175.44096401522393</t>
+          <t>-36.14870156640516,175.44096404136587</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9695,12 +9695,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.14873055942548,175.44094241147795</t>
+          <t>-36.148730552417256,175.44094241670635</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.14905623717586,175.44174800517382</t>
+          <t>-36.14905622004459,175.44174801795427</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-36.14910934408678,175.44170838571085</t>
+          <t>-36.14910933552114,175.4417083921011</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.14868330998136,175.44097766133814</t>
+          <t>-36.148683295964915,175.4409776717949</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.14902903272801,175.441768300543</t>
+          <t>-36.14902900703111,175.44176831971367</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.14856784945776,175.44106379902357</t>
+          <t>-36.14856781441662,175.4410638251655</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.14895303842319,175.44182499458748</t>
+          <t>-36.148953072685735,175.4418249690266</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9822,12 +9822,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.14845253605264,175.44114982666682</t>
+          <t>-36.14845256408556,175.44114980575335</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.14883149202782,175.44191567160743</t>
+          <t>-36.14883150059346,175.44191566521727</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9845,12 +9845,12 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.148696513475706,175.4409678110402</t>
+          <t>-36.14869647843459,175.44096783718217</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.14907016489264,175.44173761465518</t>
+          <t>-36.14907017345826,175.44173760826496</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9869,7 +9869,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.149081591444435,175.44172909008188</t>
+          <t>-36.14908158287881,175.4417290964721</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.14871917106282,175.44095090762866</t>
+          <t>-36.14871914302993,175.44095092854226</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.14901434266754,175.44177925978107</t>
+          <t>-36.14901435979881,175.44177924700062</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9918,12 +9918,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.14849067484257,175.44112137389018</t>
+          <t>-36.14849064680965,175.44112139480367</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.14895316690772,175.44182489873424</t>
+          <t>-36.14895314977646,175.44182491151466</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.14874858457442,175.44092896402708</t>
+          <t>-36.14874859158264,175.44092895879868</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -9968,12 +9968,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.148560042292026,175.44106962343844</t>
+          <t>-36.14856002827557,175.44106963389518</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.14891618049162,175.4418524916718</t>
+          <t>-36.14891614622907,175.44185251723263</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9995,12 +9995,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.14872807150629,175.4409442675603</t>
+          <t>-36.14872808552275,175.4409442571035</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.14902856161821,175.44176865200552</t>
+          <t>-36.14902854448695,175.44176866478597</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10022,12 +10022,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.14871917807104,175.4409509024003</t>
+          <t>-36.14871914302993,175.44095092854226</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.14911852644182,175.44170153537263</t>
+          <t>-36.14911850931054,175.4417015481531</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10049,12 +10049,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.14861640245421,175.44102757678442</t>
+          <t>-36.14861638142955,175.4410275924696</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.14899393932845,175.44179448129344</t>
+          <t>-36.14899393076283,175.4417944876837</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -10076,12 +10076,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.14862136427838,175.44102387508661</t>
+          <t>-36.148621392311284,175.44102385417307</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.14886880395094,175.44188783590016</t>
+          <t>-36.14886881251659,175.44188782950994</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10122,12 +10122,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.14869652048394,175.4409678058118</t>
+          <t>-36.14869655552506,175.44096777966982</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-36.14909327496463,175.44172037379903</t>
+          <t>-36.149093300661505,175.4417203546283</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.14913510093441,175.44168917025254</t>
+          <t>-36.14913508380316,175.44168918303305</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.14871925516152,175.44095084488788</t>
+          <t>-36.14871922012038,175.44095087102988</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.14903908878055,175.44176079841503</t>
+          <t>-36.14903910591183,175.4417607856346</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10203,12 +10203,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.14871863843784,175.44095130498704</t>
+          <t>-36.14871860339673,175.44095133112904</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.149065205392105,175.44174131460042</t>
+          <t>-36.14906523965463,175.4417412890395</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.14920498789117,175.44163703220457</t>
+          <t>-36.149205005022424,175.44163701942406</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.14874194778763,175.44093391532482</t>
+          <t>-36.14874196180407,175.440933904868</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10284,12 +10284,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.148712786571274,175.44095567070042</t>
+          <t>-36.148712821612385,175.44095564455844</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.149064126122546,175.4417421197698</t>
+          <t>-36.14906416038507,175.44174209420885</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.14868296657837,175.44097791752947</t>
+          <t>-36.148682987603046,175.4409779018443</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -10338,12 +10338,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.14873405652873,175.44093980250562</t>
+          <t>-36.14873402148762,175.44093982864766</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-36.14913289956776,175.4416908125453</t>
+          <t>-36.14913292526465,175.44169079337456</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10365,12 +10365,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.148764093770325,175.44091739356784</t>
+          <t>-36.14876408676209,175.44091739879624</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.14911556273397,175.44170374639614</t>
+          <t>-36.14911557986524,175.44170373361567</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10392,12 +10392,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-36.148611454646435,175.441031268025</t>
+          <t>-36.14861144763819,175.44103127325337</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-36.14897809290523,175.44180630320162</t>
+          <t>-36.14897812716777,175.44180627764075</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10416,7 +10416,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.14882887094209,175.4419176270074</t>
+          <t>-36.14882887950773,175.4419176206172</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.148781305963084,175.4409045526011</t>
+          <t>-36.1487812779302,175.44090457351473</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-36.149177432269106,175.4416575896489</t>
+          <t>-36.14917740657222,175.44165760881967</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10465,12 +10465,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.1487474001848,175.44092984762725</t>
+          <t>-36.148747435225914,175.44092982148524</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.14913626585995,175.44168830117934</t>
+          <t>-36.14913624016307,175.44168832035007</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10492,12 +10492,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.14873350287913,175.44094021554935</t>
+          <t>-36.148733481854464,175.44094023123455</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.14908870091792,175.44172378618572</t>
+          <t>-36.14908867522103,175.44172380535642</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10519,12 +10519,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.14869422879468,175.4409695154975</t>
+          <t>-36.14869424281113,175.4409695050407</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.14910808493917,175.44170932507615</t>
+          <t>-36.14910810207043,175.44170931229567</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.14858333063218,175.44105224952972</t>
+          <t>-36.1485833096075,175.44105226521486</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10573,12 +10573,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.148786814425165,175.4409004430723</t>
+          <t>-36.14878682844162,175.44090043261548</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.14930924867505,175.44155924991634</t>
+          <t>-36.149309231543796,175.4415592626969</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.148800249185236,175.4408904202116</t>
+          <t>-36.14880024217702,175.44089042544</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.14914784658998,175.4416796615676</t>
+          <t>-36.1491478808525,175.44167963600663</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10646,12 +10646,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-36.148691096118505,175.44097185259062</t>
+          <t>-36.14869108210206,175.44097186304742</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-36.14898295818556,175.4418026735568</t>
+          <t>-36.148982983882455,175.44180265438612</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10673,12 +10673,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-36.14860687827452,175.4410346821607</t>
+          <t>-36.14860689929922,175.44103466647553</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.1489802000513,175.4418047312076</t>
+          <t>-36.14898020861693,175.4418047248174</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10700,12 +10700,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.148733993454734,175.44093984956123</t>
+          <t>-36.14873402148762,175.44093982864766</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.14911939157039,175.4417008899582</t>
+          <t>-36.149119357307875,175.4417009155192</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10727,12 +10727,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.14877286806417,175.4409108476034</t>
+          <t>-36.14877287507239,175.440910842375</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.149154382164454,175.4416747858093</t>
+          <t>-36.14915435646756,175.44167480498004</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10754,12 +10754,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.1485881873336,175.44104862626068</t>
+          <t>-36.148588166308926,175.44104864194583</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.148970246783946,175.441812156642</t>
+          <t>-36.148970263915224,175.44181214386154</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-36.1485739325993,175.4410592607893</t>
+          <t>-36.14857390456639,175.44105928170282</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-36.148846910178555,175.44190416925218</t>
+          <t>-36.14884691874419,175.441904162862</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -10808,12 +10808,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.14843277284053,175.44116457065294</t>
+          <t>-36.14843275181583,175.44116458633803</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-36.148788064231354,175.4419480698845</t>
+          <t>-36.14878809849392,175.44194804432374</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10835,12 +10835,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.14872973946339,175.44094302320087</t>
+          <t>-36.14872970442228,175.44094304934285</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.14910083841616,175.44171473121867</t>
+          <t>-36.14910085554743,175.44171471843822</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-36.148932420938095,175.44184037583202</t>
+          <t>-36.14893241237245,175.44184038222224</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10889,12 +10889,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.14874355967883,175.44093271279218</t>
+          <t>-36.148743580703496,175.44093269710694</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.14909687252937,175.4417176898991</t>
+          <t>-36.14909684683247,175.4417177090698</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.14869965316005,175.44096546871833</t>
+          <t>-36.14869963914359,175.44096547917513</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.14907945860235,175.44173068125053</t>
+          <t>-36.14907942433983,175.44173070681148</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10943,12 +10943,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.14867572007426,175.44098332368944</t>
+          <t>-36.14867574109893,175.44098330800426</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.14899441043832,175.44179412983124</t>
+          <t>-36.14899439330705,175.44179414261168</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10970,12 +10970,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.148600774109134,175.44103923608384</t>
+          <t>-36.14860080915025,175.44103920994192</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.148950956973806,175.44182654740976</t>
+          <t>-36.14895099123635,175.44182652184892</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10997,12 +10997,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.14850033218314,175.44111416919532</t>
+          <t>-36.14850036021604,175.44111414828186</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.1489326607759,175.44184019690607</t>
+          <t>-36.148932643644635,175.44184020968652</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -11024,12 +11024,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.148715456704416,175.44095367868042</t>
+          <t>-36.14871544268798,175.4409536891372</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.149059663428524,175.441745449081</t>
+          <t>-36.149059689125416,175.4417454299103</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -11051,12 +11051,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.14869731241325,175.44096721500296</t>
+          <t>-36.1486973264297,175.44096720454615</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-36.149115057361826,175.44170412342038</t>
+          <t>-36.14911504023056,175.44170413620083</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.148672321085314,175.44098585946045</t>
+          <t>-36.148672349118215,175.44098583854688</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -11101,12 +11101,12 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-36.14871206472426,175.4409562092255</t>
+          <t>-36.14871205070781,175.4409562196823</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.149079030320806,175.44173100076233</t>
+          <t>-36.149079038886434,175.44173099437208</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.1487796870639,175.44090576036328</t>
+          <t>-36.148779659031014,175.44090578127688</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -11151,12 +11151,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.14870886196607,175.4409585986037</t>
+          <t>-36.148708889998964,175.44095857769008</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.149107905060944,175.4417094592712</t>
+          <t>-36.149107870798424,175.44170948483213</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.149109138511655,175.44170853907661</t>
+          <t>-36.149109104249135,175.44170856463757</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -11205,12 +11205,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.14866637110249,175.44099029836633</t>
+          <t>-36.14866633606137,175.4409903245083</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.14899653471551,175.44179254505616</t>
+          <t>-36.14899655184678,175.4417925322757</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11232,12 +11232,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.148568080729284,175.44106362648702</t>
+          <t>-36.148568045688144,175.44106365262894</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.14885438798131,175.4418985906083</t>
+          <t>-36.14885439654695,175.4418985842181</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.14854736440744,175.44107908157474</t>
+          <t>-36.148547385432124,175.4410790658896</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -11282,12 +11282,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.14857964430464,175.44105499965858</t>
+          <t>-36.14857960926351,175.4410550258005</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-36.14895304698883,175.44182498819725</t>
+          <t>-36.148953072685735,175.4418249690266</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11309,12 +11309,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.148688061557436,175.44097411648605</t>
+          <t>-36.148688075573894,175.44097410602927</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.149040142353336,175.44176001241686</t>
+          <t>-36.1490401080908,175.4417600379778</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.14857164791712,175.44106096524143</t>
+          <t>-36.14857166894181,175.4410609495563</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-36.14893982164753,175.4418348546882</t>
+          <t>-36.148939813081896,175.44183486107843</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11363,12 +11363,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.14863058009557,175.44101699975687</t>
+          <t>-36.14863056607911,175.44101701021364</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.149063911981756,175.4417422795256</t>
+          <t>-36.14906392911303,175.44174226674517</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.14908950608721,175.44172318550343</t>
+          <t>-36.14908952321846,175.44172317272296</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.148756090380594,175.44092336440636</t>
+          <t>-36.14875606935592,175.4409233800916</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.14868441728081,175.4409768352517</t>
+          <t>-36.14868445232194,175.4409768091097</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-36.149042463639674,175.4417582806647</t>
+          <t>-36.149042497902194,175.44175825510376</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11490,12 +11490,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.148713480385396,175.44095515308894</t>
+          <t>-36.14871351542652,175.44095512694693</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.14904910200454,175.4417533282364</t>
+          <t>-36.14904912770142,175.4417533090657</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11517,12 +11517,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.148537174443355,175.44108668363458</t>
+          <t>-36.14853720948449,175.44108665749272</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.148893284543895,175.44186957269713</t>
+          <t>-36.14889325028134,175.44186959825794</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11544,12 +11544,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.148578151552215,175.44105611330383</t>
+          <t>-36.14857814454399,175.44105611853223</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.148920797369705,175.44184904734865</t>
+          <t>-36.148920771672806,175.44184906651927</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -11571,12 +11571,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.14867457072543,175.44098418114606</t>
+          <t>-36.14867458474187,175.4409841706893</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.14903560256818,175.44176339923817</t>
+          <t>-36.1490356368307,175.44176337367725</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11598,12 +11598,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.148768193580175,175.44091433495046</t>
+          <t>-36.14876817255551,175.44091435063564</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.14910630328815,175.441710654246</t>
+          <t>-36.149106328985035,175.4417106350753</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11625,12 +11625,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.14872771408692,175.44094453420874</t>
+          <t>-36.148727700070474,175.44094454466557</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-36.14906149647368,175.44174408157124</t>
+          <t>-36.149061462211144,175.44174410713217</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11652,12 +11652,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-36.148711265786766,175.44095680526297</t>
+          <t>-36.148711279803216,175.44095679480617</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-36.14905102070609,175.4417518968247</t>
+          <t>-36.14905105496861,175.4417518712638</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -11679,12 +11679,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.14867148710657,175.4409864816393</t>
+          <t>-36.148671501123026,175.44098647118253</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.148953500967494,175.44182464951584</t>
+          <t>-36.14895353523004,175.44182462395497</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11706,12 +11706,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-36.14874792580149,175.44092945549698</t>
+          <t>-36.14874789776861,175.44092947641062</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-36.1490722977348,175.4417360234869</t>
+          <t>-36.14907233199733,175.44173599792595</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11729,12 +11729,12 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.14886447251427,175.44084250702215</t>
+          <t>-36.14886445849784,175.44084251747898</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.14926019334791,175.4415958469809</t>
+          <t>-36.14926020191352,175.44159584059062</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11756,12 +11756,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.148791909402085,175.4408966420191</t>
+          <t>-36.1487919164103,175.44089663679068</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.149158664978565,175.44167159068547</t>
+          <t>-36.1491586735442,175.44167158429525</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11783,12 +11783,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.14870844147265,175.4409589123076</t>
+          <t>-36.1487084274562,175.44095892276437</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.14907368536704,175.4417349882689</t>
+          <t>-36.149073719629584,175.44173496270795</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.14870909323745,175.44095842606652</t>
+          <t>-36.14870912127034,175.4409584051529</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.1491089243709,175.44170869883263</t>
+          <t>-36.1491089500678,175.4417086796619</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.14911679618463,175.4417028262014</t>
+          <t>-36.149116813315906,175.44170281342093</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11860,12 +11860,12 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.14876691107557,175.44091529174875</t>
+          <t>-36.148766939108455,175.4409152708351</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.149090251297054,175.4417226295528</t>
+          <t>-36.149090217034534,175.44172265511378</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.14865498974508,175.44099878927517</t>
+          <t>-36.14865500376152,175.4409987788184</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11910,7 +11910,7 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.14886623858551,175.44084118946066</t>
+          <t>-36.148866231577294,175.44084119468909</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11937,12 +11937,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.14877904931573,175.44090623614835</t>
+          <t>-36.14877904230751,175.44090624137678</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.149115374290126,175.44170388698146</t>
+          <t>-36.14911534859323,175.44170390615216</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11960,12 +11960,12 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.14878624675924,175.4409008665734</t>
+          <t>-36.14878621171813,175.44090089271543</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.149092632542335,175.44172085306684</t>
+          <t>-36.14909260684544,175.44172087223757</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -12006,12 +12006,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.14871281460417,175.44095564978684</t>
+          <t>-36.148712821612385,175.44095564455844</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.14907715444763,175.4417324002238</t>
+          <t>-36.14907718871014,175.44173237466288</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -12033,12 +12033,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.148677345982364,175.440982110702</t>
+          <t>-36.14867735999881,175.4409821002452</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-36.149029812200574,175.44176771903233</t>
+          <t>-36.149029777938054,175.44176774459322</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.14874756137394,175.44092972737397</t>
+          <t>-36.14874758940683,175.44092970646037</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12087,12 +12087,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.14865496872039,175.44099880496034</t>
+          <t>-36.14865500376152,175.4409987788184</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.14900673638515,175.44178493430044</t>
+          <t>-36.14900672781952,175.44178494069067</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -12114,12 +12114,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.14864136575495,175.44100895326633</t>
+          <t>-36.148641358746715,175.44100895849473</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.14897066650005,175.4418118435213</t>
+          <t>-36.14897064936878,175.44181185630174</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.148500086895105,175.44111435218832</t>
+          <t>-36.14850005185395,175.44111437833016</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.148955188397636,175.44182339064338</t>
+          <t>-36.148955154135095,175.44182341620424</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -12168,12 +12168,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.14878686348272,175.44090040647347</t>
+          <t>-36.14878682844162,175.44090043261548</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.149158570756654,175.44167166097822</t>
+          <t>-36.14915859645354,175.4416716418075</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -12195,12 +12195,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.148714244281756,175.44095458319345</t>
+          <t>-36.148714209240644,175.44095460933542</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.14911045761865,175.44170755497962</t>
+          <t>-36.14911049188117,175.44170752941866</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -12222,12 +12222,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.148645129172046,175.44100614562097</t>
+          <t>-36.148645136180264,175.44100614039257</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.148996406231,175.44179264090948</t>
+          <t>-36.14899639766538,175.4417926472997</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -12249,12 +12249,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.14871289169463,175.44095559227446</t>
+          <t>-36.14871289870285,175.44095558704606</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.149034240632616,175.44176441528447</t>
+          <t>-36.149034249198245,175.44176440889424</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-36.14902050992337,175.44177465881864</t>
+          <t>-36.14902052705462,175.44177464603817</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.14859766245644,175.4410415574864</t>
+          <t>-36.148597648439974,175.44104156794316</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -12322,12 +12322,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.14859855250125,175.4410408934816</t>
+          <t>-36.14859857352592,175.44104087779647</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.14896200664322,175.4418183040312</t>
+          <t>-36.14896201520885,175.441818297641</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -12349,12 +12349,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.14877835550178,175.4409067537607</t>
+          <t>-36.14877834849356,175.4409067589891</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.1491773380472,175.44165765994168</t>
+          <t>-36.149177329481574,175.44165766633193</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -12376,12 +12376,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.148585678388294,175.44105049802167</t>
+          <t>-36.14858569941297,175.4410504823365</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.148998282104806,175.44179124145077</t>
+          <t>-36.14899824784226,175.44179126701167</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -12419,7 +12419,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.14897549751799,175.44180823943802</t>
+          <t>-36.148975506083616,175.4418082330478</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -12437,12 +12437,12 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.148520207521464,175.44109934153053</t>
+          <t>-36.14852017248031,175.4410993676724</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.149021580627476,175.44177386004037</t>
+          <t>-36.149021606324375,175.4417738408697</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.1486642896597,175.440991851199</t>
+          <t>-36.14866425461858,175.44099187734096</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-36.148980011607335,175.44180487179244</t>
+          <t>-36.148979977344794,175.4418048973533</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -12491,12 +12491,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.14852648689459,175.4410946569071</t>
+          <t>-36.14852649390282,175.44109465167872</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.14891442453611,175.44185380166473</t>
+          <t>-36.148914450233015,175.44185378249412</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12518,12 +12518,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.148483260135244,175.44112690550526</t>
+          <t>-36.148483246118786,175.44112691596197</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.148818360902006,175.44192546777654</t>
+          <t>-36.148818395164554,175.4419254422158</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12545,12 +12545,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-36.148520109406256,175.44109941472777</t>
+          <t>-36.14852009538979,175.44109942518452</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-36.14884150526027,175.44190820146721</t>
+          <t>-36.14884152239155,175.44190818868682</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -12572,12 +12572,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.148441498088616,175.44115806134081</t>
+          <t>-36.148441463047476,175.44115808748262</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-36.148815722684866,175.44192743595625</t>
+          <t>-36.14881569698794,175.44192745512686</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12599,12 +12599,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.14839586749053,175.44119210319775</t>
+          <t>-36.1483959025317,175.441192077056</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-36.14871375728367,175.44200350472536</t>
+          <t>-36.14871378298059,175.44200348555484</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.14880455308989,175.44193576876765</t>
+          <t>-36.14880451882733,175.4419357943284</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.148441799442566,175.44115783652117</t>
+          <t>-36.148441771409644,175.4411578574346</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12680,12 +12680,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.14853169400857,175.44109077222444</t>
+          <t>-36.14853165896743,175.4410907983663</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.14894055829221,175.44183430512987</t>
+          <t>-36.148940583989116,175.44183428595926</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.14861311559607,175.44103002889756</t>
+          <t>-36.14861314362898,175.441030007984</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.148989168270326,175.44179804064683</t>
+          <t>-36.14898915113906,175.44179805342728</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.14869199317119,175.4409711833559</t>
+          <t>-36.14869200718764,175.44097117289914</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -12761,12 +12761,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.14864516421318,175.44100611947903</t>
+          <t>-36.148645136180264,175.44100614039257</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.149037341391555,175.44176210202176</t>
+          <t>-36.149037332825934,175.44176210841198</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-36.14895612205189,175.44182269410985</t>
+          <t>-36.148956156314426,175.44182266854898</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12815,12 +12815,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.148502126289905,175.44111283073224</t>
+          <t>-36.14850213329814,175.44111282550386</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.14888560973264,175.4418752983211</t>
+          <t>-36.14888561829829,175.4418752919309</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12842,12 +12842,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.148680780012356,175.44097954878868</t>
+          <t>-36.14868075197946,175.44097956970225</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.149012064209096,175.4417809595809</t>
+          <t>-36.14901204707784,175.44178097236136</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12869,12 +12869,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.148615407286094,175.4410283192153</t>
+          <t>-36.14861537925319,175.4410283401288</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.149016732479176,175.44177747690821</t>
+          <t>-36.14901674961046,175.44177746412777</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12896,12 +12896,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.148449964031855,175.4411517454768</t>
+          <t>-36.148449943007165,175.44115176116185</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-36.14893759458222,175.44183651614364</t>
+          <t>-36.148937577450944,175.44183652892406</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12919,12 +12919,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.14874978298046,175.44092806997006</t>
+          <t>-36.14874974793934,175.44092809611206</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-36.14909474825305,175.44171927467812</t>
+          <t>-36.14909476538431,175.44171926189765</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12946,12 +12946,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.1486361025775,175.44101287978668</t>
+          <t>-36.14863611659394,175.4410128693299</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.14899889026479,175.441790787745</t>
+          <t>-36.1489988645679,175.44179080691563</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12973,12 +12973,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.14858621802178,175.44105009543622</t>
+          <t>-36.14858623904647,175.44105007975108</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.14904035649413,175.44175985266116</t>
+          <t>-36.14904033936288,175.44175986544158</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-36.14896248631878,175.44181794617904</t>
+          <t>-36.14896247775313,175.44181795256927</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -13027,12 +13027,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.14854050335188,175.4410842001558</t>
+          <t>-36.14854052437657,175.4410841844707</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-36.14888554977319,175.44187534305252</t>
+          <t>-36.14888554120755,175.4418753494427</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.148787079182625,175.44194880475627</t>
+          <t>-36.14878709631391,175.44194879197588</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.14884900876011,175.4419026036535</t>
+          <t>-36.14884900019448,175.44190261004368</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -13108,12 +13108,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.14854820539483,175.44107845416943</t>
+          <t>-36.14854823342774,175.4410784332559</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.148892873393294,175.441869879427</t>
+          <t>-36.14889286482765,175.44186988581723</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -13135,12 +13135,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-36.14849114439396,175.4411210235894</t>
+          <t>-36.14849110935281,175.44112104973124</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-36.148930673548335,175.44184167943527</t>
+          <t>-36.148930639285794,175.4418417049961</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -13162,12 +13162,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.148527825466296,175.4410936582875</t>
+          <t>-36.14852780444161,175.44109367397263</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-36.14892215074027,175.4418480376954</t>
+          <t>-36.1489221593059,175.4418480313052</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -13189,12 +13189,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-36.14837585197748,175.44120703538397</t>
+          <t>-36.1483758589857,175.44120703015562</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-36.14876915986074,175.4419621730289</t>
+          <t>-36.14876913416383,175.44196219219947</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -13216,12 +13216,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.148403401340445,175.4411864827126</t>
+          <t>-36.14840338031574,175.44118649839768</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.14876229878162,175.44196729156766</t>
+          <t>-36.14876227308469,175.44196731073822</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -13243,12 +13243,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-36.148335134139465,175.44123741211246</t>
+          <t>-36.14833515516416,175.44123739642743</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-36.14874857662275,175.4419775286426</t>
+          <t>-36.14874855092584,175.44197754781314</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.148759257978675,175.44196956008335</t>
+          <t>-36.148759266544324,175.44196955369316</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.148489924961964,175.4411219333258</t>
+          <t>-36.14848995299488,175.44112191241229</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-36.14890002570044,175.44186454360462</t>
+          <t>-36.14890003426607,175.4418645372144</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.14880857037526,175.4419327717675</t>
+          <t>-36.148808604637814,175.4419327462067</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13370,12 +13370,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-36.1483121401216,175.44125456632372</t>
+          <t>-36.14831210508042,175.44125459246547</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-36.148747677230304,175.44197819961184</t>
+          <t>-36.14874770292724,175.44197818044128</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -13397,12 +13397,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.148583407722676,175.4410521920175</t>
+          <t>-36.148583386698,175.44105220770265</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.148883416929394,175.44187693421344</t>
+          <t>-36.148883382666845,175.44187695977428</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13443,12 +13443,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.14873950191789,175.44093574003728</t>
+          <t>-36.14873949490966,175.44093574526568</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.149179188222725,175.44165627964745</t>
+          <t>-36.149179179657104,175.4416562860377</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13470,12 +13470,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.1484595442835,175.4411445983012</t>
+          <t>-36.14845957932465,175.44114457215937</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.14907478176783,175.44173417031888</t>
+          <t>-36.1490747988991,175.4417341575384</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13497,12 +13497,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-36.14860175526087,175.44103850411003</t>
+          <t>-36.14860173423619,175.44103851979517</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-36.14901467672723,175.4417790105623</t>
+          <t>-36.1490146681616,175.44177901695252</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.14902009020733,175.4417749719397</t>
+          <t>-36.14902006451044,175.4417749911104</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13547,12 +13547,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.14864646774311,175.44100514699844</t>
+          <t>-36.14864644671842,175.4410051626836</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.14906243869314,175.44174337864567</t>
+          <t>-36.14906246439004,175.44174335947497</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.14859118685477,175.44104638851277</t>
+          <t>-36.14859117283832,175.44104639896955</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13597,12 +13597,12 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.14843651523614,175.44116177870717</t>
+          <t>-36.148436529252606,175.44116176825045</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.14880264295205,175.44193719378038</t>
+          <t>-36.14880266864897,175.44193717460982</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13624,12 +13624,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.14860446744458,175.44103648072513</t>
+          <t>-36.148604432403445,175.44103650686705</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.14901729781097,175.44177705515332</t>
+          <t>-36.149017289245336,175.44177706154358</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.14854046130252,175.44108423152608</t>
+          <t>-36.14854044728605,175.44108424198282</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13678,12 +13678,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.1485376019453,175.44108636470364</t>
+          <t>-36.14853759493706,175.441086369932</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-36.148896813586475,175.44186693993214</t>
+          <t>-36.148896796455205,175.44186695271256</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13705,12 +13705,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.14860682921693,175.4410347187594</t>
+          <t>-36.148606822208706,175.44103472398777</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-36.148933808571144,175.44183934061763</t>
+          <t>-36.1489338000055,175.44183934700786</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13732,12 +13732,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.14858768974948,175.44104899747586</t>
+          <t>-36.14858770376593,175.4410489870191</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.148973715866,175.44180956860353</t>
+          <t>-36.148973732997256,175.4418095558231</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13759,12 +13759,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.148455241229776,175.4411478085178</t>
+          <t>-36.14845526225447,175.4411477928327</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.14884511995999,175.44190550480366</t>
+          <t>-36.14884514565691,175.44190548563307</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13786,12 +13786,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.148423970501575,175.44117113747564</t>
+          <t>-36.14842396349334,175.441171142704</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.148839201103314,175.44190992043036</t>
+          <t>-36.14883920966896,175.44190991404017</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13813,12 +13813,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.14862611585566,175.44102033024</t>
+          <t>-36.148626094830966,175.44102034592518</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.14910241449211,175.4417135554147</t>
+          <t>-36.14910239736085,175.44171356819518</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-36.14889370379476,175.4408206992805</t>
+          <t>-36.14889367576191,175.44082072019418</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-36.149305882385235,175.4415617612931</t>
+          <t>-36.14930591664773,175.441561735732</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13867,12 +13867,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-36.14870593252857,175.44096078407412</t>
+          <t>-36.148705960561465,175.44096076316052</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.149094260012106,175.44171963892168</t>
+          <t>-36.1490942257496,175.44171966448263</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13894,12 +13894,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.14880230259399,175.44088888828736</t>
+          <t>-36.14880232361866,175.44088887260213</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.14922966545994,175.44161862187337</t>
+          <t>-36.14922967402557,175.44161861548312</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13921,12 +13921,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.148605707900686,175.441035555301</t>
+          <t>-36.148605742941825,175.44103552915908</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.149025066840046,175.44177125921817</t>
+          <t>-36.14902507540569,175.44177125282795</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13967,12 +13967,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-36.14861558249175,175.4410281885056</t>
+          <t>-36.14861561052465,175.44102816759207</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-36.148983874708414,175.44180198980322</t>
+          <t>-36.14898390897095,175.44180196424236</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-36.14899777673241,175.4417916184739</t>
+          <t>-36.14899778529805,175.44179161208368</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-36.14868138972788,175.44097909391832</t>
+          <t>-36.148681368703215,175.44097910960352</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.14901657829779,175.44177759193227</t>
+          <t>-36.14901659542906,175.44177757915182</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -14067,12 +14067,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-36.148712022674914,175.4409562405959</t>
+          <t>-36.14871205070781,175.4409562196823</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.14906337234698,175.4417426821103</t>
+          <t>-36.14906338947824,175.4417426693298</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -14094,12 +14094,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.14880138451704,175.44088957320912</t>
+          <t>-36.148801398533486,175.4408895627523</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.149159041866206,175.4416713095146</t>
+          <t>-36.14915905899746,175.44167129673409</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.14861715934265,175.4410270121187</t>
+          <t>-36.14861715233443,175.44102701734707</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.14904771437215,175.44175436345373</t>
+          <t>-36.149047740069044,175.44175434428303</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-36.14864268330135,175.44100797032905</t>
+          <t>-36.148642669284904,175.44100798078583</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-36.14867025365903,175.44098740183657</t>
+          <t>-36.14867026767548,175.44098739137976</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14225,12 +14225,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.14867881770951,175.44098101273917</t>
+          <t>-36.148678824717734,175.44098100751077</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-36.14901716076085,175.44177715739693</t>
+          <t>-36.14901713506396,175.4417771765676</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.148817195063074,175.440877777913</t>
+          <t>-36.148817202071314,175.4408777726846</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.14864739282886,175.44100445685092</t>
+          <t>-36.148647371804195,175.4410044725361</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -14298,12 +14298,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-36.14880080283469,175.44089000716718</t>
+          <t>-36.14880078181004,175.4408900228524</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-36.14921728813055,175.44162785579655</t>
+          <t>-36.14921726243367,175.44162787496734</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -14325,12 +14325,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-36.14875979072194,175.44092060380868</t>
+          <t>-36.148759769697264,175.44092061949388</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.149081634272605,175.44172905813068</t>
+          <t>-36.1490816599695,175.44172903895998</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -14352,12 +14352,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.14876380643321,175.44091760793245</t>
+          <t>-36.148763778400316,175.44091762884608</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.149191300019616,175.44164724383083</t>
+          <t>-36.14919128288836,175.44164725661136</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.14880078881824,175.44089001762399</t>
+          <t>-36.14880078181004,175.4408900228524</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -14398,7 +14398,7 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-36.14869444604963,175.44096935341722</t>
+          <t>-36.14869447408253,175.4409693325036</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -14444,12 +14444,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.14859584732568,175.44104291163782</t>
+          <t>-36.14859587535859,175.44104289072428</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.14897549751799,175.44180823943802</t>
+          <t>-36.148975506083616,175.4418082330478</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -14471,12 +14471,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.14875107249338,175.44092710794376</t>
+          <t>-36.14875105847695,175.44092711840057</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.14910957535877,175.44170821317437</t>
+          <t>-36.14910956679314,175.44170821956462</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -14517,12 +14517,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.148771529493814,175.44091184622906</t>
+          <t>-36.14877156453491,175.440911820087</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-36.1491030397831,175.44171308892726</t>
+          <t>-36.149103014086215,175.44171310809799</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-36.148732395579906,175.4409410416368</t>
+          <t>-36.14873240258813,175.4409410364084</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-36.14908733898266,175.44172480223338</t>
+          <t>-36.14908736467956,175.44172478306265</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -14571,12 +14571,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-36.148727279577095,175.4409448583696</t>
+          <t>-36.14872731461821,175.4409448322276</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-36.14909832868652,175.4417166035586</t>
+          <t>-36.14909831155525,175.44171661633908</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14598,12 +14598,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.14866618888864,175.44099043430455</t>
+          <t>-36.14866618188042,175.44099043953295</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.14899642336227,175.44179262812906</t>
+          <t>-36.14899639766538,175.4417926472997</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14621,7 +14621,7 @@
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.14862173571436,175.4410235979821</t>
+          <t>-36.148621700673225,175.44102362412406</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -14644,12 +14644,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.148635969421214,175.44101297912607</t>
+          <t>-36.14863596241298,175.44101298435444</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.148997682510426,175.44179168876636</t>
+          <t>-36.14899770820733,175.4417916695957</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14671,12 +14671,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-36.14871038975882,175.4409574588128</t>
+          <t>-36.148710354717686,175.4409574849548</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.149155315817936,175.44167408927234</t>
+          <t>-36.14915528155542,175.44167411483335</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.14907335130743,175.44173523748805</t>
+          <t>-36.14907333417618,175.44173525026852</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14725,12 +14725,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.1487962825321,175.44089337949163</t>
+          <t>-36.14879631056498,175.440893358578</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.14921793911813,175.441627370137</t>
+          <t>-36.14921795624938,175.44162735735648</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14748,7 +14748,7 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.14877572041044,175.4409087196418</t>
+          <t>-36.14877572741866,175.4409087144134</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14775,12 +14775,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.14865928578706,175.44099558427106</t>
+          <t>-36.148659320828195,175.44099555812912</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.1490250240119,175.44177129116932</t>
+          <t>-36.14902499831499,175.44177131034</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-36.1486436294118,175.44100726449642</t>
+          <t>-36.14864359437067,175.4410072906384</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -14825,12 +14825,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.14863476400639,175.44101387840897</t>
+          <t>-36.148634728965256,175.4410139045509</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.14897923213461,175.4418054533024</t>
+          <t>-36.1489792064377,175.4418054724731</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14875,12 +14875,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.14874803092484,175.44092937707094</t>
+          <t>-36.1487480519495,175.44092936138574</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.14908214821043,175.44172867471656</t>
+          <t>-36.14908212251354,175.44172869388726</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14902,12 +14902,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.14858588863511,175.44105034117018</t>
+          <t>-36.14858585359398,175.4410503673121</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-36.14893064785143,175.4418416986059</t>
+          <t>-36.148930639285794,175.4418417049961</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14929,12 +14929,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.14863752524732,175.4410118184237</t>
+          <t>-36.14863750422264,175.44101183410888</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.14898211018776,175.44180330618858</t>
+          <t>-36.148982135884665,175.4418032870179</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14956,12 +14956,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.148580569390646,175.4410543095122</t>
+          <t>-36.1485805343495,175.44105433565412</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.148950040450806,175.4418272311628</t>
+          <t>-36.148950066147705,175.44182721199215</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -14983,12 +14983,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-36.14857523612961,175.44105828831044</t>
+          <t>-36.14857521510493,175.44105830399556</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.148944772584954,175.4418311611447</t>
+          <t>-36.148944746888056,175.44183118031535</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -15010,12 +15010,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.14855337746721,175.44107459562656</t>
+          <t>-36.148553398491885,175.4410745799414</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.148877181145025,175.44188158628188</t>
+          <t>-36.14887721540759,175.44188156072107</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -15037,12 +15037,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-36.14860706749664,175.4410345409943</t>
+          <t>-36.148607053480184,175.44103455145108</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.14898646152995,175.44180005995662</t>
+          <t>-36.148986452964316,175.44180006634684</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -15064,12 +15064,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-36.148478473514054,175.44113047648116</t>
+          <t>-36.14847846650583,175.44113048170954</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-36.14896083315121,175.4418191794909</t>
+          <t>-36.14896085884812,175.44181916032025</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-36.14853104925153,175.44109125323496</t>
+          <t>-36.1485310422433,175.44109125846333</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-36.14895706427177,175.4418219911861</t>
+          <t>-36.148957081403026,175.44182197840564</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-36.14892579970135,175.4418453154656</t>
+          <t>-36.148925782570075,175.44184532824602</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -15168,12 +15168,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-36.14851922636941,175.44110007350284</t>
+          <t>-36.148519247394084,175.44110005781772</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-36.14887055990679,175.4418865259087</t>
+          <t>-36.148870585603696,175.4418865067381</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -15195,12 +15195,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-36.148432205173776,175.4411649941503</t>
+          <t>-36.148432212182,175.44116498892194</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-36.148789743097005,175.44194681740737</t>
+          <t>-36.14878971740008,175.44194683657793</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -15222,7 +15222,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-36.14845802349741,175.44114573285663</t>
+          <t>-36.148458037513876,175.44114572239988</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15249,12 +15249,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-36.14852204367745,175.4410979716965</t>
+          <t>-36.14852202265278,175.44109798738165</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-36.148880367562334,175.44187920912614</t>
+          <t>-36.14888037612797,175.44187920273595</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -15276,12 +15276,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-36.14851026284427,175.4411067605922</t>
+          <t>-36.14851022780313,175.44110678673405</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-36.14888169523619,175.44187821864452</t>
+          <t>-36.148881686670556,175.4418782250347</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -15303,12 +15303,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-36.14846690993392,175.44113910328795</t>
+          <t>-36.1484669029257,175.44113910851632</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-36.14883186035032,175.44191539682902</t>
+          <t>-36.14883188604723,175.44191537765843</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-36.14867256637318,175.44098567646668</t>
+          <t>-36.14867258038963,175.4409856660099</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15353,12 +15353,12 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-36.148707151959485,175.44095987433286</t>
+          <t>-36.14870711691838,175.44095990047484</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-36.14909514227204,175.4417189807272</t>
+          <t>-36.14909515083768,175.44171897433694</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-36.148860625001916,175.4408453774238</t>
+          <t>-36.14886060397725,175.44084539310907</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-36.14925888280734,175.44159682469126</t>
+          <t>-36.149258891372966,175.44159681830104</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -15407,12 +15407,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-36.14868465556044,175.44097665748623</t>
+          <t>-36.148684683593345,175.44097663657266</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-36.14908440953697,175.44172698769424</t>
+          <t>-36.14908443523385,175.4417269685235</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-36.148786106594805,175.44090097114156</t>
+          <t>-36.148786134627684,175.44090095022793</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-36.14917702968461,175.44165788999072</t>
+          <t>-36.14917702111899,175.44165789638095</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -15461,12 +15461,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-36.148800333283894,175.44089035747066</t>
+          <t>-36.14880031926745,175.4408903679275</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-36.149255105366834,175.44159964279748</t>
+          <t>-36.14925511393246,175.44159963640726</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -15488,12 +15488,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-36.14879814671891,175.44089198873462</t>
+          <t>-36.14879816073537,175.4408919782778</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-36.14919512028922,175.44164439377784</t>
+          <t>-36.14919513742048,175.4416443809973</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -15515,12 +15515,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-36.148765866850496,175.4409160707812</t>
+          <t>-36.148765859842264,175.44091607600961</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-36.14912287778159,175.4416982891297</t>
+          <t>-36.149122903478464,175.44169826995898</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -8682,10 +8682,10 @@
         <v>0.025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0246</v>
+        <v>0.0194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0263</v>
+        <v>0.0281</v>
       </c>
       <c r="I2" t="n">
         <v>0.1548718508829243</v>
@@ -8760,10 +8760,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.047</v>
+        <v>0.0446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0629</v>
+        <v>0.0663</v>
       </c>
       <c r="I3" t="n">
         <v>0.3502284181166253</v>
@@ -8838,10 +8838,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0426</v>
+        <v>0.0399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0516</v>
+        <v>0.0573</v>
       </c>
       <c r="I4" t="n">
         <v>0.199201644655727</v>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,6 +5653,25 @@
       <c r="E254" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="D255" t="n">
+        <v>304.69</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8515,6 +8534,16 @@
       </c>
       <c r="B284" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -8691,7 +8720,7 @@
         <v>0.1548718508829243</v>
       </c>
       <c r="J2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K2" t="n">
         <v>232</v>
@@ -8760,34 +8789,34 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0446</v>
+        <v>0.0444</v>
       </c>
       <c r="H3" t="n">
         <v>0.0663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3502284181166253</v>
+        <v>0.3332217412869308</v>
       </c>
       <c r="J3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03041342725441232</v>
+        <v>0.02761123298915558</v>
       </c>
       <c r="M3" t="n">
-        <v>11.79533810859112</v>
+        <v>11.83651639434349</v>
       </c>
       <c r="N3" t="n">
-        <v>212.8710182233932</v>
+        <v>213.8142278005845</v>
       </c>
       <c r="O3" t="n">
-        <v>14.59010000731294</v>
+        <v>14.62238789666669</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6562841929215</v>
+        <v>316.8320945283577</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8841,31 +8870,31 @@
         <v>0.0399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0573</v>
+        <v>0.0571</v>
       </c>
       <c r="I4" t="n">
-        <v>0.199201644655727</v>
+        <v>0.1801165270606295</v>
       </c>
       <c r="J4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K4" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009664318178151499</v>
+        <v>0.007916859750612071</v>
       </c>
       <c r="M4" t="n">
-        <v>11.83920419954685</v>
+        <v>11.88615416985501</v>
       </c>
       <c r="N4" t="n">
-        <v>218.8823587748427</v>
+        <v>219.9751256423874</v>
       </c>
       <c r="O4" t="n">
-        <v>14.79467332437059</v>
+        <v>14.83155843606421</v>
       </c>
       <c r="P4" t="n">
-        <v>321.3045074725687</v>
+        <v>321.5001927863552</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8903,7 +8932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15529,6 +15558,29 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>-36.14877865685532,175.44090652893917</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>-36.149163915708556,175.44166767346323</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0116/nzd0116.xlsx
+++ b/data/nzd0116/nzd0116.xlsx
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.86</v>
+        <v>360.98</v>
       </c>
       <c r="C3" t="n">
-        <v>315.51</v>
+        <v>311.79</v>
       </c>
       <c r="D3" t="n">
-        <v>314.54</v>
+        <v>313.56</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.53</v>
+        <v>362.49</v>
       </c>
       <c r="C4" t="n">
-        <v>319.4</v>
+        <v>314.33</v>
       </c>
       <c r="D4" t="n">
-        <v>323.75</v>
+        <v>316.96</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.43</v>
+        <v>368.16</v>
       </c>
       <c r="C6" t="n">
-        <v>312.77</v>
+        <v>311.31</v>
       </c>
       <c r="D6" t="n">
         <v>310.54</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.78</v>
+        <v>366.61</v>
       </c>
       <c r="C7" t="n">
-        <v>317.57</v>
+        <v>315.17</v>
       </c>
       <c r="D7" t="n">
-        <v>332.93</v>
+        <v>321.74</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.2</v>
+        <v>365.47</v>
       </c>
       <c r="C8" t="n">
-        <v>316.63</v>
+        <v>315.66</v>
       </c>
       <c r="D8" t="n">
-        <v>322.88</v>
+        <v>322.12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>365.42</v>
+        <v>365.46</v>
       </c>
       <c r="C9" t="n">
-        <v>316.38</v>
+        <v>315.84</v>
       </c>
       <c r="D9" t="n">
-        <v>310.57</v>
+        <v>319.23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.77</v>
+        <v>362.29</v>
       </c>
       <c r="C10" t="n">
-        <v>335.52</v>
+        <v>321.52</v>
       </c>
       <c r="D10" t="n">
-        <v>332.49</v>
+        <v>324.72</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.94</v>
+        <v>359.04</v>
       </c>
       <c r="C11" t="n">
-        <v>315.95</v>
+        <v>322.62</v>
       </c>
       <c r="D11" t="n">
-        <v>327.19</v>
+        <v>323.42</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>368.75</v>
+        <v>360.15</v>
       </c>
       <c r="C12" t="n">
-        <v>338.12</v>
+        <v>329.86</v>
       </c>
       <c r="D12" t="n">
-        <v>336.77</v>
+        <v>332.15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.29</v>
+        <v>362.99</v>
       </c>
       <c r="C13" t="n">
-        <v>329.76</v>
+        <v>327.94</v>
       </c>
       <c r="D13" t="n">
-        <v>331.78</v>
+        <v>331.91</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -741,13 +741,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>357.41</v>
+        <v>366.42</v>
       </c>
       <c r="C15" t="n">
-        <v>306.32</v>
+        <v>311.41</v>
       </c>
       <c r="D15" t="n">
-        <v>324.58</v>
+        <v>327.23</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.74</v>
+        <v>360.86</v>
       </c>
       <c r="C16" t="n">
-        <v>308.85</v>
+        <v>310.56</v>
       </c>
       <c r="D16" t="n">
-        <v>312.8</v>
+        <v>322.42</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -782,12 +782,14 @@
           <t>2003-10-17 21:53:51+00:00</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>360.86</v>
+      </c>
       <c r="C17" t="n">
-        <v>321.97</v>
+        <v>313.41</v>
       </c>
       <c r="D17" t="n">
-        <v>317.2</v>
+        <v>321.11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -802,13 +804,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>332.48</v>
+        <v>353.76</v>
       </c>
       <c r="C18" t="n">
-        <v>305.5</v>
+        <v>311.83</v>
       </c>
       <c r="D18" t="n">
-        <v>313.91</v>
+        <v>319.67</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -823,13 +825,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.56</v>
+        <v>353.26</v>
       </c>
       <c r="C19" t="n">
-        <v>342.07</v>
+        <v>319.6</v>
       </c>
       <c r="D19" t="n">
-        <v>342.33</v>
+        <v>321.56</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -844,13 +846,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>359.09</v>
+        <v>354.72</v>
       </c>
       <c r="C20" t="n">
-        <v>338.38</v>
+        <v>323.35</v>
       </c>
       <c r="D20" t="n">
-        <v>339.01</v>
+        <v>325.05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -865,13 +867,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>386.93</v>
+        <v>361.16</v>
       </c>
       <c r="C21" t="n">
-        <v>347.89</v>
+        <v>327.44</v>
       </c>
       <c r="D21" t="n">
-        <v>346.61</v>
+        <v>328.64</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -886,13 +888,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>340.9</v>
+        <v>359.39</v>
       </c>
       <c r="C22" t="n">
-        <v>328.35</v>
+        <v>330.69</v>
       </c>
       <c r="D22" t="n">
-        <v>326.97</v>
+        <v>331</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -907,13 +909,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>365.55</v>
+        <v>360.42</v>
       </c>
       <c r="C23" t="n">
-        <v>321.84</v>
+        <v>329.43</v>
       </c>
       <c r="D23" t="n">
-        <v>329.33</v>
+        <v>330.77</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -928,13 +930,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>339.96</v>
+        <v>357.5</v>
       </c>
       <c r="C24" t="n">
-        <v>310.93</v>
+        <v>327.85</v>
       </c>
       <c r="D24" t="n">
-        <v>313.01</v>
+        <v>330.17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -949,13 +951,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.37</v>
+        <v>358.62</v>
       </c>
       <c r="C25" t="n">
-        <v>312.47</v>
+        <v>328.85</v>
       </c>
       <c r="D25" t="n">
-        <v>321.34</v>
+        <v>331.23</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -970,13 +972,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>347.22</v>
+        <v>357.2</v>
       </c>
       <c r="C26" t="n">
-        <v>305.23</v>
+        <v>325.89</v>
       </c>
       <c r="D26" t="n">
-        <v>304.48</v>
+        <v>327.88</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -991,13 +993,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>352.48</v>
+        <v>356.67</v>
       </c>
       <c r="C27" t="n">
-        <v>310.87</v>
+        <v>324.23</v>
       </c>
       <c r="D27" t="n">
-        <v>331.53</v>
+        <v>328.29</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1012,13 +1014,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>356.06</v>
+        <v>356.61</v>
       </c>
       <c r="C28" t="n">
-        <v>312.23</v>
+        <v>323.03</v>
       </c>
       <c r="D28" t="n">
-        <v>317.78</v>
+        <v>327.24</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1033,13 +1035,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.24</v>
+        <v>356.12</v>
       </c>
       <c r="C29" t="n">
-        <v>314.7</v>
+        <v>322.27</v>
       </c>
       <c r="D29" t="n">
-        <v>317.26</v>
+        <v>326.33</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1053,12 +1055,14 @@
           <t>2004-08-08 21:48:26+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>353.98</v>
+      </c>
       <c r="C30" t="n">
-        <v>310.94</v>
+        <v>319.44</v>
       </c>
       <c r="D30" t="n">
-        <v>318.66</v>
+        <v>324.18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1073,13 +1077,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>337.61</v>
+        <v>351.83</v>
       </c>
       <c r="C31" t="n">
-        <v>307.75</v>
+        <v>316.65</v>
       </c>
       <c r="D31" t="n">
-        <v>311.77</v>
+        <v>321.7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1094,13 +1098,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>355.34</v>
+        <v>347.53</v>
       </c>
       <c r="C32" t="n">
-        <v>317.07</v>
+        <v>311.35</v>
       </c>
       <c r="D32" t="n">
-        <v>322.19</v>
+        <v>317.56</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1115,10 +1119,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>359.42</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+        <v>349.97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>311.41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>318.13</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1132,13 +1140,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.81</v>
+        <v>353.91</v>
       </c>
       <c r="C34" t="n">
-        <v>332.05</v>
+        <v>315.79</v>
       </c>
       <c r="D34" t="n">
-        <v>332.04</v>
+        <v>319.95</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1153,13 +1161,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.89</v>
+        <v>359.38</v>
       </c>
       <c r="C35" t="n">
-        <v>347</v>
+        <v>321.58</v>
       </c>
       <c r="D35" t="n">
-        <v>347.81</v>
+        <v>324.95</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1173,12 +1181,14 @@
           <t>2005-02-08 21:55:11+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>361.01</v>
+      </c>
       <c r="C36" t="n">
-        <v>315.36</v>
+        <v>323.85</v>
       </c>
       <c r="D36" t="n">
-        <v>316.85</v>
+        <v>326.13</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1192,10 +1202,14 @@
           <t>2005-03-12 21:55:20+00:00</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>366.86</v>
+      </c>
+      <c r="C37" t="n">
+        <v>327.87</v>
+      </c>
       <c r="D37" t="n">
-        <v>315.37</v>
+        <v>326.85</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1210,13 +1224,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.3</v>
+        <v>366.11</v>
       </c>
       <c r="C38" t="n">
-        <v>312.42</v>
+        <v>326.71</v>
       </c>
       <c r="D38" t="n">
-        <v>324.09</v>
+        <v>327.23</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1231,13 +1245,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>377.19</v>
+        <v>368.32</v>
       </c>
       <c r="C39" t="n">
-        <v>342.06</v>
+        <v>329.78</v>
       </c>
       <c r="D39" t="n">
-        <v>332.03</v>
+        <v>328.03</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1252,12 +1266,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>329.21</v>
+        <v>362.28</v>
       </c>
       <c r="C40" t="n">
-        <v>308.6</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>326.25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>328.03</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1271,13 +1287,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.99</v>
+        <v>359.23</v>
       </c>
       <c r="C41" t="n">
-        <v>333.06</v>
+        <v>327.22</v>
       </c>
       <c r="D41" t="n">
-        <v>336.83</v>
+        <v>329.29</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1292,13 +1308,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>361.75</v>
+        <v>352.89</v>
       </c>
       <c r="C42" t="n">
-        <v>311.26</v>
+        <v>321.48</v>
       </c>
       <c r="D42" t="n">
-        <v>322.25</v>
+        <v>326.11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1313,13 +1329,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>384.43</v>
+        <v>358.14</v>
       </c>
       <c r="C43" t="n">
-        <v>312.42</v>
+        <v>319.97</v>
       </c>
       <c r="D43" t="n">
-        <v>310.58</v>
+        <v>325.16</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1334,13 +1350,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.32</v>
+        <v>352.74</v>
       </c>
       <c r="C44" t="n">
-        <v>325.75</v>
+        <v>318.22</v>
       </c>
       <c r="D44" t="n">
-        <v>326.74</v>
+        <v>324.1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1355,13 +1371,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>377.16</v>
+        <v>366.92</v>
       </c>
       <c r="C45" t="n">
-        <v>325.1</v>
+        <v>318.63</v>
       </c>
       <c r="D45" t="n">
-        <v>342.97</v>
+        <v>325.63</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1376,10 +1392,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>355.65</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+        <v>364.66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>318.63</v>
+      </c>
+      <c r="D46" t="n">
+        <v>325.63</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1393,13 +1413,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>349.16</v>
+        <v>362.08</v>
       </c>
       <c r="C47" t="n">
-        <v>315.35</v>
+        <v>317.98</v>
       </c>
       <c r="D47" t="n">
-        <v>313.85</v>
+        <v>323.28</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1414,13 +1434,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>332.78</v>
+        <v>357.25</v>
       </c>
       <c r="C48" t="n">
-        <v>302.27</v>
+        <v>316.18</v>
       </c>
       <c r="D48" t="n">
-        <v>308.43</v>
+        <v>320.51</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1435,13 +1455,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.69</v>
+        <v>359.03</v>
       </c>
       <c r="C49" t="n">
-        <v>312.41</v>
+        <v>315.55</v>
       </c>
       <c r="D49" t="n">
-        <v>320.88</v>
+        <v>320.57</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1456,13 +1476,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>370.01</v>
+        <v>356.97</v>
       </c>
       <c r="C50" t="n">
-        <v>312.49</v>
+        <v>315.56</v>
       </c>
       <c r="D50" t="n">
-        <v>317.49</v>
+        <v>321.73</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1477,13 +1497,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>329.35</v>
+        <v>351.11</v>
       </c>
       <c r="C51" t="n">
-        <v>302.8</v>
+        <v>309.06</v>
       </c>
       <c r="D51" t="n">
-        <v>299.36</v>
+        <v>312</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1498,13 +1518,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>341.16</v>
+        <v>349.69</v>
       </c>
       <c r="C52" t="n">
-        <v>309.46</v>
+        <v>309.13</v>
       </c>
       <c r="D52" t="n">
-        <v>312.34</v>
+        <v>312.06</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1519,13 +1539,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>354.07</v>
+        <v>349.46</v>
       </c>
       <c r="C53" t="n">
-        <v>313.24</v>
+        <v>309.72</v>
       </c>
       <c r="D53" t="n">
-        <v>317.63</v>
+        <v>312.85</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1540,13 +1560,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>363.5</v>
+        <v>351.21</v>
       </c>
       <c r="C54" t="n">
-        <v>317.11</v>
+        <v>310.64</v>
       </c>
       <c r="D54" t="n">
-        <v>327.85</v>
+        <v>314.73</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1561,13 +1581,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>364.48</v>
+        <v>353.13</v>
       </c>
       <c r="C55" t="n">
-        <v>310.49</v>
+        <v>310.03</v>
       </c>
       <c r="D55" t="n">
-        <v>308.71</v>
+        <v>314.09</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1582,13 +1602,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>361.58</v>
+        <v>354.07</v>
       </c>
       <c r="C56" t="n">
-        <v>306.59</v>
+        <v>309.65</v>
       </c>
       <c r="D56" t="n">
-        <v>310.96</v>
+        <v>313.74</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1603,13 +1623,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>362.17</v>
+        <v>357.33</v>
       </c>
       <c r="C57" t="n">
-        <v>326.39</v>
+        <v>312.33</v>
       </c>
       <c r="D57" t="n">
-        <v>328.79</v>
+        <v>316</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1623,10 +1643,14 @@
           <t>2007-03-02 21:56:07+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>361.87</v>
+      </c>
+      <c r="C58" t="n">
+        <v>316.49</v>
+      </c>
       <c r="D58" t="n">
-        <v>348.15</v>
+        <v>329.3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1662,13 +1686,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>348.15</v>
+        <v>335.51</v>
       </c>
       <c r="C60" t="n">
-        <v>308.75</v>
+        <v>306.56</v>
       </c>
       <c r="D60" t="n">
-        <v>308.28</v>
+        <v>305.61</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1683,13 +1707,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>348.81</v>
+        <v>339.95</v>
       </c>
       <c r="C61" t="n">
-        <v>310.56</v>
+        <v>307.89</v>
       </c>
       <c r="D61" t="n">
-        <v>314.45</v>
+        <v>308.56</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1704,13 +1728,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>362</v>
+        <v>345.46</v>
       </c>
       <c r="C62" t="n">
-        <v>315.65</v>
+        <v>309.83</v>
       </c>
       <c r="D62" t="n">
-        <v>311.93</v>
+        <v>309.4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1725,13 +1749,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>366.61</v>
+        <v>349.69</v>
       </c>
       <c r="C63" t="n">
-        <v>330.04</v>
+        <v>313.87</v>
       </c>
       <c r="D63" t="n">
-        <v>323.7</v>
+        <v>312.26</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1746,13 +1770,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>350.16</v>
+        <v>349.77</v>
       </c>
       <c r="C64" t="n">
-        <v>303.64</v>
+        <v>312.17</v>
       </c>
       <c r="D64" t="n">
-        <v>285.84</v>
+        <v>307.86</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1767,13 +1791,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>335.37</v>
+        <v>353.54</v>
       </c>
       <c r="C65" t="n">
-        <v>301.9</v>
+        <v>312.81</v>
       </c>
       <c r="D65" t="n">
-        <v>306.77</v>
+        <v>307.06</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1788,10 +1812,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>372.35</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+        <v>353.86</v>
+      </c>
+      <c r="C66" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>306.77</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1805,7 +1833,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>376.31</v>
+        <v>374.33</v>
       </c>
       <c r="C67" t="n">
         <v>316.06</v>
@@ -1826,13 +1854,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>373.87</v>
+        <v>374.18</v>
       </c>
       <c r="C68" t="n">
-        <v>326.98</v>
+        <v>321.52</v>
       </c>
       <c r="D68" t="n">
-        <v>328.52</v>
+        <v>328.34</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1847,13 +1875,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>339.74</v>
+        <v>356.81</v>
       </c>
       <c r="C69" t="n">
-        <v>310.49</v>
+        <v>318.74</v>
       </c>
       <c r="D69" t="n">
-        <v>310.47</v>
+        <v>319.5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1868,13 +1896,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>356.43</v>
+        <v>348.09</v>
       </c>
       <c r="C70" t="n">
-        <v>305.45</v>
+        <v>307.97</v>
       </c>
       <c r="D70" t="n">
-        <v>305.93</v>
+        <v>308.2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1889,13 +1917,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>375.29</v>
+        <v>357.15</v>
       </c>
       <c r="C71" t="n">
-        <v>329.41</v>
+        <v>315.12</v>
       </c>
       <c r="D71" t="n">
-        <v>329.81</v>
+        <v>315.4</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1910,13 +1938,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>380.2</v>
+        <v>362.92</v>
       </c>
       <c r="C72" t="n">
-        <v>331.26</v>
+        <v>319.15</v>
       </c>
       <c r="D72" t="n">
-        <v>345.81</v>
+        <v>323</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1931,13 +1959,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>392.51</v>
+        <v>368.83</v>
       </c>
       <c r="C73" t="n">
-        <v>349.57</v>
+        <v>325.24</v>
       </c>
       <c r="D73" t="n">
-        <v>353.44</v>
+        <v>329.09</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1952,13 +1980,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>363.64</v>
+        <v>373.61</v>
       </c>
       <c r="C74" t="n">
-        <v>311.05</v>
+        <v>325.35</v>
       </c>
       <c r="D74" t="n">
-        <v>312.87</v>
+        <v>329.57</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1973,13 +2001,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>356.6</v>
+        <v>373.65</v>
       </c>
       <c r="C75" t="n">
-        <v>339.85</v>
+        <v>332.23</v>
       </c>
       <c r="D75" t="n">
-        <v>334.72</v>
+        <v>335.33</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1994,13 +2022,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>343.81</v>
+        <v>368.68</v>
       </c>
       <c r="C76" t="n">
-        <v>309.25</v>
+        <v>328.4</v>
       </c>
       <c r="D76" t="n">
-        <v>313.39</v>
+        <v>331.67</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2015,13 +2043,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>351.19</v>
+        <v>366.18</v>
       </c>
       <c r="C77" t="n">
-        <v>314.95</v>
+        <v>326.48</v>
       </c>
       <c r="D77" t="n">
-        <v>315.65</v>
+        <v>329.38</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2036,13 +2064,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>365.37</v>
+        <v>362.19</v>
       </c>
       <c r="C78" t="n">
-        <v>318.05</v>
+        <v>323.79</v>
       </c>
       <c r="D78" t="n">
-        <v>326.68</v>
+        <v>326.12</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2057,13 +2085,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>367.92</v>
+        <v>357.07</v>
       </c>
       <c r="C79" t="n">
-        <v>327.77</v>
+        <v>317.5</v>
       </c>
       <c r="D79" t="n">
-        <v>332.31</v>
+        <v>322.01</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2078,13 +2106,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>369.63</v>
+        <v>368.77</v>
       </c>
       <c r="C80" t="n">
-        <v>340.8</v>
+        <v>334.28</v>
       </c>
       <c r="D80" t="n">
-        <v>334.69</v>
+        <v>333.5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2099,13 +2127,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>360.71</v>
+        <v>366.09</v>
       </c>
       <c r="C81" t="n">
-        <v>312.9</v>
+        <v>327.16</v>
       </c>
       <c r="D81" t="n">
-        <v>318.21</v>
+        <v>328.4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2120,13 +2148,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>366.03</v>
+        <v>366.07</v>
       </c>
       <c r="C82" t="n">
-        <v>315.25</v>
+        <v>324.18</v>
       </c>
       <c r="D82" t="n">
-        <v>311.03</v>
+        <v>324.06</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2141,13 +2169,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>374.01</v>
+        <v>367.66</v>
       </c>
       <c r="C83" t="n">
-        <v>318.49</v>
+        <v>323.04</v>
       </c>
       <c r="D83" t="n">
-        <v>326.74</v>
+        <v>324.6</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2161,12 +2189,14 @@
           <t>2011-08-20 21:59:02+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>370.02</v>
+      </c>
       <c r="C84" t="n">
-        <v>313.34</v>
+        <v>315.69</v>
       </c>
       <c r="D84" t="n">
-        <v>315.7</v>
+        <v>317.82</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2181,12 +2211,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>337.5</v>
+        <v>355.75</v>
       </c>
       <c r="C85" t="n">
-        <v>304.57</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>312.13</v>
+      </c>
+      <c r="D85" t="n">
+        <v>321.22</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>L5</t>
@@ -2200,13 +2232,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>365.64</v>
+        <v>359.05</v>
       </c>
       <c r="C86" t="n">
-        <v>313.75</v>
+        <v>312.54</v>
       </c>
       <c r="D86" t="n">
-        <v>311.96</v>
+        <v>318.13</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2221,13 +2253,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>347.47</v>
+        <v>350.2</v>
       </c>
       <c r="C87" t="n">
-        <v>306.46</v>
+        <v>309.53</v>
       </c>
       <c r="D87" t="n">
-        <v>311.8</v>
+        <v>313.15</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2242,13 +2274,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>364.21</v>
+        <v>353.7</v>
       </c>
       <c r="C88" t="n">
-        <v>319.27</v>
+        <v>311.48</v>
       </c>
       <c r="D88" t="n">
-        <v>326.4</v>
+        <v>316.47</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2263,13 +2295,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>353.12</v>
+        <v>354.93</v>
       </c>
       <c r="C89" t="n">
-        <v>332.02</v>
+        <v>319.25</v>
       </c>
       <c r="D89" t="n">
-        <v>344.84</v>
+        <v>327.68</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2284,12 +2316,14 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>354.71</v>
+        <v>353.91</v>
       </c>
       <c r="C90" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>333.36</v>
+      </c>
+      <c r="D90" t="n">
+        <v>344.84</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2303,10 +2337,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>373.52</v>
+        <v>364.12</v>
       </c>
       <c r="C91" t="n">
-        <v>330.52</v>
+        <v>332.61</v>
       </c>
       <c r="D91" t="n">
         <v>332.04</v>
@@ -2324,13 +2358,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>355.55</v>
+        <v>361.26</v>
       </c>
       <c r="C92" t="n">
-        <v>316.45</v>
+        <v>327.22</v>
       </c>
       <c r="D92" t="n">
-        <v>320.75</v>
+        <v>326.39</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2345,13 +2379,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>370.42</v>
+        <v>363.55</v>
       </c>
       <c r="C93" t="n">
-        <v>331.55</v>
+        <v>328.31</v>
       </c>
       <c r="D93" t="n">
-        <v>333.76</v>
+        <v>328.85</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2366,13 +2400,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>372.52</v>
+        <v>371.47</v>
       </c>
       <c r="C94" t="n">
-        <v>323.91</v>
+        <v>327.73</v>
       </c>
       <c r="D94" t="n">
-        <v>317.66</v>
+        <v>325.71</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2387,13 +2421,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>358.55</v>
+        <v>365.53</v>
       </c>
       <c r="C95" t="n">
-        <v>320.47</v>
+        <v>322.19</v>
       </c>
       <c r="D95" t="n">
-        <v>314.34</v>
+        <v>316</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2408,13 +2442,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>347.73</v>
+        <v>359.6</v>
       </c>
       <c r="C96" t="n">
-        <v>307.63</v>
+        <v>317.34</v>
       </c>
       <c r="D96" t="n">
-        <v>312.68</v>
+        <v>314.89</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2429,10 +2463,14 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>364.38</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+        <v>360.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>317.34</v>
+      </c>
+      <c r="D97" t="n">
+        <v>314.89</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2446,13 +2484,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>360.97</v>
+        <v>360.83</v>
       </c>
       <c r="C98" t="n">
-        <v>316.92</v>
+        <v>317.23</v>
       </c>
       <c r="D98" t="n">
-        <v>320.44</v>
+        <v>316.28</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2467,13 +2505,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>353.96</v>
+        <v>357.12</v>
       </c>
       <c r="C99" t="n">
-        <v>313.15</v>
+        <v>314.54</v>
       </c>
       <c r="D99" t="n">
-        <v>319.58</v>
+        <v>316.76</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2488,13 +2526,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>373.88</v>
+        <v>359.91</v>
       </c>
       <c r="C100" t="n">
-        <v>336.02</v>
+        <v>318.84</v>
       </c>
       <c r="D100" t="n">
-        <v>339.8</v>
+        <v>321.37</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2509,13 +2547,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>373.91</v>
+        <v>361.91</v>
       </c>
       <c r="C101" t="n">
-        <v>330.71</v>
+        <v>320.82</v>
       </c>
       <c r="D101" t="n">
-        <v>336.23</v>
+        <v>323.84</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2530,13 +2568,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>358.74</v>
+        <v>361.51</v>
       </c>
       <c r="C102" t="n">
-        <v>318.2</v>
+        <v>320.44</v>
       </c>
       <c r="D102" t="n">
-        <v>321.33</v>
+        <v>323.49</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2551,13 +2589,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>334.86</v>
+        <v>358.55</v>
       </c>
       <c r="C103" t="n">
-        <v>306.06</v>
+        <v>318.64</v>
       </c>
       <c r="D103" t="n">
-        <v>312.16</v>
+        <v>322.07</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2572,13 +2610,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>345.23</v>
+        <v>357.07</v>
       </c>
       <c r="C104" t="n">
-        <v>311.31</v>
+        <v>317.5</v>
       </c>
       <c r="D104" t="n">
-        <v>317.98</v>
+        <v>322.53</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2593,13 +2631,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>361.04</v>
+        <v>358.55</v>
       </c>
       <c r="C105" t="n">
-        <v>313.44</v>
+        <v>318.23</v>
       </c>
       <c r="D105" t="n">
-        <v>319.33</v>
+        <v>323.36</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2614,13 +2652,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>352.96</v>
+        <v>357.99</v>
       </c>
       <c r="C106" t="n">
-        <v>318.6</v>
+        <v>318.27</v>
       </c>
       <c r="D106" t="n">
-        <v>331.98</v>
+        <v>324.31</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2635,13 +2673,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>343.04</v>
+        <v>355.29</v>
       </c>
       <c r="C107" t="n">
-        <v>308.69</v>
+        <v>317.35</v>
       </c>
       <c r="D107" t="n">
-        <v>316.57</v>
+        <v>323.88</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2655,12 +2693,14 @@
           <t>2014-08-20 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>352.83</v>
+      </c>
       <c r="C108" t="n">
-        <v>293.57</v>
+        <v>312.57</v>
       </c>
       <c r="D108" t="n">
-        <v>292.2</v>
+        <v>318.47</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2675,13 +2715,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>369.59</v>
+        <v>354.37</v>
       </c>
       <c r="C109" t="n">
-        <v>302.98</v>
+        <v>308.1</v>
       </c>
       <c r="D109" t="n">
-        <v>305.37</v>
+        <v>313.91</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2696,13 +2736,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>345.48</v>
+        <v>352.77</v>
       </c>
       <c r="C110" t="n">
-        <v>313.81</v>
+        <v>307.53</v>
       </c>
       <c r="D110" t="n">
-        <v>316.39</v>
+        <v>312.5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2717,13 +2757,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>351.07</v>
+        <v>352.3</v>
       </c>
       <c r="C111" t="n">
-        <v>313.72</v>
+        <v>306.55</v>
       </c>
       <c r="D111" t="n">
-        <v>311.82</v>
+        <v>308.47</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2738,13 +2778,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>375.57</v>
+        <v>356.95</v>
       </c>
       <c r="C112" t="n">
-        <v>306.67</v>
+        <v>306.57</v>
       </c>
       <c r="D112" t="n">
-        <v>310.8</v>
+        <v>308.86</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2758,12 +2798,14 @@
           <t>2015-01-19 22:04:10+00:00</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>356.95</v>
+      </c>
       <c r="C113" t="n">
-        <v>306.22</v>
+        <v>306.52</v>
       </c>
       <c r="D113" t="n">
-        <v>314.25</v>
+        <v>309.63</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2778,13 +2820,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>368.49</v>
+        <v>362.04</v>
       </c>
       <c r="C114" t="n">
-        <v>320.74</v>
+        <v>310.69</v>
       </c>
       <c r="D114" t="n">
-        <v>330.1</v>
+        <v>314.79</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2798,12 +2840,14 @@
           <t>2015-03-16 22:05:13+00:00</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>362.04</v>
+      </c>
       <c r="C115" t="n">
-        <v>293.34</v>
+        <v>308.21</v>
       </c>
       <c r="D115" t="n">
-        <v>294.44</v>
+        <v>311.88</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2818,13 +2862,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>349.61</v>
+        <v>359.97</v>
       </c>
       <c r="C116" t="n">
-        <v>304.65</v>
+        <v>307.77</v>
       </c>
       <c r="D116" t="n">
-        <v>310.99</v>
+        <v>311.77</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2838,12 +2882,14 @@
           <t>2015-04-25 22:04:54+00:00</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>358.04</v>
+      </c>
       <c r="C117" t="n">
-        <v>303.72</v>
+        <v>307.86</v>
       </c>
       <c r="D117" t="n">
-        <v>313.94</v>
+        <v>312.84</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2858,10 +2904,14 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>342.86</v>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+        <v>359.13</v>
+      </c>
+      <c r="C118" t="n">
+        <v>305.89</v>
+      </c>
+      <c r="D118" t="n">
+        <v>312.42</v>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2875,13 +2925,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>353.02</v>
+        <v>357.91</v>
       </c>
       <c r="C119" t="n">
-        <v>313.24</v>
+        <v>306.94</v>
       </c>
       <c r="D119" t="n">
-        <v>315.94</v>
+        <v>312.92</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2896,13 +2946,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>347.03</v>
+        <v>352.2</v>
       </c>
       <c r="C120" t="n">
-        <v>317.84</v>
+        <v>308.92</v>
       </c>
       <c r="D120" t="n">
-        <v>322.09</v>
+        <v>314.58</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2917,13 +2967,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>326.91</v>
+        <v>347.99</v>
       </c>
       <c r="C121" t="n">
-        <v>308.73</v>
+        <v>308.89</v>
       </c>
       <c r="D121" t="n">
-        <v>309.43</v>
+        <v>313.85</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2938,13 +2988,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>377.03</v>
+        <v>352.14</v>
       </c>
       <c r="C122" t="n">
-        <v>320.74</v>
+        <v>310.38</v>
       </c>
       <c r="D122" t="n">
-        <v>325.08</v>
+        <v>315.25</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2959,13 +3009,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>358.84</v>
+        <v>350.76</v>
       </c>
       <c r="C123" t="n">
-        <v>322.51</v>
+        <v>313.06</v>
       </c>
       <c r="D123" t="n">
-        <v>329.76</v>
+        <v>318.18</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2980,13 +3030,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>356.78</v>
+        <v>353.27</v>
       </c>
       <c r="C124" t="n">
-        <v>340.84</v>
+        <v>320.65</v>
       </c>
       <c r="D124" t="n">
-        <v>331.77</v>
+        <v>322.34</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3001,13 +3051,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>325.16</v>
+        <v>348.94</v>
       </c>
       <c r="C125" t="n">
-        <v>303.64</v>
+        <v>319.29</v>
       </c>
       <c r="D125" t="n">
-        <v>305.38</v>
+        <v>320.28</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3022,13 +3072,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>346.15</v>
+        <v>346.73</v>
       </c>
       <c r="C126" t="n">
-        <v>313.06</v>
+        <v>320.01</v>
       </c>
       <c r="D126" t="n">
-        <v>311.62</v>
+        <v>319.63</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3043,13 +3093,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>365.07</v>
+        <v>348.29</v>
       </c>
       <c r="C127" t="n">
-        <v>322.02</v>
+        <v>319.89</v>
       </c>
       <c r="D127" t="n">
-        <v>326.42</v>
+        <v>318.8</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3064,13 +3114,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>355.8</v>
+        <v>349.79</v>
       </c>
       <c r="C128" t="n">
-        <v>313.23</v>
+        <v>318.56</v>
       </c>
       <c r="D128" t="n">
-        <v>321.51</v>
+        <v>319.34</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3084,12 +3134,14 @@
           <t>2016-04-27 22:07:59+00:00</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>349.79</v>
+      </c>
       <c r="C129" t="n">
-        <v>327.36</v>
+        <v>320.02</v>
       </c>
       <c r="D129" t="n">
-        <v>323.29</v>
+        <v>320</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3104,12 +3156,14 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>347.23</v>
+        <v>349.37</v>
       </c>
       <c r="C130" t="n">
-        <v>328.18</v>
-      </c>
-      <c r="D130" t="inlineStr"/>
+        <v>321.19</v>
+      </c>
+      <c r="D130" t="n">
+        <v>320</v>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3123,13 +3177,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>347.01</v>
+        <v>349.03</v>
       </c>
       <c r="C131" t="n">
-        <v>328.06</v>
+        <v>322.05</v>
       </c>
       <c r="D131" t="n">
-        <v>330.88</v>
+        <v>321.55</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3144,13 +3198,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>336.06</v>
+        <v>346.07</v>
       </c>
       <c r="C132" t="n">
-        <v>304.74</v>
+        <v>317.54</v>
       </c>
       <c r="D132" t="n">
-        <v>302.95</v>
+        <v>317.44</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3165,13 +3219,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>336.38</v>
+        <v>344.86</v>
       </c>
       <c r="C133" t="n">
-        <v>329.73</v>
+        <v>318.89</v>
       </c>
       <c r="D133" t="n">
-        <v>326.18</v>
+        <v>318.53</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3186,10 +3240,14 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>358</v>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+        <v>348.96</v>
+      </c>
+      <c r="C134" t="n">
+        <v>320.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>320.41</v>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3202,10 +3260,14 @@
           <t>2016-09-10 22:05:51+00:00</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>349.36</v>
+      </c>
+      <c r="C135" t="n">
+        <v>321.9</v>
+      </c>
       <c r="D135" t="n">
-        <v>329.13</v>
+        <v>322.91</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3219,12 +3281,14 @@
           <t>2016-09-18 22:08:21+00:00</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>349.36</v>
+      </c>
       <c r="C136" t="n">
-        <v>338.23</v>
+        <v>323.94</v>
       </c>
       <c r="D136" t="n">
-        <v>323.15</v>
+        <v>322.94</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3239,13 +3303,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>364.5</v>
+        <v>351.26</v>
       </c>
       <c r="C137" t="n">
-        <v>319.54</v>
+        <v>323.45</v>
       </c>
       <c r="D137" t="n">
-        <v>328.55</v>
+        <v>323.56</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3260,13 +3324,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>379.98</v>
+        <v>352.74</v>
       </c>
       <c r="C138" t="n">
-        <v>337.41</v>
+        <v>326.66</v>
       </c>
       <c r="D138" t="n">
-        <v>337.05</v>
+        <v>325.15</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3281,13 +3345,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>383.82</v>
+        <v>356.62</v>
       </c>
       <c r="C139" t="n">
-        <v>343.02</v>
+        <v>328.61</v>
       </c>
       <c r="D139" t="n">
-        <v>349.51</v>
+        <v>328.43</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3302,13 +3366,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>380.51</v>
+        <v>362.75</v>
       </c>
       <c r="C140" t="n">
-        <v>338.24</v>
+        <v>330.13</v>
       </c>
       <c r="D140" t="n">
-        <v>346.51</v>
+        <v>330.38</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3323,13 +3387,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>391.05</v>
+        <v>376.31</v>
       </c>
       <c r="C141" t="n">
-        <v>348.44</v>
+        <v>337.48</v>
       </c>
       <c r="D141" t="n">
-        <v>349.86</v>
+        <v>337.68</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3344,13 +3408,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>401.62</v>
+        <v>379.93</v>
       </c>
       <c r="C142" t="n">
-        <v>354.35</v>
+        <v>339.89</v>
       </c>
       <c r="D142" t="n">
-        <v>363.08</v>
+        <v>340.86</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3365,13 +3429,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>377.96</v>
+        <v>382.78</v>
       </c>
       <c r="C143" t="n">
-        <v>344.1</v>
+        <v>340.42</v>
       </c>
       <c r="D143" t="n">
-        <v>351.31</v>
+        <v>342.02</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3386,13 +3450,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>385.16</v>
+        <v>383.07</v>
       </c>
       <c r="C144" t="n">
-        <v>348.4</v>
+        <v>341.3</v>
       </c>
       <c r="D144" t="n">
-        <v>350.29</v>
+        <v>342.84</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3407,13 +3471,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>371.51</v>
+        <v>383.95</v>
       </c>
       <c r="C145" t="n">
-        <v>336.74</v>
+        <v>343.84</v>
       </c>
       <c r="D145" t="n">
-        <v>333.66</v>
+        <v>347.66</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3428,13 +3492,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>349.32</v>
+        <v>379.44</v>
       </c>
       <c r="C146" t="n">
-        <v>326.17</v>
+        <v>343.03</v>
       </c>
       <c r="D146" t="n">
-        <v>327.36</v>
+        <v>345.93</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3449,13 +3513,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>341.51</v>
+        <v>354.11</v>
       </c>
       <c r="C147" t="n">
-        <v>315.94</v>
+        <v>326.28</v>
       </c>
       <c r="D147" t="n">
-        <v>312.71</v>
+        <v>324.58</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3470,13 +3534,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>349.32</v>
+        <v>345.41</v>
       </c>
       <c r="C148" t="n">
-        <v>322.02</v>
+        <v>318.98</v>
       </c>
       <c r="D148" t="n">
-        <v>321.11</v>
+        <v>316.91</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3491,13 +3555,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>352.14</v>
+        <v>347.66</v>
       </c>
       <c r="C149" t="n">
-        <v>324.41</v>
+        <v>320.79</v>
       </c>
       <c r="D149" t="n">
-        <v>331.64</v>
+        <v>321.82</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3512,13 +3576,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>366.15</v>
+        <v>352.28</v>
       </c>
       <c r="C150" t="n">
-        <v>340.57</v>
+        <v>325.74</v>
       </c>
       <c r="D150" t="n">
-        <v>340.79</v>
+        <v>326.56</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3533,13 +3597,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>352.9</v>
+        <v>355.13</v>
       </c>
       <c r="C151" t="n">
-        <v>317.4</v>
+        <v>326.1</v>
       </c>
       <c r="D151" t="n">
-        <v>324.39</v>
+        <v>329.48</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3554,13 +3618,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>376.93</v>
+        <v>359.49</v>
       </c>
       <c r="C152" t="n">
-        <v>325.88</v>
+        <v>326.06</v>
       </c>
       <c r="D152" t="n">
-        <v>323.78</v>
+        <v>328.34</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3575,13 +3639,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>371.96</v>
+        <v>367.26</v>
       </c>
       <c r="C153" t="n">
-        <v>347.34</v>
+        <v>330.21</v>
       </c>
       <c r="D153" t="n">
-        <v>334.05</v>
+        <v>327.41</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3595,12 +3659,14 @@
           <t>2018-08-15 22:05:04+00:00</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>367.26</v>
+      </c>
       <c r="C154" t="n">
-        <v>308.45</v>
+        <v>324.77</v>
       </c>
       <c r="D154" t="n">
-        <v>313.66</v>
+        <v>323.97</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3615,13 +3681,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>384.71</v>
+        <v>377.87</v>
       </c>
       <c r="C155" t="n">
-        <v>323.19</v>
+        <v>326.22</v>
       </c>
       <c r="D155" t="n">
-        <v>326.1</v>
+        <v>324.4</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3636,13 +3702,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>361.22</v>
+        <v>372.63</v>
       </c>
       <c r="C156" t="n">
-        <v>329.66</v>
+        <v>327.16</v>
       </c>
       <c r="D156" t="n">
-        <v>320.72</v>
+        <v>323.63</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3657,13 +3723,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>368.56</v>
+        <v>371.61</v>
       </c>
       <c r="C157" t="n">
-        <v>346.72</v>
+        <v>331.07</v>
       </c>
       <c r="D157" t="n">
-        <v>330.82</v>
+        <v>325.07</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3678,13 +3744,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>371.76</v>
+        <v>371.64</v>
       </c>
       <c r="C158" t="n">
-        <v>335.59</v>
+        <v>331.82</v>
       </c>
       <c r="D158" t="n">
-        <v>340.8</v>
+        <v>327.69</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3699,13 +3765,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>387.14</v>
+        <v>379.45</v>
       </c>
       <c r="C159" t="n">
-        <v>345.5</v>
+        <v>340.54</v>
       </c>
       <c r="D159" t="n">
-        <v>353.57</v>
+        <v>347.19</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3720,13 +3786,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>384.86</v>
+        <v>381.25</v>
       </c>
       <c r="C160" t="n">
-        <v>351.9</v>
+        <v>344.33</v>
       </c>
       <c r="D160" t="n">
-        <v>345.54</v>
+        <v>346.64</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3741,13 +3807,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>367.74</v>
+        <v>379.91</v>
       </c>
       <c r="C161" t="n">
-        <v>334.59</v>
+        <v>344</v>
       </c>
       <c r="D161" t="n">
-        <v>339.85</v>
+        <v>346.32</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3762,13 +3828,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>362.69</v>
+        <v>371.76</v>
       </c>
       <c r="C162" t="n">
-        <v>342</v>
+        <v>342.83</v>
       </c>
       <c r="D162" t="n">
-        <v>334.95</v>
+        <v>340.11</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3783,13 +3849,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>367.21</v>
+        <v>365.88</v>
       </c>
       <c r="C163" t="n">
-        <v>337.24</v>
+        <v>337.94</v>
       </c>
       <c r="D163" t="n">
-        <v>336.05</v>
+        <v>336.95</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3804,13 +3870,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>394.19</v>
+        <v>372.96</v>
       </c>
       <c r="C164" t="n">
-        <v>356.95</v>
+        <v>342.69</v>
       </c>
       <c r="D164" t="n">
-        <v>355.9</v>
+        <v>341.69</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3825,13 +3891,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>394.65</v>
+        <v>379.69</v>
       </c>
       <c r="C165" t="n">
-        <v>353.38</v>
+        <v>347.39</v>
       </c>
       <c r="D165" t="n">
-        <v>356.79</v>
+        <v>345.92</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3846,13 +3912,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>385.65</v>
+        <v>380.88</v>
       </c>
       <c r="C166" t="n">
-        <v>362.23</v>
+        <v>350.36</v>
       </c>
       <c r="D166" t="n">
-        <v>358.57</v>
+        <v>348.45</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3867,13 +3933,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>392.36</v>
+        <v>382.79</v>
       </c>
       <c r="C167" t="n">
-        <v>352.01</v>
+        <v>350.63</v>
       </c>
       <c r="D167" t="n">
-        <v>357.18</v>
+        <v>349.91</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3888,10 +3954,14 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>374.02</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+        <v>381.54</v>
+      </c>
+      <c r="C168" t="n">
+        <v>350.63</v>
+      </c>
+      <c r="D168" t="n">
+        <v>349.91</v>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3905,13 +3975,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>370.03</v>
+        <v>380.1</v>
       </c>
       <c r="C169" t="n">
-        <v>342.15</v>
+        <v>349.42</v>
       </c>
       <c r="D169" t="n">
-        <v>338.92</v>
+        <v>348.34</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3926,13 +3996,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>389.97</v>
+        <v>381.2</v>
       </c>
       <c r="C170" t="n">
-        <v>356.71</v>
+        <v>350.33</v>
       </c>
       <c r="D170" t="n">
-        <v>350.78</v>
+        <v>348.64</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3947,13 +4017,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>402.16</v>
+        <v>383.29</v>
       </c>
       <c r="C171" t="n">
-        <v>365.22</v>
+        <v>351.99</v>
       </c>
       <c r="D171" t="n">
-        <v>358.68</v>
+        <v>349.76</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3968,13 +4038,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>380.06</v>
+        <v>385.03</v>
       </c>
       <c r="C172" t="n">
-        <v>330.03</v>
+        <v>350.66</v>
       </c>
       <c r="D172" t="n">
-        <v>341.08</v>
+        <v>350.44</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3989,10 +4059,14 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>359.56</v>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+        <v>384.26</v>
+      </c>
+      <c r="C173" t="n">
+        <v>352.34</v>
+      </c>
+      <c r="D173" t="n">
+        <v>352.24</v>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4006,13 +4080,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>341.12</v>
+        <v>373.85</v>
       </c>
       <c r="C174" t="n">
-        <v>309.78</v>
+        <v>340.78</v>
       </c>
       <c r="D174" t="n">
-        <v>302.71</v>
+        <v>338.43</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4027,13 +4101,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>359.14</v>
+        <v>372.01</v>
       </c>
       <c r="C175" t="n">
-        <v>346.09</v>
+        <v>341.66</v>
       </c>
       <c r="D175" t="n">
-        <v>316.25</v>
+        <v>334.74</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4048,13 +4122,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>372.31</v>
+        <v>371.79</v>
       </c>
       <c r="C176" t="n">
-        <v>327.65</v>
+        <v>339.66</v>
       </c>
       <c r="D176" t="n">
-        <v>324.05</v>
+        <v>333.21</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4068,12 +4142,14 @@
           <t>2020-09-29 21:30:35+00:00</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>371.79</v>
+      </c>
       <c r="C177" t="n">
-        <v>323.28</v>
+        <v>337.61</v>
       </c>
       <c r="D177" t="n">
-        <v>323.35</v>
+        <v>331.98</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4088,13 +4164,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>358.69</v>
+        <v>361.81</v>
       </c>
       <c r="C178" t="n">
-        <v>321.85</v>
+        <v>326.45</v>
       </c>
       <c r="D178" t="n">
-        <v>317.85</v>
+        <v>320.88</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4109,13 +4185,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>367.36</v>
+        <v>359.72</v>
       </c>
       <c r="C179" t="n">
-        <v>329.02</v>
+        <v>326.28</v>
       </c>
       <c r="D179" t="n">
-        <v>327.4</v>
+        <v>318.6</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4129,12 +4205,14 @@
           <t>2021-01-03 21:23:55+00:00</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>359.72</v>
+      </c>
       <c r="C180" t="n">
-        <v>349.08</v>
+        <v>329.54</v>
       </c>
       <c r="D180" t="n">
-        <v>351.55</v>
+        <v>323.31</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4149,13 +4227,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>360.04</v>
+        <v>359.78</v>
       </c>
       <c r="C181" t="n">
-        <v>327.3</v>
+        <v>329.26</v>
       </c>
       <c r="D181" t="n">
-        <v>323.71</v>
+        <v>323.36</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4170,13 +4248,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>377.05</v>
+        <v>362.24</v>
       </c>
       <c r="C182" t="n">
-        <v>335.6</v>
+        <v>329.96</v>
       </c>
       <c r="D182" t="n">
-        <v>338.7</v>
+        <v>325.06</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4191,13 +4269,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>384.7</v>
+        <v>368.47</v>
       </c>
       <c r="C183" t="n">
-        <v>335.97</v>
+        <v>332.87</v>
       </c>
       <c r="D183" t="n">
-        <v>339.34</v>
+        <v>329.13</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4212,13 +4290,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>360.34</v>
+        <v>368.03</v>
       </c>
       <c r="C184" t="n">
-        <v>326.99</v>
+        <v>331.14</v>
       </c>
       <c r="D184" t="n">
-        <v>334.54</v>
+        <v>332.06</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4233,13 +4311,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>373.95</v>
+        <v>368.88</v>
       </c>
       <c r="C185" t="n">
-        <v>329.47</v>
+        <v>331.91</v>
       </c>
       <c r="D185" t="n">
-        <v>329.36</v>
+        <v>332.81</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4254,13 +4332,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>385.35</v>
+        <v>370.94</v>
       </c>
       <c r="C186" t="n">
-        <v>346.65</v>
+        <v>333.55</v>
       </c>
       <c r="D186" t="n">
-        <v>346.04</v>
+        <v>334.28</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4275,13 +4353,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>385.35</v>
+        <v>372.54</v>
       </c>
       <c r="C187" t="n">
-        <v>350.71</v>
+        <v>335.26</v>
       </c>
       <c r="D187" t="n">
-        <v>346.81</v>
+        <v>335.53</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4296,13 +4374,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>348.67</v>
+        <v>373.63</v>
       </c>
       <c r="C188" t="n">
-        <v>324.49</v>
+        <v>335.7</v>
       </c>
       <c r="D188" t="n">
-        <v>312.67</v>
+        <v>335.35</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4317,13 +4395,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>348.67</v>
+        <v>367.06</v>
       </c>
       <c r="C189" t="n">
-        <v>289.78</v>
+        <v>328.01</v>
       </c>
       <c r="D189" t="n">
-        <v>286.27</v>
+        <v>325.95</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4338,13 +4416,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>358.84</v>
+        <v>366.81</v>
       </c>
       <c r="C190" t="n">
-        <v>314.13</v>
+        <v>325.87</v>
       </c>
       <c r="D190" t="n">
-        <v>313.73</v>
+        <v>322.48</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4359,13 +4437,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>325.81</v>
+        <v>345.5</v>
       </c>
       <c r="C191" t="n">
-        <v>301.63</v>
+        <v>307.51</v>
       </c>
       <c r="D191" t="n">
-        <v>296.16</v>
+        <v>302.21</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4380,13 +4458,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>361.71</v>
+        <v>348.74</v>
       </c>
       <c r="C192" t="n">
-        <v>327.13</v>
+        <v>311.43</v>
       </c>
       <c r="D192" t="n">
-        <v>322.7</v>
+        <v>306.31</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4401,10 +4479,14 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>353.76</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+        <v>349.76</v>
+      </c>
+      <c r="C193" t="n">
+        <v>308.17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>304.71</v>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4418,13 +4500,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>352.08</v>
+        <v>350.14</v>
       </c>
       <c r="C194" t="n">
-        <v>325.85</v>
+        <v>311.7</v>
       </c>
       <c r="D194" t="n">
-        <v>328.04</v>
+        <v>309.38</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4439,13 +4521,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>365.09</v>
+        <v>352.28</v>
       </c>
       <c r="C195" t="n">
-        <v>323.19</v>
+        <v>313.62</v>
       </c>
       <c r="D195" t="n">
-        <v>326.24</v>
+        <v>312.19</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4460,10 +4542,14 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>351.27</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+        <v>351.62</v>
+      </c>
+      <c r="C196" t="n">
+        <v>319.45</v>
+      </c>
+      <c r="D196" t="n">
+        <v>318.28</v>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4477,13 +4563,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>363.32</v>
+        <v>353.29</v>
       </c>
       <c r="C197" t="n">
-        <v>317.32</v>
+        <v>319.02</v>
       </c>
       <c r="D197" t="n">
-        <v>323.8</v>
+        <v>319.39</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4498,13 +4584,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>353.01</v>
+        <v>353.26</v>
       </c>
       <c r="C198" t="n">
-        <v>313.34</v>
+        <v>318.08</v>
       </c>
       <c r="D198" t="n">
-        <v>317.73</v>
+        <v>319.11</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4519,13 +4605,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>328.56</v>
+        <v>353.6</v>
       </c>
       <c r="C199" t="n">
-        <v>301.75</v>
+        <v>318.1</v>
       </c>
       <c r="D199" t="n">
-        <v>305.32</v>
+        <v>320.64</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4540,13 +4626,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>369.1</v>
+        <v>355.32</v>
       </c>
       <c r="C200" t="n">
-        <v>325.65</v>
+        <v>319.18</v>
       </c>
       <c r="D200" t="n">
-        <v>337.61</v>
+        <v>323.06</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4561,13 +4647,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>356.23</v>
+        <v>355.41</v>
       </c>
       <c r="C201" t="n">
-        <v>316.74</v>
+        <v>318.87</v>
       </c>
       <c r="D201" t="n">
-        <v>319.76</v>
+        <v>322.65</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4582,12 +4668,14 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>361.71</v>
+        <v>355.99</v>
       </c>
       <c r="C202" t="n">
-        <v>322.34</v>
-      </c>
-      <c r="D202" t="inlineStr"/>
+        <v>319.26</v>
+      </c>
+      <c r="D202" t="n">
+        <v>322.65</v>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4601,13 +4689,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>348.68</v>
+        <v>354.8</v>
       </c>
       <c r="C203" t="n">
-        <v>318.76</v>
+        <v>318.33</v>
       </c>
       <c r="D203" t="n">
-        <v>320.82</v>
+        <v>322.41</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4622,13 +4710,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>345.8</v>
+        <v>354.08</v>
       </c>
       <c r="C204" t="n">
-        <v>317.65</v>
+        <v>318.26</v>
       </c>
       <c r="D204" t="n">
-        <v>323.73</v>
+        <v>322.56</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4643,12 +4731,14 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>329.72</v>
+        <v>349.1</v>
       </c>
       <c r="C205" t="n">
-        <v>299.7</v>
-      </c>
-      <c r="D205" t="inlineStr"/>
+        <v>314.49</v>
+      </c>
+      <c r="D205" t="n">
+        <v>320.83</v>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4662,12 +4752,14 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>361.23</v>
+        <v>350.13</v>
       </c>
       <c r="C206" t="n">
-        <v>321.73</v>
-      </c>
-      <c r="D206" t="inlineStr"/>
+        <v>315.54</v>
+      </c>
+      <c r="D206" t="n">
+        <v>321.45</v>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4681,13 +4773,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>335.97</v>
+        <v>348.56</v>
       </c>
       <c r="C207" t="n">
-        <v>301.83</v>
+        <v>314.02</v>
       </c>
       <c r="D207" t="n">
-        <v>297.77</v>
+        <v>317.5</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4702,13 +4794,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>355.15</v>
+        <v>345.57</v>
       </c>
       <c r="C208" t="n">
-        <v>307.15</v>
+        <v>309.61</v>
       </c>
       <c r="D208" t="n">
-        <v>315.36</v>
+        <v>312.29</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4723,13 +4815,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>338.53</v>
+        <v>344.12</v>
       </c>
       <c r="C209" t="n">
-        <v>306.63</v>
+        <v>307.41</v>
       </c>
       <c r="D209" t="n">
-        <v>301.14</v>
+        <v>304.76</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4744,12 +4836,14 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>326</v>
+        <v>341.1</v>
       </c>
       <c r="C210" t="n">
-        <v>301.83</v>
-      </c>
-      <c r="D210" t="inlineStr"/>
+        <v>306.48</v>
+      </c>
+      <c r="D210" t="n">
+        <v>304.76</v>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4762,11 +4856,15 @@
           <t>2023-03-13 20:10:29+00:00</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
+      <c r="B211" t="n">
+        <v>341.1</v>
+      </c>
       <c r="C211" t="n">
-        <v>315.62</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
+        <v>307.78</v>
+      </c>
+      <c r="D211" t="n">
+        <v>304.76</v>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4780,12 +4878,14 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>361.8</v>
+        <v>344.06</v>
       </c>
       <c r="C212" t="n">
-        <v>299.42</v>
-      </c>
-      <c r="D212" t="inlineStr"/>
+        <v>306.74</v>
+      </c>
+      <c r="D212" t="n">
+        <v>304.76</v>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4799,13 +4899,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>366.18</v>
+        <v>349.27</v>
       </c>
       <c r="C213" t="n">
-        <v>328.41</v>
+        <v>310.33</v>
       </c>
       <c r="D213" t="n">
-        <v>329.13</v>
+        <v>310.85</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4820,13 +4920,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>346.97</v>
+        <v>348.98</v>
       </c>
       <c r="C214" t="n">
-        <v>308.28</v>
+        <v>310.1</v>
       </c>
       <c r="D214" t="n">
-        <v>311.74</v>
+        <v>311.03</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4841,10 +4941,14 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+        <v>350.7</v>
+      </c>
+      <c r="C215" t="n">
+        <v>309.62</v>
+      </c>
+      <c r="D215" t="n">
+        <v>314.34</v>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4858,13 +4962,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>330.89</v>
+        <v>348.23</v>
       </c>
       <c r="C216" t="n">
-        <v>305.62</v>
+        <v>309.12</v>
       </c>
       <c r="D216" t="n">
-        <v>312.59</v>
+        <v>313.99</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4879,13 +4983,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>331.49</v>
+        <v>346.37</v>
       </c>
       <c r="C217" t="n">
-        <v>310.7</v>
+        <v>309.3</v>
       </c>
       <c r="D217" t="n">
-        <v>314.62</v>
+        <v>314.1</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4900,13 +5004,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>332.16</v>
+        <v>344.95</v>
       </c>
       <c r="C218" t="n">
-        <v>311.36</v>
+        <v>309.5</v>
       </c>
       <c r="D218" t="n">
-        <v>313.2</v>
+        <v>313.97</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4921,13 +5025,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>364.03</v>
+        <v>345.83</v>
       </c>
       <c r="C219" t="n">
-        <v>319.29</v>
+        <v>310.72</v>
       </c>
       <c r="D219" t="n">
-        <v>326.42</v>
+        <v>315.55</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4941,11 +5045,15 @@
           <t>2023-08-14 19:50:28+00:00</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="n">
+        <v>345.83</v>
+      </c>
       <c r="C220" t="n">
-        <v>325.06</v>
-      </c>
-      <c r="D220" t="inlineStr"/>
+        <v>312.02</v>
+      </c>
+      <c r="D220" t="n">
+        <v>315.55</v>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4959,13 +5067,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>354.92</v>
+        <v>347.47</v>
       </c>
       <c r="C221" t="n">
-        <v>323.21</v>
+        <v>313.53</v>
       </c>
       <c r="D221" t="n">
-        <v>326.25</v>
+        <v>319.14</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4980,13 +5088,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>351.79</v>
+        <v>350.05</v>
       </c>
       <c r="C222" t="n">
-        <v>313.56</v>
+        <v>314.59</v>
       </c>
       <c r="D222" t="n">
-        <v>305.81</v>
+        <v>317.47</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5001,13 +5109,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>346.42</v>
+        <v>346.55</v>
       </c>
       <c r="C223" t="n">
-        <v>309.98</v>
+        <v>314.12</v>
       </c>
       <c r="D223" t="n">
-        <v>316.44</v>
+        <v>315.88</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5022,13 +5130,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>338.57</v>
+        <v>345.63</v>
       </c>
       <c r="C224" t="n">
-        <v>302.41</v>
+        <v>314.45</v>
       </c>
       <c r="D224" t="n">
-        <v>297.68</v>
+        <v>314.35</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5042,12 +5150,14 @@
           <t>2023-12-11 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="n">
+        <v>347.98</v>
+      </c>
       <c r="C225" t="n">
-        <v>305.08</v>
+        <v>313.74</v>
       </c>
       <c r="D225" t="n">
-        <v>303.76</v>
+        <v>312.79</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5062,13 +5172,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>353.82</v>
+        <v>351.59</v>
       </c>
       <c r="C226" t="n">
-        <v>320.18</v>
+        <v>314.85</v>
       </c>
       <c r="D226" t="n">
-        <v>322.71</v>
+        <v>314.15</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5083,12 +5193,14 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>364.95</v>
+        <v>353.5</v>
       </c>
       <c r="C227" t="n">
-        <v>322.22</v>
-      </c>
-      <c r="D227" t="inlineStr"/>
+        <v>315.67</v>
+      </c>
+      <c r="D227" t="n">
+        <v>314.15</v>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>L7</t>
@@ -5102,13 +5214,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>361.39</v>
+        <v>354.49</v>
       </c>
       <c r="C228" t="n">
-        <v>323.37</v>
+        <v>316.44</v>
       </c>
       <c r="D228" t="n">
-        <v>328.65</v>
+        <v>315.96</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5123,12 +5235,14 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>375.46</v>
+        <v>356.82</v>
       </c>
       <c r="C229" t="n">
-        <v>333.05</v>
-      </c>
-      <c r="D229" t="inlineStr"/>
+        <v>317.95</v>
+      </c>
+      <c r="D229" t="n">
+        <v>315.96</v>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>L7</t>
@@ -5142,13 +5256,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>348.51</v>
+        <v>355.99</v>
       </c>
       <c r="C230" t="n">
-        <v>308.67</v>
+        <v>317.17</v>
       </c>
       <c r="D230" t="n">
-        <v>315.3</v>
+        <v>315.89</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5163,13 +5277,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>374.89</v>
+        <v>357.07</v>
       </c>
       <c r="C231" t="n">
-        <v>329.71</v>
+        <v>318.04</v>
       </c>
       <c r="D231" t="n">
-        <v>334.95</v>
+        <v>316.84</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5184,13 +5298,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>374.21</v>
+        <v>358.63</v>
       </c>
       <c r="C232" t="n">
-        <v>323.01</v>
+        <v>317.87</v>
       </c>
       <c r="D232" t="n">
-        <v>328.27</v>
+        <v>317.98</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5205,13 +5319,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>373.66</v>
+        <v>360.33</v>
       </c>
       <c r="C233" t="n">
-        <v>330.4</v>
+        <v>318.47</v>
       </c>
       <c r="D233" t="n">
-        <v>332.43</v>
+        <v>318.6</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5226,13 +5340,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>371.89</v>
+        <v>362.16</v>
       </c>
       <c r="C234" t="n">
-        <v>331.09</v>
+        <v>319.93</v>
       </c>
       <c r="D234" t="n">
-        <v>333.12</v>
+        <v>321.33</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5247,13 +5361,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>375.32</v>
+        <v>363.26</v>
       </c>
       <c r="C235" t="n">
-        <v>333.92</v>
+        <v>321.01</v>
       </c>
       <c r="D235" t="n">
-        <v>341.88</v>
+        <v>323.2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5268,13 +5382,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>369.58</v>
+        <v>365.19</v>
       </c>
       <c r="C236" t="n">
-        <v>326.96</v>
+        <v>322.31</v>
       </c>
       <c r="D236" t="n">
-        <v>327.71</v>
+        <v>324.22</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5289,13 +5403,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>370.68</v>
+        <v>371.86</v>
       </c>
       <c r="C237" t="n">
-        <v>343.64</v>
+        <v>334.84</v>
       </c>
       <c r="D237" t="n">
-        <v>331.03</v>
+        <v>333.54</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5310,13 +5424,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>375.84</v>
+        <v>372.03</v>
       </c>
       <c r="C238" t="n">
-        <v>336.82</v>
+        <v>335.81</v>
       </c>
       <c r="D238" t="n">
-        <v>337.01</v>
+        <v>331.92</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5330,12 +5444,14 @@
           <t>2024-10-26 22:05:48+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>372.03</v>
+      </c>
       <c r="C239" t="n">
-        <v>334.47</v>
+        <v>335.47</v>
       </c>
       <c r="D239" t="n">
-        <v>331.52</v>
+        <v>331.82</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5350,13 +5466,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>364.42</v>
+        <v>370.31</v>
       </c>
       <c r="C240" t="n">
-        <v>342.6</v>
+        <v>339.38</v>
       </c>
       <c r="D240" t="n">
-        <v>335.58</v>
+        <v>333.78</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5371,13 +5487,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>368.09</v>
+        <v>369.76</v>
       </c>
       <c r="C241" t="n">
-        <v>338.35</v>
+        <v>339.18</v>
       </c>
       <c r="D241" t="n">
-        <v>342.74</v>
+        <v>335.58</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5392,13 +5508,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>380.4</v>
+        <v>371.89</v>
       </c>
       <c r="C242" t="n">
-        <v>349.64</v>
+        <v>340.92</v>
       </c>
       <c r="D242" t="n">
-        <v>353.23</v>
+        <v>338.52</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5413,13 +5529,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>375.58</v>
+        <v>372.5</v>
       </c>
       <c r="C243" t="n">
-        <v>346.29</v>
+        <v>341.69</v>
       </c>
       <c r="D243" t="n">
-        <v>349.49</v>
+        <v>340.09</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5434,13 +5550,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>369.41</v>
+        <v>372.06</v>
       </c>
       <c r="C244" t="n">
-        <v>337.99</v>
+        <v>341.23</v>
       </c>
       <c r="D244" t="n">
-        <v>341.47</v>
+        <v>340.26</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5455,13 +5571,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>363.01</v>
+        <v>370.96</v>
       </c>
       <c r="C245" t="n">
-        <v>339.52</v>
+        <v>340.71</v>
       </c>
       <c r="D245" t="n">
-        <v>341.3</v>
+        <v>341.54</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5476,13 +5592,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>381.3</v>
+        <v>372.26</v>
       </c>
       <c r="C246" t="n">
-        <v>345.14</v>
+        <v>341.2</v>
       </c>
       <c r="D246" t="n">
-        <v>347.76</v>
+        <v>342.23</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5497,13 +5613,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>365.93</v>
+        <v>371.02</v>
       </c>
       <c r="C247" t="n">
-        <v>318.46</v>
+        <v>339.75</v>
       </c>
       <c r="D247" t="n">
-        <v>317.02</v>
+        <v>341.07</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5517,12 +5633,14 @@
           <t>2025-06-23 22:05:18+00:00</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
+      <c r="B248" t="n">
+        <v>372.61</v>
+      </c>
       <c r="C248" t="n">
-        <v>313.98</v>
+        <v>335.86</v>
       </c>
       <c r="D248" t="n">
-        <v>313.61</v>
+        <v>337.7</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5537,13 +5655,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>375.69</v>
+        <v>371.82</v>
       </c>
       <c r="C249" t="n">
-        <v>294.07</v>
+        <v>327.92</v>
       </c>
       <c r="D249" t="n">
-        <v>292.37</v>
+        <v>329</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5558,13 +5676,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>343.14</v>
+        <v>366.41</v>
       </c>
       <c r="C250" t="n">
-        <v>316.89</v>
+        <v>323.72</v>
       </c>
       <c r="D250" t="n">
-        <v>315</v>
+        <v>324.08</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5579,13 +5697,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>332.85</v>
+        <v>361.62</v>
       </c>
       <c r="C251" t="n">
-        <v>303.73</v>
+        <v>321.22</v>
       </c>
       <c r="D251" t="n">
-        <v>302.99</v>
+        <v>321.44</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5600,13 +5718,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>360.97</v>
+        <v>361.54</v>
       </c>
       <c r="C252" t="n">
-        <v>301.89</v>
+        <v>319.07</v>
       </c>
       <c r="D252" t="n">
-        <v>292.86</v>
+        <v>318.26</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5621,13 +5739,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>352.12</v>
+        <v>358.86</v>
       </c>
       <c r="C253" t="n">
-        <v>302.17</v>
+        <v>312.04</v>
       </c>
       <c r="D253" t="n">
-        <v>300.64</v>
+        <v>310.28</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5642,13 +5760,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>345.34</v>
+        <v>353.72</v>
       </c>
       <c r="C254" t="n">
-        <v>306.36</v>
+        <v>307.19</v>
       </c>
       <c r="D254" t="n">
-        <v>310.01</v>
+        <v>305.56</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5662,12 +5780,14 @@
           <t>2025-11-06 22:05:55+00:00</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="n">
+        <v>351.68</v>
+      </c>
       <c r="C255" t="n">
-        <v>304.7</v>
+        <v>305.47</v>
       </c>
       <c r="D255" t="n">
-        <v>304.69</v>
+        <v>304.02</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -8717,28 +8837,28 @@
         <v>0.0281</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1548718508829243</v>
+        <v>0.1118112072816214</v>
       </c>
       <c r="J2" t="n">
         <v>254</v>
       </c>
       <c r="K2" t="n">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005157201676363354</v>
+        <v>0.006246674845305278</v>
       </c>
       <c r="M2" t="n">
-        <v>12.74252113851678</v>
+        <v>8.419564122087893</v>
       </c>
       <c r="N2" t="n">
-        <v>251.6323097415879</v>
+        <v>107.6240107540642</v>
       </c>
       <c r="O2" t="n">
-        <v>15.86292248425831</v>
+        <v>10.37419928255016</v>
       </c>
       <c r="P2" t="n">
-        <v>358.0459639231906</v>
+        <v>358.141100140371</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8795,28 +8915,28 @@
         <v>0.0663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3332217412869308</v>
+        <v>0.3692948949784011</v>
       </c>
       <c r="J3" t="n">
         <v>254</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02761123298915558</v>
+        <v>0.05835336189665263</v>
       </c>
       <c r="M3" t="n">
-        <v>11.83651639434349</v>
+        <v>8.935262063111468</v>
       </c>
       <c r="N3" t="n">
-        <v>213.8142278005845</v>
+        <v>119.0906021300504</v>
       </c>
       <c r="O3" t="n">
-        <v>14.62238789666669</v>
+        <v>10.9128640663233</v>
       </c>
       <c r="P3" t="n">
-        <v>316.8320945283577</v>
+        <v>316.1440412491974</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8873,28 +8993,28 @@
         <v>0.0571</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1801165270606295</v>
+        <v>0.1324021328215657</v>
       </c>
       <c r="J4" t="n">
         <v>254</v>
       </c>
       <c r="K4" t="n">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007916859750612071</v>
+        <v>0.008458576263899897</v>
       </c>
       <c r="M4" t="n">
-        <v>11.88615416985501</v>
+        <v>8.226501539381399</v>
       </c>
       <c r="N4" t="n">
-        <v>219.9751256423874</v>
+        <v>110.088335101436</v>
       </c>
       <c r="O4" t="n">
-        <v>14.83155843606421</v>
+        <v>10.49229884731825</v>
       </c>
       <c r="P4" t="n">
-        <v>321.5001927863552</v>
+        <v>321.355935801359</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9002,17 +9122,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-36.14788344374572,175.44052582868034</t>
+          <t>-36.14795960903407,175.44046900677367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-36.14869532207763,175.44096869986762</t>
+          <t>-36.14872399972865,175.44094730526103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.149087981404946,175.4417243229656</t>
+          <t>-36.14909553629104,175.44171868677623</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9029,17 +9149,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.14792453291737,175.44049517477035</t>
+          <t>-36.1479479683893,175.44047769110037</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36.148665333885205,175.44099107216846</t>
+          <t>-36.14870441875224,175.44096191340807</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-36.14901698088256,175.44177729159168</t>
+          <t>-36.149069325460765,175.4417382408981</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -9079,12 +9199,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.14789446767049,175.44051760446365</t>
+          <t>-36.147904258148735,175.44051030043713</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.14871644486392,175.4409529414761</t>
+          <t>-36.148727700070474,175.44094454466557</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9106,17 +9226,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-36.14793802373208,175.44048511015893</t>
+          <t>-36.14791620715707,175.4405013860717</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.14867944144149,175.44098054741207</t>
+          <t>-36.148697943153394,175.44096674444725</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.14894621161174,175.44183008758873</t>
+          <t>-36.14903247611231,175.44176573167144</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9133,17 +9253,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.14794249497335,175.4404817744584</t>
+          <t>-36.147924995459604,175.440494829698</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.14868668794548,175.44097514125158</t>
+          <t>-36.14869416572066,175.44096956255308</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.14902368777317,175.44177228804466</t>
+          <t>-36.14902954666597,175.44176791712934</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9160,17 +9280,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.14792538091146,175.4404945421377</t>
+          <t>-36.147925072549974,175.44049477218596</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.14868861520715,175.4409737034428</t>
+          <t>-36.1486927780923,175.44097059777556</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-36.149118586401215,175.44170149064092</t>
+          <t>-36.14905182587548,175.44175129614297</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9187,17 +9307,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.14799206407385,175.4404447941675</t>
+          <t>-36.1479495101966,175.44047654085855</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.14854106401015,175.44108378188568</t>
+          <t>-36.14864899070424,175.44100326477786</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.14894960360339,175.44182755706376</t>
+          <t>-36.149009503084756,175.44178287025807</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9214,17 +9334,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.148006171607605,175.44043426944185</t>
+          <t>-36.14797456456361,175.4404578494231</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.14869193009718,175.4409712304115</t>
+          <t>-36.148640510751434,175.44100959112984</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-36.148990461681066,175.44179707572343</t>
+          <t>-36.149019524875555,175.44177539369463</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -9241,17 +9361,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.14789970981637,175.44051369364652</t>
+          <t>-36.14796600753394,175.44046423326853</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.14852102047603,175.44109873503913</t>
+          <t>-36.148584697236494,175.4410512299952</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-36.14891660877345,175.4418521721613</t>
+          <t>-36.14895222468784,175.44182560165794</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -9268,17 +9388,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.14792638308628,175.44049379448097</t>
+          <t>-36.14794411387105,175.44048056670465</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.14858546814148,175.44105065487312</t>
+          <t>-36.14859949861185,175.44104018764978</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.14895507704439,175.44182347371617</t>
+          <t>-36.14895407486507,175.4418242213714</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -9322,17 +9442,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-36.14798713029134,175.44044847494496</t>
+          <t>-36.14791767187418,175.44050029334284</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.14876616820404,175.44091584595978</t>
+          <t>-36.14872692916593,175.44094511978963</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.14901058235455,175.44178206508977</t>
+          <t>-36.14899015331825,175.4417973057714</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -9349,17 +9469,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.14804625858436,175.44040436309757</t>
+          <t>-36.1479605341184,175.4404683166284</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-36.148746664321436,175.44093039660962</t>
+          <t>-36.148733481854464,175.44094023123455</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-36.14910139518213,175.44171431585315</t>
+          <t>-36.14902723394514,175.44176964249075</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -9374,15 +9494,19 @@
           <t>2003-10-17 21:53:51+00:00</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-36.1479605341184,175.4404683166284</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-36.14864552163267,175.44100585283113</t>
+          <t>-36.14871151107459,175.44095662226903</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.14906747528442,175.44173962118856</t>
+          <t>-36.149037332825934,175.44176210841198</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9399,17 +9523,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.14817931646405,175.4403050968264</t>
+          <t>-36.148015268268296,175.44042748300478</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.1487724896202,175.44091112993735</t>
+          <t>-36.14872369136684,175.44094753531067</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.14909283811746,175.44172069970114</t>
+          <t>-36.14904843388524,175.44175382667436</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9426,17 +9550,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-36.14783179318246,175.44056436169367</t>
+          <t>-36.14801912278542,175.4404246073954</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.1484905697191,175.4411214523157</t>
+          <t>-36.14866379207572,175.44099222241485</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.14887374632417,175.44188414875333</t>
+          <t>-36.14903386374479,175.4417646964545</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9453,17 +9577,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.147974179111834,175.44045813698375</t>
+          <t>-36.14800786759522,175.44043300417405</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.14851901612252,175.44110023035407</t>
+          <t>-36.148634883146215,175.44101378952635</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-36.14889934044947,175.4418650548212</t>
+          <t>-36.14900695909162,175.44178476815463</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9480,17 +9604,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.147759559466046,175.4406182503176</t>
+          <t>-36.14795822140756,175.44047004199155</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-36.148445703027356,175.4411549243224</t>
+          <t>-36.14860335313655,175.44103731203833</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-36.148840751484016,175.44190876380463</t>
+          <t>-36.14897928352841,175.4418054149611</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -9507,17 +9631,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.148114406429784,175.44035352224407</t>
+          <t>-36.14797186640114,175.4404598623475</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.148596337901566,175.44104254565096</t>
+          <t>-36.14857829872499,175.44105600350784</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-36.148992157676595,175.44179581045958</t>
+          <t>-36.148961090120274,175.4418189877844</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9534,17 +9658,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.147924378736626,175.44049528979443</t>
+          <t>-36.14796392609424,175.4404657860956</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.14864652380891,175.4410051051713</t>
+          <t>-36.148588012127924,175.44104875697025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.148973964269395,175.4418093832872</t>
+          <t>-36.14896286320671,175.44181766500952</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9561,17 +9685,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.14812165291902,175.44034811608492</t>
+          <t>-36.14798643647817,175.44044899255428</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.14873062950771,175.4409423591939</t>
+          <t>-36.1486001924263,175.44103967003974</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.14909977627802,175.44171552360828</t>
+          <t>-36.14896748864956,175.44181421429215</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9588,17 +9712,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.148118492216305,175.44035047409062</t>
+          <t>-36.147977802358554,175.44045543391368</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.14871875757763,175.44095121610425</t>
+          <t>-36.14859248337676,175.44104542126192</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-36.14903555974002,175.44176343118932</t>
+          <t>-36.14895931703381,175.44182031055922</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9615,17 +9739,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.14806568534766,175.44038987001232</t>
+          <t>-36.14798874918874,175.4404472671899</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.14877457106207,175.44090957710054</t>
+          <t>-36.148615302162696,175.44102839764108</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.149165534612244,175.4416664657062</t>
+          <t>-36.148985142422276,175.4418010440506</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9642,17 +9766,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.148025135832036,175.44042012144422</t>
+          <t>-36.147992834977345,175.44044421904596</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.14873109205043,175.44094201411943</t>
+          <t>-36.148628099183604,175.44101885060627</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.148957004312315,175.4418220359176</t>
+          <t>-36.14898198170325,175.44180340204187</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9669,17 +9793,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.14799753748868,175.4404407108044</t>
+          <t>-36.14799329751945,175.44044387397304</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.1487206077486,175.44094983580672</t>
+          <t>-36.148637350041675,175.4410119491334</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.14906300402482,175.4417429568903</t>
+          <t>-36.14899007622754,175.44179736328337</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9696,17 +9820,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-36.14803469503405,175.4404129899307</t>
+          <t>-36.14799707494657,175.4404410558774</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.14870156640516,175.44096404136587</t>
+          <t>-36.148643208918266,175.44100757819982</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-36.14906701274033,175.4417399662612</t>
+          <t>-36.14899709148171,175.44179212969172</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9721,15 +9845,19 @@
           <t>2004-08-08 21:48:26+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-36.148013572280725,175.44042874827284</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.148730552417256,175.44094241670635</t>
+          <t>-36.14866502552332,175.44099130221775</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.14905622004459,175.44174801795427</t>
+          <t>-36.149013665982515,175.44177976460884</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9746,17 +9874,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-36.14813976914119,175.4403346006828</t>
+          <t>-36.148030146704116,175.44041638315107</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.14875514427059,175.44092407024095</t>
+          <t>-36.14868653376455,175.4409752562763</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-36.14910933552114,175.4417083921011</t>
+          <t>-36.14903278447508,175.44176550162325</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9773,17 +9901,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.14800308799373,175.44043656992864</t>
+          <t>-36.148063295547495,175.44039165289226</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.148683295964915,175.4409776717949</t>
+          <t>-36.14872739170866,175.44094477471518</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.14902900703111,175.44176831971367</t>
+          <t>-36.14906470001985,175.44174169162417</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9800,11 +9928,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.14797163513007,175.44046003488384</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>-36.148044485506674,175.4404056858788</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-36.14872692916593,175.44094511978963</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-36.149060305850895,175.44174496981356</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9819,17 +9955,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-36.14793779246097,175.44048528269514</t>
+          <t>-36.148014111913135,175.44042834568756</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.14856781441662,175.4410638251655</t>
+          <t>-36.14869316354463,175.44097031021377</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.148953072685735,175.4418249690266</t>
+          <t>-36.149046275345974,175.4417554370124</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9846,17 +9982,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.14774444974254,175.4406295226323</t>
+          <t>-36.14797194349149,175.44045980483534</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.14845256408556,175.44114980575335</t>
+          <t>-36.148648528161374,175.44100360985163</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.14883150059346,175.44191566521727</t>
+          <t>-36.14900772999864,175.44178419303447</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9871,15 +10007,19 @@
           <t>2005-02-08 21:55:11+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-36.14795937776299,175.44046917930999</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.14869647843459,175.44096783718217</t>
+          <t>-36.148631028622034,175.44101666514004</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.14907017345826,175.44173760826496</t>
+          <t>-36.1489986332958,175.44179097945164</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9894,11 +10034,19 @@
           <t>2005-03-12 21:55:20+00:00</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-36.147914279897705,175.44050282387275</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-36.14860003824532,175.4410397850642</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.14908158287881,175.4417290964721</t>
+          <t>-36.14899308276506,175.44179512031562</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9915,17 +10063,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-36.14802652345815,175.4404190862246</t>
+          <t>-36.14792006167577,175.44049851046938</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.14871914302993,175.44095092854226</t>
+          <t>-36.14860898074249,175.4410331136451</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.14901435979881,175.44177924700062</t>
+          <t>-36.14899015331825,175.4417973057714</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9942,17 +10090,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-36.14783464552728,175.44056223375244</t>
+          <t>-36.14790302470268,175.44051122062956</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.14849064680965,175.44112139480367</t>
+          <t>-36.148585313960474,175.44105076989754</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.14895314977646,175.44182491151466</t>
+          <t>-36.148983986061666,175.44180190673038</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9969,15 +10117,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.14820452498816,175.44028629025956</t>
+          <t>-36.147949587286945,175.44047648334646</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.14874859158264,175.44092895879868</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>-36.148612526905055,175.44103046808195</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-36.148983986061666,175.44180190673038</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9992,17 +10144,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.14809058552218,175.44037129354766</t>
+          <t>-36.14797309984684,175.4404589421535</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.14856002827557,175.44106963389518</t>
+          <t>-36.14860504912738,175.4410360467692</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.14891614622907,175.44185251723263</t>
+          <t>-36.148974272632245,175.44180915323932</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -10019,17 +10171,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.147953673076216,175.44047343520546</t>
+          <t>-36.14802197512806,175.4404224794443</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.14872808552275,175.4409442571035</t>
+          <t>-36.148649299066165,175.44100303472868</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.14902854448695,175.44176866478597</t>
+          <t>-36.14899878747718,175.44179086442765</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10046,17 +10198,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.14777883207123,175.44060387235908</t>
+          <t>-36.14798150269558,175.44045267333124</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.14871914302993,175.44095092854226</t>
+          <t>-36.14866093972817,175.44099435037054</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.14911850931054,175.4417015481531</t>
+          <t>-36.14900611109392,175.44178540078678</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10073,17 +10225,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.148088041541605,175.44037319145323</t>
+          <t>-36.14802313148318,175.44042161676134</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.14861638142955,175.4410275924696</t>
+          <t>-36.14867443056093,175.44098428571394</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.14899393076283,175.4417944876837</t>
+          <t>-36.14901428270811,175.44177930451266</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -10100,17 +10252,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-36.14783487679849,175.44056206121664</t>
+          <t>-36.14791381735545,175.44050316894499</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.148621392311284,175.44102385417307</t>
+          <t>-36.14867126985161,175.4409866437195</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.14886881251659,175.44188782950994</t>
+          <t>-36.14900248783094,175.44178810385134</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10127,11 +10279,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.14800069819295,175.44043835280578</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>-36.14793123977964,175.44049017122106</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-36.14867126985161,175.4409866437195</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-36.14900248783094,175.44178810385134</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10146,17 +10306,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.14805072982366,175.4404010273881</t>
+          <t>-36.147951129094224,175.44047533310464</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.14869655552506,175.44096777966982</t>
+          <t>-36.148676280732225,175.4409829054179</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-36.149093300661505,175.4417203546283</t>
+          <t>-36.149020604145306,175.44177458852613</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -10173,17 +10333,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-36.148177003755286,175.4403068221989</t>
+          <t>-36.14798836373698,175.44044755475062</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-36.14879738983105,175.44089255340288</t>
+          <t>-36.14869015701647,175.4409725531957</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.14913508380316,175.44168918303305</t>
+          <t>-36.14904195826737,175.44175865768827</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -10200,17 +10360,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.147892463320574,175.44051909977594</t>
+          <t>-36.147974641653974,175.440457791911</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.14871922012038,175.44095087102988</t>
+          <t>-36.148695013715766,175.4409689299171</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.14903910591183,175.4417607856346</t>
+          <t>-36.149041495723225,175.44175900276062</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10227,17 +10387,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.14788999642834,175.4405209401602</t>
+          <t>-36.14799052226683,175.44044594441047</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.14871860339673,175.44095133112904</t>
+          <t>-36.14869493662531,175.44096898742944</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.14906523965463,175.4417412890395</t>
+          <t>-36.14903255320301,175.44176567415943</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10254,17 +10414,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-36.1482034457242,175.44028709543392</t>
+          <t>-36.14803569720842,175.44041224227192</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-36.1487933040381,175.44089560156567</t>
+          <t>-36.14874504542203,175.44093160437072</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.149205005022424,175.44163701942406</t>
+          <t>-36.14910756243576,175.44170971488077</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10281,17 +10441,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.14811240208167,175.44035501756454</t>
+          <t>-36.14804664403602,175.4404040755364</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.14874196180407,175.440933904868</t>
+          <t>-36.14874450578888,175.44093200695778</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-36.14910494135298,175.44171167029413</t>
+          <t>-36.14910709989173,175.44171005995372</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10308,17 +10468,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.148012878467625,175.44042926588247</t>
+          <t>-36.14804841711369,175.4404027527551</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.148712821612385,175.44095564455844</t>
+          <t>-36.148739957452364,175.4409354001911</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.14906416038507,175.44174209420885</t>
+          <t>-36.149101009728774,175.4417146034139</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10335,17 +10495,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-36.14794018226237,175.4404834998208</t>
+          <t>-36.148034926305044,175.44041281739405</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.148682987603046,175.4409779018443</t>
+          <t>-36.14873286513084,175.4409406913339</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-36.1489853736944,175.44180087151466</t>
+          <t>-36.14908651668212,175.44172541569608</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10362,17 +10522,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-36.147932627406284,175.4404891360039</t>
+          <t>-36.14802012495987,175.44042385973694</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.14873402148762,175.44093982864766</t>
+          <t>-36.148737567648396,175.44093718307627</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-36.14913292526465,175.44169079337456</t>
+          <t>-36.14909145048533,175.4417217349196</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10389,17 +10549,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.14795498361239,175.4404724574998</t>
+          <t>-36.148012878467625,175.44042926588247</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.14876408676209,175.44091739879624</t>
+          <t>-36.14874049708552,175.44093499760413</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.14911557986524,175.44170373361567</t>
+          <t>-36.14909414865892,175.4417197219948</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10416,17 +10576,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.147950435280954,175.44047585071345</t>
+          <t>-36.14798774701417,175.44044801484782</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-36.14861144763819,175.44103127325337</t>
+          <t>-36.14871983684403,175.4409504109307</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-36.14897812716777,175.44180627764075</t>
+          <t>-36.14907672616608,175.44173271973557</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10441,11 +10601,19 @@
           <t>2007-03-02 21:56:07+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-36.14795274799185,175.44047412535062</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-36.14868776721202,175.44097433607865</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.14882887950773,175.4419176206172</t>
+          <t>-36.148974195541534,175.4418092107513</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10489,17 +10657,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.14805851594709,175.44039521865176</t>
+          <t>-36.14815595810453,175.44032252308426</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.148747435225914,175.44092982148524</t>
+          <t>-36.14876431803342,175.44091722625888</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.14913624016307,175.44168832035007</t>
+          <t>-36.1491568233685,175.44167296458878</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10516,17 +10684,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.14805342798527,175.44039901445979</t>
+          <t>-36.14812173000934,175.4403480585726</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.148733481854464,175.44094023123455</t>
+          <t>-36.148754065004354,175.44092487541522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.14908867522103,175.44172380535642</t>
+          <t>-36.14913408162457,175.4416899306916</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10543,17 +10711,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.14795174581713,175.44047487300784</t>
+          <t>-36.14807925324492,175.44037974785343</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.14869424281113,175.4409695050407</t>
+          <t>-36.148739109457416,175.4409360328278</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.14910810207043,175.44170931229567</t>
+          <t>-36.14912760600896,175.44169476171572</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10570,17 +10738,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.14791620715707,175.4405013860717</t>
+          <t>-36.14804664403602,175.4404040755364</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.1485833096075,175.44105226521486</t>
+          <t>-36.14870796491345,175.44095926783865</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-36.14901736633604,175.44177700403154</t>
+          <t>-36.14910555807834,175.44171121019687</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10597,17 +10765,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.14804302079032,175.44040677861108</t>
+          <t>-36.14804602731335,175.44040453563426</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.14878682844162,175.44090043261548</t>
+          <t>-36.14872107029134,175.44094949073232</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.149309231543796,175.4415592626969</t>
+          <t>-36.14913947797078,175.44168590483756</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10624,17 +10792,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-36.14815703736872,175.44032171791082</t>
+          <t>-36.14801696425583,175.44042621773667</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.14880024217702,175.44089042544</t>
+          <t>-36.148716136502095,175.44095317152568</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.1491478808525,175.44167963600663</t>
+          <t>-36.149145645223435,175.44168130386086</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10651,11 +10819,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.14787195727812,175.44053439796667</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+          <t>-36.14801449736485,175.44042805812663</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-36.14880024217702,175.44089042544</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-36.1491478808525,175.44167963600663</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10670,7 +10846,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.14784142948241,175.44055717270237</t>
+          <t>-36.14785669338073,175.44054578533667</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10697,17 +10873,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-36.147860239538794,175.44054313978646</t>
+          <t>-36.147857849736624,175.4405449226573</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-36.14860689929922,175.44103466647553</t>
+          <t>-36.14864899070424,175.44100326477786</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.14898020861693,175.4418047248174</t>
+          <t>-36.1489815962497,175.44180368960176</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10724,17 +10900,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.14812334890584,175.44034685081348</t>
+          <t>-36.14799175571244,175.44044502421607</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.14873402148762,175.44093982864766</t>
+          <t>-36.148670421856416,175.4409872763551</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.149119357307875,175.4417009155192</t>
+          <t>-36.14904974442693,175.4417528489691</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10751,17 +10927,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.147994685145754,175.44044283875425</t>
+          <t>-36.148058978489075,175.44039487357827</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.14877287507239,175.440910842375</t>
+          <t>-36.148753448280786,175.4409253355148</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.14915435646756,175.44167480498004</t>
+          <t>-36.149136856888354,175.44168786025244</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10778,17 +10954,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-36.14784929270287,175.44055130648422</t>
+          <t>-36.147989134640504,175.44044697962917</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.148588166308926,175.44104864194583</t>
+          <t>-36.14869832860573,175.4409664568854</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.148970263915224,175.44181214386154</t>
+          <t>-36.14908135160678,175.44172926900848</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10805,17 +10981,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.14781144131574,175.4405795448376</t>
+          <t>-36.14794465350361,175.44048016412006</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-36.14857390456639,175.44105928170282</t>
+          <t>-36.14866726114704,175.44098963436042</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-36.14884691874419,175.441904162862</t>
+          <t>-36.14902276268482,175.4417729781891</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -10832,17 +11008,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.147716543005835,175.4406503418963</t>
+          <t>-36.147899093093336,175.4405141537427</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.14843275181583,175.44116458633803</t>
+          <t>-36.14862031304446,175.4410246593447</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-36.14878809849392,175.44194804432374</t>
+          <t>-36.14897581444647,175.44180800299992</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10859,17 +11035,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.14793910299722,175.44048430498987</t>
+          <t>-36.14786224388899,175.44054164447536</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.14872970442228,175.44094304934285</t>
+          <t>-36.14861946504909,175.44102529197949</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.14910085554743,175.44171471843822</t>
+          <t>-36.14897211409232,175.4418107635744</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10886,17 +11062,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.1479933746098,175.44044381646088</t>
+          <t>-36.147861935527416,175.44054187452323</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-36.14850768381587,175.4411086846333</t>
+          <t>-36.14856642678754,175.4410648603847</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-36.14893241237245,175.44184038222224</t>
+          <t>-36.14892770983822,175.4418438904485</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10913,17 +11089,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.14809197314792,175.44037025832637</t>
+          <t>-36.14790024944904,175.4405132910624</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.148743580703496,175.44093269710694</t>
+          <t>-36.148595952449085,175.44104283321204</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.14909684683247,175.4417177090698</t>
+          <t>-36.14895592504227,175.44182284108481</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10940,17 +11116,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.14803508048573,175.44041270236963</t>
+          <t>-36.147919522043146,175.44049891305372</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.14869963914359,175.44096547917513</t>
+          <t>-36.148610753823775,175.44103179086355</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.14907942433983,175.44173070681148</t>
+          <t>-36.14897357881585,175.44180967084702</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10967,17 +11143,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.14792576636332,175.44049425457743</t>
+          <t>-36.14795028110023,175.44047596573765</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.14867574109893,175.44098330800426</t>
+          <t>-36.148631491164934,175.4410163200664</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.14899439330705,175.44179414261168</t>
+          <t>-36.14899871038648,175.44179092193966</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10994,17 +11170,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.147906108317805,175.44050892014846</t>
+          <t>-36.14798975136331,175.440446519532</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.14860080915025,175.44103920994192</t>
+          <t>-36.148679981074764,175.4409801448257</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.14895099123635,175.44182652184892</t>
+          <t>-36.14903039466361,175.44176728449682</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -11021,17 +11197,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.14789292586286,175.44051875470387</t>
+          <t>-36.147899555635604,175.44051380867057</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.14850036021604,175.44111414828186</t>
+          <t>-36.148550623233554,175.4410766503791</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.148932643644635,175.44184020968652</t>
+          <t>-36.14894181744065,175.4418333657685</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -11048,17 +11224,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-36.1479616904738,175.44046745394678</t>
+          <t>-36.1479202158565,175.44049839544527</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.14871544268798,175.4409536891372</t>
+          <t>-36.14860551167035,175.44103570169577</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.149059689125416,175.4417454299103</t>
+          <t>-36.14898113370544,175.44180403467365</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -11075,17 +11251,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.14792067839874,175.44049805037298</t>
+          <t>-36.147920370037255,175.44049828042117</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.1486973264297,175.44096720454615</t>
+          <t>-36.148628484636035,175.44101856304493</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-36.14911504023056,175.44170413620083</t>
+          <t>-36.1490145910709,175.44177907446453</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -11102,17 +11278,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.147859160273306,175.44054394495396</t>
+          <t>-36.14790811266762,175.44050742483566</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.148672349118215,175.44098583854688</t>
+          <t>-36.14863727295119,175.4410120066457</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-36.14899393076283,175.4417944876837</t>
+          <t>-36.14901042817315,175.44178218011382</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -11127,15 +11303,19 @@
           <t>2011-08-20 21:59:02+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-36.147889919337956,175.44052099767222</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-36.14871205070781,175.4409562196823</t>
+          <t>-36.14869393444928,175.44096973509014</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.149079038886434,175.44173099437208</t>
+          <t>-36.14906269566209,175.44174318693868</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -11152,15 +11332,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-36.14814061713454,175.4403339680468</t>
+          <t>-36.147999927289476,175.44043892792743</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.148779659031014,175.44090578127688</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>-36.148721378653164,175.44094926068271</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-36.14903648482832,175.4417627410446</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>L5</t>
@@ -11175,17 +11359,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-36.147923684923285,175.44049580740295</t>
+          <t>-36.147974487473256,175.44045790693525</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.148708889998964,175.44095857769008</t>
+          <t>-36.14871821794444,175.440951618691</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.149107870798424,175.44170948483213</t>
+          <t>-36.149060305850895,175.44174496981356</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -11202,17 +11386,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.148063758089464,175.44039130781871</t>
+          <t>-36.14804271242898,175.44040700866</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.14876508893785,175.44091665113424</t>
+          <t>-36.148741422170914,175.440934307455</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.149109104249135,175.44170856463757</t>
+          <t>-36.14909869700862,175.44171632877834</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -11229,17 +11413,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.14793470884624,175.44048758317803</t>
+          <t>-36.14801573081034,175.4404271379317</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.14866633606137,175.4409903245083</t>
+          <t>-36.14872638953276,175.4409455223765</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.14899655184678,175.4417925322757</t>
+          <t>-36.14907310290413,175.44173542280484</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11256,17 +11440,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-36.14802020205022,175.44042380222473</t>
+          <t>-36.148006248697946,175.4404342119297</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.148568045688144,175.44106365262894</t>
+          <t>-36.14866649024232,175.44099020948366</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.14885439654695,175.4418985842181</t>
+          <t>-36.14898668423644,175.4417998938109</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -11283,15 +11467,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.14800794468555,175.44043294666184</t>
+          <t>-36.148014111913135,175.44042834568756</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.148547385432124,175.4410790658896</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>-36.14855771556035,175.44107135926026</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-36.14885439654695,175.4418985842181</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11306,12 +11494,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.147862937702506,175.44054112686766</t>
+          <t>-36.147935402659556,175.44048706556939</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.14857960926351,175.4410550258005</t>
+          <t>-36.14856349734834,175.44106704584743</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11333,17 +11521,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.148001469096435,175.4404377776841</t>
+          <t>-36.14795745050396,175.44047061711257</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.148688075573894,175.44097410602927</t>
+          <t>-36.14860504912738,175.4410360467692</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.1490401080908,175.4417600379778</t>
+          <t>-36.14899662893748,175.4417924747637</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11360,17 +11548,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-36.14788683572263,175.44052329815239</t>
+          <t>-36.14793979681053,175.44048378738117</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.14857166894181,175.4410609495563</t>
+          <t>-36.14859664626354,175.44104231560206</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-36.148939813081896,175.44183486107843</t>
+          <t>-36.14897766462351,175.4418066227126</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11387,17 +11575,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.14787064674151,175.44053537567032</t>
+          <t>-36.1478787412322,175.44052933691196</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.14863056607911,175.44101701021364</t>
+          <t>-36.148601117512236,175.441038979893</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.14906392911303,175.44174226674517</t>
+          <t>-36.14900187110531,175.4417885639474</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11414,17 +11602,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.14797834199104,175.44045503132875</t>
+          <t>-36.14792453291737,175.44049517477035</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-36.148657085204384,175.4409972259861</t>
+          <t>-36.14864382564212,175.4410071181015</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.14908952321846,175.44172317272296</t>
+          <t>-36.14907672616608,175.44173271973557</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11441,17 +11629,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.14806175374092,175.44039280313729</t>
+          <t>-36.14797024750363,175.44046107010203</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.14875606935592,175.4409233800916</t>
+          <t>-36.14868121452227,175.4409792246282</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-36.14910232027019,175.44171362570734</t>
+          <t>-36.149085283231294,175.4417263358901</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11468,11 +11656,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.14793339830997,175.4404885608832</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+          <t>-36.147960996660565,175.44046797155576</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-36.14868121452227,175.4409792246282</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-36.149085283231294,175.4417263358901</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11487,17 +11683,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.14795968612443,175.44046894926154</t>
+          <t>-36.14796076538948,175.44046814409208</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.14868445232194,175.4409768091097</t>
+          <t>-36.14868206251742,175.44097859199243</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-36.149042497902194,175.44175825510376</t>
+          <t>-36.14907456762706,175.44173433007475</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11514,17 +11710,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-36.14801372646141,175.44042863324844</t>
+          <t>-36.147989365911556,175.44044680709274</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.14871351542652,175.44095512694693</t>
+          <t>-36.14870279985255,175.44096312116793</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.14904912770142,175.4417533090657</t>
+          <t>-36.1490708672744,175.44173709065598</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11541,17 +11737,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.1478601624484,175.4405431972984</t>
+          <t>-36.14796785770254,175.44046285297773</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.14853720948449,175.44108665749272</t>
+          <t>-36.148669650951696,175.44098785147838</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.14889325028134,175.44186959825794</t>
+          <t>-36.14903532846793,175.44176360372546</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11568,17 +11764,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-36.14785993117723,175.44054336983433</t>
+          <t>-36.1479524396304,175.440474355399</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.14857814454399,175.44105611853223</t>
+          <t>-36.1486543870377,175.44099923891682</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.148920771672806,175.44184906651927</t>
+          <t>-36.14901628706627,175.44177780919995</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -11595,17 +11791,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.14797687727428,175.44045612405927</t>
+          <t>-36.14795552324491,175.44047205491512</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.14867458474187,175.4409841706893</t>
+          <t>-36.14865731647581,175.44099705344917</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.1490356368307,175.44176337367725</t>
+          <t>-36.14901898524068,175.44177579627885</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11622,17 +11818,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.148160968973926,175.44031878477895</t>
+          <t>-36.14797834199104,175.44045503132875</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.14876817255551,175.44091435063564</t>
+          <t>-36.14867119276114,175.44098670123182</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.149106328985035,175.4417106350753</t>
+          <t>-36.149029932119426,175.4417676295691</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11649,17 +11845,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.148081026322345,175.44037842507106</t>
+          <t>-36.14798975136331,175.440446519532</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.148727700070474,175.44094454466557</t>
+          <t>-36.148679981074764,175.4409801448257</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-36.149061462211144,175.44174410713217</t>
+          <t>-36.14902638594751,175.44177027512322</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11676,17 +11872,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.1479591464919,175.4404693518463</t>
+          <t>-36.14797834199104,175.44045503132875</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-36.148711279803216,175.44095679480617</t>
+          <t>-36.14867435347046,175.4409843432263</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-36.14905105496861,175.4417518712638</t>
+          <t>-36.14901998741974,175.44177504862245</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -11703,17 +11899,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.14802143549568,175.44042288202962</t>
+          <t>-36.14798265905088,175.44045181064917</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.148671501123026,175.44098647118253</t>
+          <t>-36.14867404510858,175.44098457327559</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.14895353523004,175.44182462395497</t>
+          <t>-36.14901266380343,175.44178051226515</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11730,17 +11926,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.148097909102425,175.44036582987937</t>
+          <t>-36.14800347344548,175.4404362823678</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-36.14874789776861,175.44092947641062</t>
+          <t>-36.148681137431794,175.44097928214055</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-36.14907233199733,175.44173599792595</t>
+          <t>-36.149015978703474,175.44177803924805</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11755,15 +11951,19 @@
           <t>2014-08-20 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>-36.148022437670114,175.44042213437112</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.14886445849784,175.44084251747898</t>
+          <t>-36.14871798667307,175.4409517912282</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.14926020191352,175.44159584059062</t>
+          <t>-36.14905768476761,175.4417469252246</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11780,17 +11980,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.147893234224384,175.44051852465583</t>
+          <t>-36.148010565757296,175.44043099124787</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.1487919164103,175.44089663679068</t>
+          <t>-36.148752446104986,175.4409260831766</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.1491586735442,175.44167158429525</t>
+          <t>-36.14909283811746,175.44172069970114</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11807,17 +12007,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.148079099064276,175.440379862878</t>
+          <t>-36.14802290021216,175.44042178929794</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.1487084274562,175.44095892276437</t>
+          <t>-36.14875684026038,175.44092280496707</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.149073719629584,175.44173496270795</t>
+          <t>-36.14910370790225,175.4417125904886</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11834,17 +12034,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.14803600556976,175.44041201222305</t>
+          <t>-36.14802652345815,175.4404190862246</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.14870912127034,175.4409584051529</t>
+          <t>-36.14876439512386,175.4409171687464</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.1491089500678,175.4417086796619</t>
+          <t>-36.14913477544051,175.44168941308183</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11861,17 +12061,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.14784713417179,175.44055291681875</t>
+          <t>-36.147990676447534,175.4404458293862</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.148763470038546,175.44091785889594</t>
+          <t>-36.14876424094298,175.4409172837713</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.149116813315906,175.44170281342093</t>
+          <t>-36.149131768904724,175.44169165605746</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11886,15 +12086,19 @@
           <t>2015-01-19 22:04:10+00:00</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-36.147990676447534,175.4404458293862</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.148766939108455,175.4409152708351</t>
+          <t>-36.148764626395185,175.440916996209</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.149090217034534,175.44172265511378</t>
+          <t>-36.149125832923694,175.44169608449604</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11911,17 +12115,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.14790171416624,175.44051219833395</t>
+          <t>-36.14795143745568,175.44047510305623</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.14865500376152,175.4409987788184</t>
+          <t>-36.14873247967858,175.44094097889598</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-36.14896802828456,175.44181381170844</t>
+          <t>-36.14908605413807,175.44172576076886</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11936,15 +12140,19 @@
           <t>2015-03-16 22:05:13+00:00</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>-36.14795143745568,175.44047510305623</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.148866231577294,175.44084119468909</t>
+          <t>-36.14875159811007,175.44092671581348</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-36.14924293361374,175.44160872336022</t>
+          <t>-36.14910848752379,175.44170902473485</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11961,17 +12169,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.14804726075869,175.44040361543858</t>
+          <t>-36.147967395160386,175.44046319805045</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.14877904230751,175.44090624137678</t>
+          <t>-36.14875499008969,175.44092418526586</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.14911534859323,175.44170390615216</t>
+          <t>-36.14910933552114,175.4417083921011</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11986,15 +12194,19 @@
           <t>2015-04-25 22:04:54+00:00</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-36.14798227359911,175.44045209820987</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.14878621171813,175.44090089271543</t>
+          <t>-36.14875429627568,175.4409247028779</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.14909260684544,175.44172087223757</t>
+          <t>-36.14910108681944,175.44171454590173</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -12011,11 +12223,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.14809929672814,175.4403647946579</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+          <t>-36.147973870750405,175.44045836703225</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>-36.14876948309301,175.4409133729237</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>-36.14910432462762,175.44171213039138</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12030,17 +12250,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-36.14802097295363,175.4404232271028</t>
+          <t>-36.14798327577371,175.44045135055205</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.148712821612385,175.44095564455844</t>
+          <t>-36.14876138859658,175.44091941173232</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.14907718871014,175.44173237466288</t>
+          <t>-36.149100470094076,175.44171500599896</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -12057,17 +12277,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.148067150063866,175.44038877727942</t>
+          <t>-36.148027294361555,175.4404185111026</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.14867735999881,175.4409821002452</t>
+          <t>-36.14874612468829,175.44093079919665</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-36.149029777938054,175.44176774459322</t>
+          <t>-36.149087673042246,175.44172455301413</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -12084,17 +12304,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.14822225575281,175.44027306239207</t>
+          <t>-36.14805974939236,175.44039429845577</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.14874758940683,175.44092970646037</t>
+          <t>-36.14874635595966,175.44093062665934</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-36.149127374736956,175.4416949342523</t>
+          <t>-36.149093300661505,175.4417203546283</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -12111,17 +12331,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.14783587897369,175.44056131356157</t>
+          <t>-36.148027756903595,175.4404181660294</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.14865500376152,175.4409987788184</t>
+          <t>-36.1487348694826,175.44093919601102</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.14900672781952,175.44178494069067</t>
+          <t>-36.14908250796694,175.44172840632663</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -12138,17 +12358,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-36.147976106370734,175.44045669918054</t>
+          <t>-36.14803839537021,175.44041022934434</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.148641358746715,175.44100895849473</t>
+          <t>-36.148714209240644,175.44095460933542</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.14897064936878,175.44181185630174</t>
+          <t>-36.14905992039747,175.44174525737404</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -12165,17 +12385,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-36.147991986983484,175.44044485167962</t>
+          <t>-36.148019045695065,175.4404246649076</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.14850005185395,175.44111437833016</t>
+          <t>-36.148655697575805,175.44099826120762</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.148955154135095,175.44182341620424</t>
+          <t>-36.1490278506707,175.44176918239438</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -12192,17 +12412,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.14823574655114,175.44026299770636</t>
+          <t>-36.14805242581097,175.4403997621189</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.14878682844162,175.44090043261548</t>
+          <t>-36.14866618188042,175.44099043953295</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.14915859645354,175.4416716418075</t>
+          <t>-36.14904373135323,175.4417573349107</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -12219,17 +12439,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.14807393401256,175.44038371620022</t>
+          <t>-36.14806946277366,175.4403870519116</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.148714209240644,175.44095460933542</t>
+          <t>-36.148660631366276,175.44099458041978</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.14911049188117,175.44170752941866</t>
+          <t>-36.14904874224799,175.44175359662606</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -12246,17 +12466,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.147928079074454,175.44049252921567</t>
+          <t>-36.14805743668247,175.44039602382318</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.148645136180264,175.44100614039257</t>
+          <t>-36.14866155645197,175.440993890272</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.14899639766538,175.4417926472997</t>
+          <t>-36.14905514077499,175.44174882312345</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -12273,17 +12493,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-36.14799954183774,175.44043921548823</t>
+          <t>-36.14804587313269,175.4404046506587</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.14871289870285,175.44095558704606</t>
+          <t>-36.14867180948492,175.4409862411332</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.149034249198245,175.44176440889424</t>
+          <t>-36.14905097787793,175.44175192877583</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -12298,15 +12518,19 @@
           <t>2016-04-27 22:07:59+00:00</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-36.14804587313269,175.4404046506587</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.148603969860496,175.44103685194045</t>
+          <t>-36.1486605542758,175.4409946379321</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-36.14902052705462,175.44177464603817</t>
+          <t>-36.14904588989253,175.44175572457277</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -12323,15 +12547,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.148065608257326,175.4403899275246</t>
+          <t>-36.14804911092668,175.440402235145</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.148597648439974,175.44104156794316</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>-36.14865153469003,175.441001366872</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>-36.14904588989253,175.44175572457277</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12346,17 +12574,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.14806730424453,175.44038866225492</t>
+          <t>-36.148051731997974,175.44040027972903</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.14859857352592,175.44104087779647</t>
+          <t>-36.148644904908835,175.44100631292943</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.14896201520885,175.441818297641</t>
+          <t>-36.14903394083548,175.44176463894246</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -12373,17 +12601,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.14815171813804,175.4403256862653</t>
+          <t>-36.14807455073515,175.44038325610208</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.14877834849356,175.4409067589891</t>
+          <t>-36.148679672712895,175.44098037487504</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.149177329481574,175.44165766633193</t>
+          <t>-36.149065625108044,175.441741001479</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -12400,17 +12628,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-36.14814925124842,175.44032752666138</t>
+          <t>-36.148083878664266,175.44037629711667</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.14858569941297,175.4410504823365</t>
+          <t>-36.14866926549933,175.44098813904</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.14899824784226,175.44179126701167</t>
+          <t>-36.1490572222235,175.44174727029713</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -12427,11 +12655,19 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.14798258196053,175.44045186816132</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+          <t>-36.148052271630306,175.44039987714334</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-36.14865454121866,175.4409991238922</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>-36.14904272917426,175.4417580825676</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12444,11 +12680,19 @@
           <t>2016-09-10 22:05:51+00:00</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>-36.148049188017005,175.44040217763276</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>-36.148646061266035,175.4410054502451</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.148975506083616,175.4418082330478</t>
+          <t>-36.14902345650107,175.44177246058078</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -12463,15 +12707,19 @@
           <t>2016-09-18 22:08:21+00:00</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>-36.148049188017005,175.44040217763276</t>
+        </is>
+      </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.14852017248031,175.4410993676724</t>
+          <t>-36.148630334807656,175.44101718275047</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.149021606324375,175.4417738408697</t>
+          <t>-36.14902322522899,175.4417726331169</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -12488,17 +12736,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.147932473225545,175.44048925102803</t>
+          <t>-36.148034540853374,175.44041310495513</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.14866425461858,175.44099187734096</t>
+          <t>-36.14863411224138,175.4410143646491</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-36.148979977344794,175.4418048973533</t>
+          <t>-36.1490184456058,175.4417761988631</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -12515,17 +12763,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.1478131373047,175.4405782795759</t>
+          <t>-36.14802313148318,175.44042161676134</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.14852649390282,175.44109465167872</t>
+          <t>-36.14860936619494,175.4410328260839</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.148914450233015,175.44185378249412</t>
+          <t>-36.14900618818461,175.44178534327477</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12542,17 +12790,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-36.14778353458667,175.44060036413617</t>
+          <t>-36.14799322042909,175.4404439314852</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.148483246118786,175.44112691596197</t>
+          <t>-36.14859433354869,175.44104404096868</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.148818395164554,175.4419254422158</t>
+          <t>-36.148980902433316,175.4418042072096</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12569,17 +12817,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.147809051513114,175.44058132770627</t>
+          <t>-36.147945964039806,175.44047918641465</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-36.14852009538979,175.44109942518452</t>
+          <t>-36.148582615793,175.44105278282467</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-36.14884152239155,175.44190818868682</t>
+          <t>-36.148965869744565,175.44181542204328</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -12596,17 +12844,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.14772779820941,175.44064194517827</t>
+          <t>-36.14784142948241,175.44055717270237</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.148441463047476,175.44115808748262</t>
+          <t>-36.14852595426921,175.4410950542636</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-36.14881569698794,175.44192745512686</t>
+          <t>-36.14890959351698,175.44185740574255</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12623,17 +12871,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-36.14764631360741,175.44070273506316</t>
+          <t>-36.14781352275673,175.44057799201642</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.1483959025317,175.441192077056</t>
+          <t>-36.14850737545378,175.44110891468165</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-36.14871378298059,175.44200348555484</t>
+          <t>-36.14888507866311,175.44187569451378</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12650,17 +12898,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.1478287095664,175.4405666621705</t>
+          <t>-36.14779155198982,175.4405943829027</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-36.14847492034131,175.44113312726387</t>
+          <t>-36.148503289656006,175.44111196282253</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.14880451882733,175.4419357943284</t>
+          <t>-36.14887613613719,175.4418823658867</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12677,17 +12925,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.147773204470674,175.44060807072367</t>
+          <t>-36.14778931636781,175.44059605074676</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.148441771409644,175.4411578574346</t>
+          <t>-36.14849650568974,175.44111702388594</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-36.1488123820852,175.44192992813169</t>
+          <t>-36.14886981469626,175.4418870818563</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12704,17 +12952,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.147878432870655,175.4405295669599</t>
+          <t>-36.14778253241125,175.44060111179024</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.14853165896743,175.4410907983663</t>
+          <t>-36.14847692469516,175.44113163195055</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.148940583989116,175.44183428595926</t>
+          <t>-36.1488326569548,175.44191480254077</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12731,17 +12979,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.14804949637834,175.44040194758384</t>
+          <t>-36.147817300186645,175.44057517393333</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.14861314362898,175.441030007984</t>
+          <t>-36.14848316902826,175.44112697347404</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.14898915113906,175.44179805342728</t>
+          <t>-36.14884599365518,175.44190485300342</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12758,17 +13006,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.1481097039207,175.4403570304958</t>
+          <t>-36.14801257010625,175.4404294959312</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.14869200718764,175.44097117289914</t>
+          <t>-36.14861229563358,175.4410306406187</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-36.14910208899818,175.4417137982438</t>
+          <t>-36.14901058235455,175.44178206508977</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12785,17 +13033,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.14804949637834,175.44040194758384</t>
+          <t>-36.14807963869653,175.44037946029204</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.148645136180264,175.44100614039257</t>
+          <t>-36.14866857168508,175.44098865665092</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.149037332825934,175.44176210841198</t>
+          <t>-36.14906971091418,175.44173795333757</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12812,17 +13060,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.148027756903595,175.4404181660294</t>
+          <t>-36.148062293373215,175.44039240055153</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-36.148626711554854,175.44101988582705</t>
+          <t>-36.148654618309145,175.4409990663799</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-36.148956156314426,175.44182266854898</t>
+          <t>-36.14903185938678,175.44176619176787</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12839,17 +13087,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.14791975331427,175.44049874051757</t>
+          <t>-36.14802667763884,175.44041897120022</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.14850213329814,175.44111282550386</t>
+          <t>-36.148616458520024,175.44102753495733</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.14888561829829,175.4418752919309</t>
+          <t>-36.148995318395514,175.44179345246772</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12866,17 +13114,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.148021898037726,175.44042253695648</t>
+          <t>-36.14800470689102,175.44043536217308</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.14868075197946,175.44097956970225</t>
+          <t>-36.14861368326241,175.44102960539828</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.14901204707784,175.44178097236136</t>
+          <t>-36.14897280790871,175.4418102459667</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12893,17 +13141,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.147836649877675,175.4405607384423</t>
+          <t>-36.14797109549757,175.44046043746872</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.14861537925319,175.4410283401288</t>
+          <t>-36.148613991624366,175.4410293753493</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.14901674961046,175.44177746412777</t>
+          <t>-36.1489815962497,175.44180368960176</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12920,17 +13168,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.14787496380325,175.44053215499935</t>
+          <t>-36.14791119628267,175.4405051243543</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.148449943007165,175.44115176116185</t>
+          <t>-36.148581999069016,175.4410532429223</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-36.148937577450944,175.44183652892406</t>
+          <t>-36.14898876568553,175.44179834098722</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12945,15 +13193,19 @@
           <t>2018-08-15 22:05:04+00:00</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>-36.14791119628267,175.4405051243543</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.14874974793934,175.44092809611206</t>
+          <t>-36.148623936297355,175.44102195626851</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-36.14909476538431,175.44171926189765</t>
+          <t>-36.149015284887184,175.44177855685632</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12970,17 +13222,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.14777667353954,175.44060548269078</t>
+          <t>-36.14782940338002,175.44056614456323</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.14863611659394,175.4410128693299</t>
+          <t>-36.148612758176526,175.44103029554523</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.1489988645679,175.44179080691563</t>
+          <t>-36.14901196998713,175.44178102987337</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12997,17 +13249,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.1479577588654,175.44047038706418</t>
+          <t>-36.14786979874723,175.4405360083021</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.14858623904647,175.44105007975108</t>
+          <t>-36.14860551167035,175.44103570169577</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.14904033936288,175.44175986544158</t>
+          <t>-36.14901790597092,175.44177660144732</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -13024,17 +13276,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.14790117453359,175.4405126009181</t>
+          <t>-36.1478776619668,175.4405301420798</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-36.14845472262069,175.44114819541682</t>
+          <t>-36.148575369285936,175.4410581889712</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-36.14896247775313,175.44181795256927</t>
+          <t>-36.14900680491022,175.44178488317866</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -13051,17 +13303,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.147876505610995,175.44053100475963</t>
+          <t>-36.14787743069563,175.44053031461578</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.14854052437657,175.4410841844707</t>
+          <t>-36.148569587498216,175.44106250238528</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-36.14888554120755,175.4418753494427</t>
+          <t>-36.14898660714573,175.44179995132288</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -13078,17 +13330,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-36.147757940567146,175.4406194580658</t>
+          <t>-36.14781722309624,175.44057523144522</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.14846412766637,175.4411411789496</t>
+          <t>-36.14850236456971,175.4411126529676</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.14878709631391,175.44194879197588</t>
+          <t>-36.14883628022028,175.4419120994876</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -13105,17 +13357,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.14777551718324,175.44060634536842</t>
+          <t>-36.14780334682283,175.44058558358591</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-36.14841478971777,175.44117798662836</t>
+          <t>-36.148473147259025,175.44113445004098</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.14884900019448,175.44190261004368</t>
+          <t>-36.148840520211756,175.44190893633996</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -13132,17 +13384,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.1479074959446,175.44050788493195</t>
+          <t>-36.14781367693755,175.44057787699262</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.14854823342774,175.4410784332559</t>
+          <t>-36.14847569124663,175.4411325521434</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.14889286482765,175.44186988581723</t>
+          <t>-36.14884298711585,175.441907095963</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -13159,17 +13411,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.14794642658201,175.44047884134213</t>
+          <t>-36.147876505610995,175.44053100475963</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-36.14849110935281,175.44112104973124</t>
+          <t>-36.14848471083887,175.44112582323282</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-36.148930639285794,175.4418417049961</t>
+          <t>-36.1488908604685,175.44187138112537</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -13186,17 +13438,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-36.147911581734554,175.44050483679413</t>
+          <t>-36.147921834754335,175.4404971876922</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.14852780444161,175.44109367397263</t>
+          <t>-36.14852240810537,175.44109769982106</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-36.1489221593059,175.4418480313052</t>
+          <t>-36.14891522114031,175.44185320737526</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -13213,17 +13465,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.14770359181203,175.44066000387025</t>
+          <t>-36.14786725476437,175.4405379061973</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-36.1483758589857,175.44120703015562</t>
+          <t>-36.14848579010629,175.44112501806393</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-36.14876913416383,175.44196219219947</t>
+          <t>-36.148878680131666,175.44188046799627</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -13240,17 +13492,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.1477000456517,175.44066264941017</t>
+          <t>-36.147815372926495,175.44057661173085</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.14840338031574,175.44118649839768</t>
+          <t>-36.14844955755447,175.44115204872193</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.14876227308469,175.44196731073822</t>
+          <t>-36.148846070745925,175.44190479549164</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -13267,17 +13519,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.14776942704009,175.4406108888037</t>
+          <t>-36.14780619916799,175.44058345564616</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-36.14833515516416,175.44123739642743</t>
+          <t>-36.14842666166257,175.44116912978478</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-36.14874855092584,175.44197754781314</t>
+          <t>-36.14882656678501,175.44191934597</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -13294,17 +13546,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.14771769936239,175.44064947921987</t>
+          <t>-36.1477914748994,175.44059444041454</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.1484139417217,175.44117861925994</t>
+          <t>-36.148424580217736,175.4411706826082</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.148759266544324,175.44196955369316</t>
+          <t>-36.14881531153413,175.44192774268555</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -13321,11 +13573,19 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-36.14785908318292,175.4405440024659</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+          <t>-36.14780111120093,175.44058725143046</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-36.148424580217736,175.4411706826082</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>-36.14881531153413,175.44192774268555</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13340,17 +13600,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.14788984224757,175.4405210551842</t>
+          <t>-36.147812212219826,175.44057896971864</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.14848995299488,175.44112191241229</t>
+          <t>-36.14843390817404,175.4411637236582</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-36.14890003426607,175.4418645372144</t>
+          <t>-36.148827414783355,175.44191871334067</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -13367,17 +13627,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.147736123976124,175.44063573390594</t>
+          <t>-36.14780373227488,175.44058529602648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.148377709159256,175.44120564986983</t>
+          <t>-36.14842689293422,175.44116895724883</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.148808604637814,175.4419327462067</t>
+          <t>-36.14882510206061,175.44192043869342</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13394,17 +13654,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.14764215072257,175.4407058406926</t>
+          <t>-36.14778762037869,175.4405973160077</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-36.14831210508042,175.44125459246547</t>
+          <t>-36.1484140959028,175.44117850423603</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-36.14874770292724,175.44197818044128</t>
+          <t>-36.14881646789555,175.44192688000942</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -13421,17 +13681,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.147812520581454,175.44057873967105</t>
+          <t>-36.14777420664613,175.44060732306977</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.148583386698,175.44105220770265</t>
+          <t>-36.14842434894609,175.44117085514412</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.148883382666845,175.44187695977428</t>
+          <t>-36.14881122572376,175.44193079080776</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13448,11 +13708,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.14797055586506,175.44046084005356</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+          <t>-36.14778014260833,175.44060289465764</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>-36.14841139773345,175.44118051715463</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>-36.148797349386115,175.44194114291852</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13467,17 +13735,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-36.14811271044291,175.44035478751525</t>
+          <t>-36.147860393719576,175.44054302476255</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.14873949490966,175.44093574526568</t>
+          <t>-36.14850051439711,175.44111403325766</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.149179179657104,175.4416562860377</t>
+          <t>-36.148903811712046,175.441861719133</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13494,17 +13762,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.147973793660064,175.4404584245444</t>
+          <t>-36.147874578351306,175.44053244255926</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.14845957932465,175.44114457215937</t>
+          <t>-36.14849373043077,175.44111909432073</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.1490747988991,175.4417341575384</t>
+          <t>-36.14893225819102,175.44184049724606</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13521,17 +13789,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.14787226563967,175.44053416791877</t>
+          <t>-36.147876274339836,175.44053117729558</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-36.14860173423619,175.44103851979517</t>
+          <t>-36.148509148535815,175.44110759190343</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-36.1490146681616,175.44177901695252</t>
+          <t>-36.14894405307157,175.44183169792268</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -13546,15 +13814,19 @@
           <t>2020-09-29 21:30:35+00:00</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>-36.147876274339836,175.44053117729558</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.1486354227796,175.44101338694043</t>
+          <t>-36.148524952092465,175.44109580192116</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.14902006451044,175.4417749911104</t>
+          <t>-36.14895353523004,175.44182462395497</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13571,17 +13843,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.14797726272607,175.4404558364986</t>
+          <t>-36.14795321053404,175.44047378027804</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.14864644671842,175.4410051626836</t>
+          <t>-36.14861098509524,175.44103161832683</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.14906246439004,175.44174335947497</t>
+          <t>-36.14903910591183,175.4417607856346</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13598,17 +13870,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-36.14791042537892,175.44050569947467</t>
+          <t>-36.14796932241934,175.4404617602475</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.14859117283832,175.44104639896955</t>
+          <t>-36.14861229563358,175.4410306406187</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-36.14898884277624,175.4417982834752</t>
+          <t>-36.149056682588714,175.44174767288175</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -13623,15 +13895,19 @@
           <t>2021-01-03 21:23:55+00:00</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>-36.14796932241934,175.4404617602475</t>
+        </is>
+      </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.148436529252606,175.44116176825045</t>
+          <t>-36.148587164132444,175.44104938960456</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.14880266864897,175.44193717460982</t>
+          <t>-36.149020372873224,175.44177476106225</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13648,17 +13924,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.147966855527876,175.44046360063527</t>
+          <t>-36.14796885987719,175.4404621053202</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.148604432403445,175.44103650686705</t>
+          <t>-36.14858932266638,175.44104777926268</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.149017289245336,175.44177706154358</t>
+          <t>-36.14901998741974,175.44177504862245</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13675,17 +13951,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-36.14783572479288,175.44056142858543</t>
+          <t>-36.14794989564841,175.4404762532981</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.14854044728605,175.44108424198282</t>
+          <t>-36.14858392633149,175.44105180511724</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.14890173026223,175.4418632719534</t>
+          <t>-36.14900688200093,175.44178482566664</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13702,17 +13978,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-36.147776750629944,175.44060542517892</t>
+          <t>-36.147901868347,175.44051208330993</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.14853759493706,175.441086369932</t>
+          <t>-36.14856149299518,175.44106854116396</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-36.148896796455205,175.44186695271256</t>
+          <t>-36.148975506083616,175.4418082330478</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13729,17 +14005,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.14796454281712,175.4404653259987</t>
+          <t>-36.14790526032365,175.44050955278078</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.148606822208706,175.44103472398777</t>
+          <t>-36.148574829652425,175.44105859155655</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-36.1489338000055,175.44183934700786</t>
+          <t>-36.1489529185043,175.4418250840505</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13756,17 +14032,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.147859622815666,175.44054359988218</t>
+          <t>-36.147898707641424,175.44051444130278</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.14858770376593,175.4410489870191</t>
+          <t>-36.14856889368369,175.44106301999494</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.148973732997256,175.4418095558231</t>
+          <t>-36.148947136700386,175.44182939744556</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13783,17 +14059,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-36.14777173975269,175.4406091634486</t>
+          <t>-36.147882827022634,175.4405262887763</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.14845526225447,175.4411477928327</t>
+          <t>-36.148556250840706,175.4410724519914</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.14884514565691,175.44190548563307</t>
+          <t>-36.148935804364314,175.44183785169812</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13810,17 +14086,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.14777173975269,175.4406091634486</t>
+          <t>-36.14787049256074,175.4405354906943</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.14842396349334,175.441171142704</t>
+          <t>-36.14854306836348,175.44108228656995</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.14883920966896,175.44190991404017</t>
+          <t>-36.14892616802371,175.4418450406865</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13837,17 +14113,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.14805450724991,175.44039820928842</t>
+          <t>-36.147862089708205,175.4405417594993</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.148626094830966,175.44102034592518</t>
+          <t>-36.14853967638092,175.44108481710424</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.14910239736085,175.44171356819518</t>
+          <t>-36.148927555656776,175.4418440054723</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13864,17 +14140,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-36.14805450724991,175.44039820928842</t>
+          <t>-36.14791273809019,175.44050397411354</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-36.14889367576191,175.44082072019418</t>
+          <t>-36.14859895897839,175.44104059023536</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-36.14930591664773,175.441561735732</t>
+          <t>-36.14900002092844,175.44178994423558</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13891,17 +14167,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.147976106370734,175.44045669918054</t>
+          <t>-36.147914665349575,175.44050253631255</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-36.148705960561465,175.44096076316052</t>
+          <t>-36.14861545634367,175.44102828261657</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.1490942257496,175.44171966448263</t>
+          <t>-36.14902677140097,175.441769987563</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13918,17 +14194,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.14823073568327,175.44026673601857</t>
+          <t>-36.14807894488362,175.44037997790252</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.14880232361866,175.44088887260213</t>
+          <t>-36.148756994441264,175.4409226899422</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.14922967402557,175.44161861548312</t>
+          <t>-36.14918303418941,175.4416534104245</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13945,17 +14221,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.14795398143766,175.44047320515708</t>
+          <t>-36.14805396761759,175.4403986118741</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.148605742941825,175.44103552915908</t>
+          <t>-36.14872677498503,175.44094523481445</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.14902507540569,175.44177125282795</t>
+          <t>-36.14915142702268,175.44167699044456</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13972,11 +14248,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-36.148015268268296,175.44042748300478</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+          <t>-36.14804610440368,175.44040447812202</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-36.14875190647185,175.4409264857637</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-36.14916376152725,175.4416677884877</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13991,17 +14275,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-36.148028219445635,175.44041782095618</t>
+          <t>-36.14804317497099,175.44040666358663</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-36.14861561052465,175.44102816759207</t>
+          <t>-36.148724693542746,175.4409467876494</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-36.14898390897095,175.44180196424236</t>
+          <t>-36.149127760190275,175.4416946466914</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -14018,17 +14302,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.147927924893715,175.44049264423978</t>
+          <t>-36.14802667763884,175.44041897120022</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-36.14863611659394,175.4410128693299</t>
+          <t>-36.148709892174935,175.4409578300291</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-36.14899778529805,175.44179161208368</t>
+          <t>-36.14910609771302,175.44171080761177</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -14045,11 +14329,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-36.14803446376303,175.4404131624673</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+          <t>-36.1480317656012,175.44041517539472</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-36.14866494843283,175.44099135973008</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>-36.14905914949063,175.44174583249492</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14064,17 +14356,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-36.14794156988897,175.44048246460338</t>
+          <t>-36.14801889151439,175.440424779932</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-36.148681368703215,175.44097910960352</t>
+          <t>-36.148668263323195,175.44098888670024</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.14901659542906,175.44177757915182</t>
+          <t>-36.14905059242449,175.44175221633623</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -14091,17 +14383,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-36.14802105004397,175.44042316959062</t>
+          <t>-36.14801912278542,175.4404246073954</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-36.14871205070781,175.4409562196823</t>
+          <t>-36.14867550982752,175.44098348054126</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.14906338947824,175.4417426693298</t>
+          <t>-36.14905275096373,175.441750605998</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -14118,17 +14410,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.14820953585656,175.44028255194976</t>
+          <t>-36.14801650171378,175.44042656280982</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.148801398533486,175.4408895627523</t>
+          <t>-36.14867535564657,175.44098359556594</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.14915905899746,175.44167129673409</t>
+          <t>-36.1490409560884,175.4417594053451</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -14145,17 +14437,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-36.147897011653065,175.44051570656717</t>
+          <t>-36.148003242174426,175.4404364549043</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.14861715233443,175.44102701734707</t>
+          <t>-36.14866702987562,175.4409898068974</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-36.1489101331521,175.4418570031594</t>
+          <t>-36.14902230014064,175.44177332326137</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -14172,17 +14464,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-36.14799622695274,175.44044168851113</t>
+          <t>-36.148002548361305,175.4404369725138</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-36.14868583995035,175.44097577388743</t>
+          <t>-36.14866941968028,175.44098802401535</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.149047740069044,175.44175434428303</t>
+          <t>-36.14902546085916,175.44177096526775</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -14199,15 +14491,19 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-36.14795398143766,175.44047320515708</t>
+          <t>-36.147998077121116,175.4404403082193</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-36.148642669284904,175.44100798078583</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>-36.14866641315182,175.44099026699598</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-36.14902546085916,175.44177096526775</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14222,17 +14518,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.14805443015959,175.44039826680066</t>
+          <t>-36.148007250872446,175.44043346427142</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-36.14867026767548,175.44098739137976</t>
+          <t>-36.148673582565756,175.44098491834959</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-36.14903956845596,175.44176044056223</t>
+          <t>-36.14902731103583,175.4417695849787</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -14249,17 +14545,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-36.14807663217392,175.44038170327076</t>
+          <t>-36.148012801377284,175.44042932339465</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.148678824717734,175.44098100751077</t>
+          <t>-36.14867412219905,175.4409845157633</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-36.14901713506396,175.4417771765676</t>
+          <t>-36.149026154675425,175.44177044765934</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -14276,15 +14572,19 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-36.14820059338366,175.44028922339461</t>
+          <t>-36.14805119236566,175.44040068231467</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.148817202071314,175.4408777726846</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>-36.14870318530486,175.44096283360605</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-36.14903949136527,175.4417604980743</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14299,15 +14599,19 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.14795768177504,175.44047044457628</t>
+          <t>-36.148043252061335,175.44040660607442</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.148647371804195,175.4410044725361</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>-36.148695090806235,175.44096887240474</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-36.14903471174241,175.4417640638219</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14322,17 +14626,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.14815241195075,175.44032516865386</t>
+          <t>-36.14805535524356,175.44039757665377</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-36.14880078181004,175.4408900228524</t>
+          <t>-36.14870680855653,175.44096013052436</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-36.14921726243367,175.44162787496734</t>
+          <t>-36.14906516256395,175.44174134655157</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -14349,17 +14653,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.148004552710326,175.44043547719744</t>
+          <t>-36.14807840525135,175.44038038048845</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-36.148759769697264,175.44092061949388</t>
+          <t>-36.14874080544732,175.4409347675544</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.1490816599695,175.44172903895998</t>
+          <t>-36.14910532680633,175.44171138273336</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -14376,17 +14680,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.148132676833086,175.44033989181966</t>
+          <t>-36.148089583348025,175.44037204120744</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.148763778400316,175.44091762884608</t>
+          <t>-36.148757765345714,175.44092211481768</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.14919128288836,175.44164725661136</t>
+          <t>-36.149163376074,175.4416680760489</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -14403,15 +14707,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.14822927096803,175.44026782875594</t>
+          <t>-36.14811286462354,175.44035467249057</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.14880078181004,175.4408900228524</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>-36.14876493475696,175.44091676615918</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>-36.149163376074,175.4416680760489</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14424,13 +14732,21 @@
           <t>2023-03-13 20:10:29+00:00</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-36.14811286462354,175.44035467249057</t>
+        </is>
+      </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-36.14869447408253,175.4409693325036</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+          <t>-36.148754912999244,175.44092424277832</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-36.149163376074,175.4416680760489</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14445,15 +14761,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-36.14795328762439,175.44047372276594</t>
+          <t>-36.14809004588993,175.4403716961337</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-36.14881936060321,175.44087616233352</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>-36.148762930405454,175.44091826148315</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-36.149163376074,175.4416680760489</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14468,17 +14788,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.147919522043146,175.44049891305372</t>
+          <t>-36.14804988183001,175.44040166002267</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.14859587535859,175.44104289072428</t>
+          <t>-36.148735254934856,175.44093890844894</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.148975506083616,175.4418082330478</t>
+          <t>-36.149116427862566,175.44170310098178</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -14495,17 +14815,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.148067612605836,175.44038843220588</t>
+          <t>-36.148052117449645,175.44039999216784</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.14875105847695,175.44092711840057</t>
+          <t>-36.14873702801525,175.44093758566325</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.14910956679314,175.44170821956462</t>
+          <t>-36.14911504023056,175.44170413620083</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -14522,11 +14842,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.14796485117855,175.44046509595023</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+          <t>-36.14803885791221,175.44040988427105</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>-36.148740728356856,175.44093482506685</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>-36.14908952321846,175.44172317272296</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14541,17 +14869,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-36.14819157382015,175.4402959523504</t>
+          <t>-36.14805789922446,175.44039567874972</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.14877156453491,175.440911820087</t>
+          <t>-36.14874458287933,175.44093194944534</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-36.149103014086215,175.44171310809799</t>
+          <t>-36.149092221392074,175.44172115979822</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14568,17 +14896,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-36.14818694840282,175.4402994030964</t>
+          <t>-36.14807223802541,175.44038498147012</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-36.14873240258813,175.4409410364084</t>
+          <t>-36.14874319525124,175.44093298466913</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-36.14908736467956,175.44172478306265</t>
+          <t>-36.149091373394654,175.44172179243174</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -14595,17 +14923,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.14818178335338,175.44030325642893</t>
+          <t>-36.148083184851366,175.44037681472722</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-36.14872731461821,175.4409448322276</t>
+          <t>-36.148741653442265,175.4409341349177</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-36.14909831155525,175.44171661633908</t>
+          <t>-36.14909237557342,175.44172104477394</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14622,17 +14950,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.14793609647289,175.44048654796077</t>
+          <t>-36.14807640090294,175.44038187580756</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.14866618188042,175.44099043953295</t>
+          <t>-36.14873224840722,175.4409411514332</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.14899639766538,175.4417926472997</t>
+          <t>-36.14908019524662,175.4417301316903</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14647,13 +14975,21 @@
           <t>2023-08-14 19:50:28+00:00</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>-36.14807640090294,175.44038187580756</t>
+        </is>
+      </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.148621700673225,175.44102362412406</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>-36.148722226648175,175.4409486280463</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>-36.14908019524662,175.4417301316903</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14668,17 +15004,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-36.148006325788295,175.4404341544175</t>
+          <t>-36.148063758089464,175.44039130781871</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.14863596241298,175.44101298435444</t>
+          <t>-36.148710585989086,175.44095731241765</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.14899770820733,175.4417916695957</t>
+          <t>-36.14905251969166,175.44175077853427</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14695,17 +15031,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.14803045506546,175.44041615310223</t>
+          <t>-36.14804386878401,175.44040614597662</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-36.148710354717686,175.4409574849548</t>
+          <t>-36.14870241440024,175.4409634087298</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.14915528155542,175.44167411483335</t>
+          <t>-36.149065393836004,175.44174117401528</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14722,17 +15058,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.14807185257378,175.44038526903145</t>
+          <t>-36.14807085039954,175.4403860166909</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.14873795310066,175.44093689551417</t>
+          <t>-36.14870603765193,175.44096070564814</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.14907333417618,175.44173525026852</t>
+          <t>-36.149077651254224,175.44173202959018</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14749,17 +15085,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.14813236847187,175.44034012186907</t>
+          <t>-36.14807794270943,175.4403807255621</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.14879631056498,175.440893358578</t>
+          <t>-36.148703493666716,175.44096260355656</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.14921795624938,175.44162735735648</t>
+          <t>-36.14908944612778,175.4417232302351</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14774,15 +15110,19 @@
           <t>2023-12-11 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-36.1480598264827,175.44039424094353</t>
+        </is>
+      </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.14877572741866,175.4409087144134</t>
+          <t>-36.148708967089426,175.44095852017767</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-36.14917108513905,175.44166232482448</t>
+          <t>-36.1491014722728,175.441714258341</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14799,17 +15139,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.14801480572623,175.4404278280779</t>
+          <t>-36.14803199687222,175.44041500285806</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.148659320828195,175.44099555812912</t>
+          <t>-36.14870041004823,175.44096490405144</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.14902499831499,175.44177131034</t>
+          <t>-36.14909098794128,175.44172207999242</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14826,15 +15166,19 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.147929004158904,175.44049183907092</t>
+          <t>-36.148017272617196,175.44042598768795</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-36.14864359437067,175.4410072906384</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>-36.14869408863021,175.44096962006543</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-36.14909098794128,175.44172207999242</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14849,17 +15193,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.14795644832926,175.4404713647699</t>
+          <t>-36.14800964067316,175.440431681394</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.148634728965256,175.4410139045509</t>
+          <t>-36.14868815266435,175.4409740485169</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.1489792064377,175.4418054724731</t>
+          <t>-36.14907703452879,175.4417324896871</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14876,15 +15220,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.147847982166155,175.44055228418733</t>
+          <t>-36.147991678622084,175.44044508172823</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-36.14856010536606,175.44106957638303</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>-36.148676512003625,175.4409827328809</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-36.14907703452879,175.4417324896871</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14899,17 +15247,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.148055740695206,175.44039728909254</t>
+          <t>-36.147998077121116,175.4404403082193</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.1487480519495,175.44092936138574</t>
+          <t>-36.148682525060245,175.44097824691838</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.14908212251354,175.44172869388726</t>
+          <t>-36.14907757416354,175.4417320871023</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14926,17 +15274,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.147852376318674,175.44054900600622</t>
+          <t>-36.14798975136331,175.440446519532</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.14858585359398,175.4410503673121</t>
+          <t>-36.14867581818941,175.44098325049194</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-36.148930639285794,175.4418417049961</t>
+          <t>-36.149070250548945,175.44173755075283</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14953,17 +15301,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.147857618465466,175.4405450951932</t>
+          <t>-36.14797772526819,175.4404554914258</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.14863750422264,175.44101183410888</t>
+          <t>-36.148677128727385,175.44098227278224</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.148982135884665,175.4418032870179</t>
+          <t>-36.149061462211144,175.44174410713217</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14980,17 +15328,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.14786185843702,175.4405419320352</t>
+          <t>-36.147964619907476,175.44046526848658</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.1485805343495,175.44105433565412</t>
+          <t>-36.14867250329916,175.44098572352223</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.148950066147705,175.44182721199215</t>
+          <t>-36.149056682588714,175.44174767288175</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -15007,17 +15355,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.147875503435955,175.44053175241544</t>
+          <t>-36.147950512371324,175.44047579320136</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-36.14857521510493,175.44105830399556</t>
+          <t>-36.14866124809007,175.44099412032128</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.148944746888056,175.44183118031535</t>
+          <t>-36.1490356368307,175.44176337367725</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -15034,17 +15382,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.1478490614317,175.4405514790201</t>
+          <t>-36.14794203243117,175.44048211953088</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.148553398491885,175.4410745799414</t>
+          <t>-36.14865292231864,175.4410003316506</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.14887721540759,175.44188156072107</t>
+          <t>-36.14902122087089,175.44177412842987</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -15061,17 +15409,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-36.147893311314775,175.44051846714382</t>
+          <t>-36.147927153990004,175.44049321936038</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-36.148607053480184,175.44103455145108</t>
+          <t>-36.14864290055634,175.44100780824897</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.148986452964316,175.44180006634684</t>
+          <t>-36.14901335761972,175.44177999465694</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -15088,17 +15436,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-36.147884831372636,175.4405247934644</t>
+          <t>-36.147875734707114,175.4405315798795</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-36.14847846650583,175.44113048170954</t>
+          <t>-36.148546306164974,175.4410798710597</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-36.14896085884812,175.44181916032025</t>
+          <t>-36.148941509077765,175.44183359581618</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -15115,17 +15463,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.147845052731086,175.44055446964123</t>
+          <t>-36.147874424170524,175.44053255758325</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-36.1485310422433,175.44109125846333</t>
+          <t>-36.14853882838528,175.44108544973778</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-36.148914758595936,175.4418535524466</t>
+          <t>-36.14895399777434,175.44182427888333</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -15140,15 +15488,19 @@
           <t>2024-10-26 22:05:48+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-36.147874424170524,175.44053255758325</t>
+        </is>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-36.14854915851386,175.44107774311007</t>
+          <t>-36.14854144946272,175.44108349432497</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-36.148957081403026,175.44182197840564</t>
+          <t>-36.14895476868152,175.44182370376393</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -15165,17 +15517,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-36.147933089948495,175.44048879093148</t>
+          <t>-36.14788768371685,175.44052266552035</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-36.14848648392107,175.44112450045535</t>
+          <t>-36.14851130707043,175.44110598156468</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-36.148925782570075,175.44184532824602</t>
+          <t>-36.14893965890045,175.44183497610229</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -15192,17 +15544,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-36.14790479778137,175.44050989785296</t>
+          <t>-36.147891923687894,175.44051950236002</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-36.148519247394084,175.44110005781772</t>
+          <t>-36.14851284888088,175.44110483132263</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-36.148870585603696,175.4418865067381</t>
+          <t>-36.148925782570075,175.44184532824602</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -15219,17 +15571,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-36.1478098995076,175.44058069507548</t>
+          <t>-36.147875503435955,175.44053175241544</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-36.148432212182,175.44116498892194</t>
+          <t>-36.14849943512975,175.44111483842684</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-36.14878971740008,175.44194683657793</t>
+          <t>-36.14890311789543,175.4418622367398</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -15246,17 +15598,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-36.14784705708141,175.4405529743307</t>
+          <t>-36.14787080092229,175.44053526064639</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-36.148458037513876,175.44114572239988</t>
+          <t>-36.14849349915919,175.44111926685696</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-36.14881854934608,175.44192532719228</t>
+          <t>-36.14889101464997,175.44187126610163</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -15273,17 +15625,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-36.147894621851265,175.44051748943963</t>
+          <t>-36.147874192899366,175.4405327301192</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-36.14852202265278,175.44109798738165</t>
+          <t>-36.14849704532343,175.4411166213014</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-36.14888037612797,175.44187920273595</t>
+          <t>-36.14888970410743,175.4418722438031</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -15300,17 +15652,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-36.14794395969032,175.44048068172884</t>
+          <t>-36.147882672841874,175.4405264038003</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-36.14851022780313,175.44110678673405</t>
+          <t>-36.14850105403079,175.44111363067307</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-36.148881686670556,175.4418782250347</t>
+          <t>-36.14887983649278,175.44187960531877</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -15327,17 +15679,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-36.14780296137078,175.44058587114532</t>
+          <t>-36.14787265109162,175.44053388035886</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-36.1484669029257,175.44113910851632</t>
+          <t>-36.148497276595016,175.44111644876514</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-36.14883188604723,175.44191537765843</t>
+          <t>-36.148874517231604,175.44188357363507</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -15354,17 +15706,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-36.14792144930248,175.44049747525247</t>
+          <t>-36.147882210299564,175.4405267488723</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-36.14867258038963,175.4409856660099</t>
+          <t>-36.1485084547211,175.4411081095123</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-36.14906886291669,175.4417385859707</t>
+          <t>-36.14888345975759,175.44187690226244</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -15379,15 +15731,19 @@
           <t>2025-06-23 22:05:18+00:00</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>-36.147869952928005,175.44053589327814</t>
+        </is>
+      </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-36.14870711691838,175.44095990047484</t>
+          <t>-36.14853844293272,175.4410857372985</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-36.14909515083768,175.44171897433694</t>
+          <t>-36.14890943933552,175.44185752076632</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -15404,17 +15760,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-36.147846209087035,175.44055360696208</t>
+          <t>-36.14787604306866,175.44053134983153</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-36.14886060397725,175.44084539310907</t>
+          <t>-36.148599652792846,175.44104007262533</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-36.149258891372966,175.44159681830104</t>
+          <t>-36.148976508262855,175.4418074853922</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -15431,17 +15787,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-36.148097138199255,175.4403664050024</t>
+          <t>-36.14791774896456,175.4405002358308</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-36.148684683593345,175.44097663657266</t>
+          <t>-36.148632030798325,175.4410159174805</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-36.14908443523385,175.4417269685235</t>
+          <t>-36.1490144368895,175.4417791894886</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -15458,17 +15814,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-36.14817646412324,175.4403072247858</t>
+          <t>-36.14795467525093,175.4404726875482</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-36.148786134627684,175.44090095022793</t>
+          <t>-36.148651303418596,175.44100153940892</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-36.14917702111899,175.44165789638095</t>
+          <t>-36.14903478883309,175.44176400630985</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -15485,17 +15841,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-36.14795968612443,175.44046894926154</t>
+          <t>-36.14795529197382,175.4404722274514</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-36.14880031926745,175.4408903679275</t>
+          <t>-36.148667877870835,175.44098917426186</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-36.14925511393246,175.44159963640726</t>
+          <t>-36.149059303672,175.44174571747075</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -15512,17 +15868,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-36.14802791108426,175.44041805100497</t>
+          <t>-36.147975952190016,175.44045681420482</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-36.14879816073537,175.4408919782778</t>
+          <t>-36.148722072467265,175.44094874307112</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-36.14919513742048,175.4416443809973</t>
+          <t>-36.14912082203051,175.44169982278783</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -15539,17 +15895,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-36.148080178328804,175.4403790577061</t>
+          <t>-36.14801557662966,175.44042725295603</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-36.148765859842264,175.44091607600961</t>
+          <t>-36.1487594613355,175.4409208495437</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-36.149122903478464,175.44169826995898</t>
+          <t>-36.14915720882178,175.44167267702764</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -15564,15 +15920,19 @@
           <t>2025-11-06 22:05:55+00:00</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>-36.148031303059184,175.44041552046795</t>
+        </is>
+      </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-36.14877865685532,175.44090652893917</t>
+          <t>-36.148772720891515,175.44091095739992</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-36.149163915708556,175.44166767346323</t>
+          <t>-36.149169080782166,175.44166382014296</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
